--- a/spec-tokens.xlsx
+++ b/spec-tokens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garthdb/Spectrum/spectrum-tokens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F16DA05-BDFF-2946-99CE-40DC8F7EE493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1589F43-0125-FC4D-B82D-B89D9D9B873C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8620" yWindow="500" windowWidth="39040" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1240" yWindow="500" windowWidth="39040" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Layout" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3646" uniqueCount="1667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3647" uniqueCount="1668">
   <si>
     <t>Name</t>
   </si>
@@ -6012,15 +6012,25 @@
   </si>
   <si>
     <t>detail-cjk-strong-emphasized-font-family</t>
+  </si>
+  <si>
+    <t>corner-radius-75</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -6283,44 +6293,41 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6332,160 +6339,159 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="16" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6802,11 +6808,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I200"/>
+  <dimension ref="A1:I199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A135" sqref="A135:G198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
@@ -6857,7 +6863,7 @@
     </row>
     <row r="3" spans="1:9" ht="68">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>1667</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -6871,14 +6877,14 @@
       <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
       <c r="H3" s="50"/>
       <c r="I3" s="50"/>
     </row>
     <row r="4" spans="1:9" ht="68">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>12</v>
@@ -6892,14 +6898,16 @@
       <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
       <c r="H4" s="50"/>
       <c r="I4" s="50"/>
     </row>
     <row r="5" spans="1:9" ht="68">
-      <c r="A5" s="50"/>
-      <c r="B5" s="52" t="s">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="66" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="5">
@@ -6911,13 +6919,13 @@
       <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
       <c r="H5" s="50"/>
       <c r="I5" s="50"/>
     </row>
     <row r="6" spans="1:9" ht="68">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="65" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -6932,13 +6940,13 @@
       <c r="E6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
       <c r="H6" s="50"/>
       <c r="I6" s="50"/>
     </row>
     <row r="7" spans="1:9" ht="68">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="65" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -6953,13 +6961,13 @@
       <c r="E7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
       <c r="H7" s="50"/>
       <c r="I7" s="50"/>
     </row>
     <row r="8" spans="1:9" ht="68">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="65" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -6974,20 +6982,24 @@
       <c r="E8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
       <c r="H8" s="50"/>
       <c r="I8" s="50"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
       <c r="H9" s="50"/>
       <c r="I9" s="50"/>
     </row>
     <row r="10" spans="1:9" ht="17">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -7002,29 +7014,29 @@
       <c r="E10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50" t="s">
+      <c r="F10" s="65"/>
+      <c r="G10" s="65" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="50"/>
       <c r="I10" s="50"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
       <c r="H11" s="50"/>
       <c r="I11" s="50"/>
     </row>
     <row r="12" spans="1:9" ht="34">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="66" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="5">
@@ -7036,16 +7048,16 @@
       <c r="E12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
       <c r="H12" s="50"/>
       <c r="I12" s="50"/>
     </row>
     <row r="13" spans="1:9" ht="34">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="66" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="5">
@@ -7057,16 +7069,16 @@
       <c r="E13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
       <c r="H13" s="50"/>
       <c r="I13" s="50"/>
     </row>
     <row r="14" spans="1:9" ht="34">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="66" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="5">
@@ -7078,16 +7090,16 @@
       <c r="E14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
       <c r="H14" s="50"/>
       <c r="I14" s="50"/>
     </row>
     <row r="15" spans="1:9" ht="34">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="66" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="5">
@@ -7099,18 +7111,18 @@
       <c r="E15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
       <c r="H15" s="50"/>
       <c r="I15" s="50" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="34">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="66" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="5">
@@ -7122,14 +7134,16 @@
       <c r="E16" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
       <c r="H16" s="50"/>
       <c r="I16" s="50"/>
     </row>
-    <row r="17" spans="1:5" ht="34">
-      <c r="A17" s="50" t="s">
+    <row r="17" spans="1:7" ht="34">
+      <c r="A17" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="66" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="5">
@@ -7141,12 +7155,14 @@
       <c r="E17" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="34">
-      <c r="A18" s="50" t="s">
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+    </row>
+    <row r="18" spans="1:7" ht="34">
+      <c r="A18" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="66" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="5">
@@ -7158,12 +7174,14 @@
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="34">
-      <c r="A19" s="50" t="s">
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+    </row>
+    <row r="19" spans="1:7" ht="34">
+      <c r="A19" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="66" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="5">
@@ -7175,12 +7193,14 @@
       <c r="E19" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="34">
-      <c r="A20" s="50" t="s">
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+    </row>
+    <row r="20" spans="1:7" ht="34">
+      <c r="A20" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="66" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="5">
@@ -7192,12 +7212,14 @@
       <c r="E20" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="34">
-      <c r="A21" s="50" t="s">
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+    </row>
+    <row r="21" spans="1:7" ht="34">
+      <c r="A21" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="66" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="5">
@@ -7209,12 +7231,14 @@
       <c r="E21" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="34">
-      <c r="A22" s="50" t="s">
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+    </row>
+    <row r="22" spans="1:7" ht="34">
+      <c r="A22" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="66" t="s">
         <v>46</v>
       </c>
       <c r="C22" s="5">
@@ -7226,12 +7250,14 @@
       <c r="E22" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="34">
-      <c r="A23" s="50" t="s">
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+    </row>
+    <row r="23" spans="1:7" ht="34">
+      <c r="A23" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="66" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="5">
@@ -7243,12 +7269,14 @@
       <c r="E23" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="34">
-      <c r="A24" s="50" t="s">
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+    </row>
+    <row r="24" spans="1:7" ht="34">
+      <c r="A24" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="66" t="s">
         <v>50</v>
       </c>
       <c r="C24" s="5">
@@ -7260,12 +7288,14 @@
       <c r="E24" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="34">
-      <c r="A25" s="50" t="s">
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+    </row>
+    <row r="25" spans="1:7" ht="34">
+      <c r="A25" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="66" t="s">
         <v>52</v>
       </c>
       <c r="C25" s="5">
@@ -7277,12 +7307,14 @@
       <c r="E25" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="34">
-      <c r="A26" s="50" t="s">
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+    </row>
+    <row r="26" spans="1:7" ht="34">
+      <c r="A26" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="66" t="s">
         <v>53</v>
       </c>
       <c r="C26" s="5">
@@ -7294,22 +7326,26 @@
       <c r="E26" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="65"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
       <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" ht="34">
-      <c r="A28" s="50" t="s">
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+    </row>
+    <row r="28" spans="1:7" ht="34">
+      <c r="A28" s="65" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="51">
+      <c r="C28" s="67">
         <v>44517</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -7318,15 +7354,17 @@
       <c r="E28" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="34">
-      <c r="A29" s="50" t="s">
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+    </row>
+    <row r="29" spans="1:7" ht="34">
+      <c r="A29" s="65" t="s">
         <v>55</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="51">
+      <c r="C29" s="67">
         <v>44517</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -7335,15 +7373,17 @@
       <c r="E29" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="34">
-      <c r="A30" s="50" t="s">
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+    </row>
+    <row r="30" spans="1:7" ht="34">
+      <c r="A30" s="65" t="s">
         <v>57</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="51">
+      <c r="C30" s="67">
         <v>44517</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -7352,15 +7392,17 @@
       <c r="E30" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="34">
-      <c r="A31" s="50" t="s">
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+    </row>
+    <row r="31" spans="1:7" ht="34">
+      <c r="A31" s="65" t="s">
         <v>59</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="51">
+      <c r="C31" s="67">
         <v>44517</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -7369,15 +7411,17 @@
       <c r="E31" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="34">
-      <c r="A32" s="50" t="s">
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+    </row>
+    <row r="32" spans="1:7" ht="34">
+      <c r="A32" s="65" t="s">
         <v>60</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="51">
+      <c r="C32" s="67">
         <v>44517</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -7386,238 +7430,282 @@
       <c r="E32" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="50"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="50" t="s">
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="50" t="s">
+      <c r="B34" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="67">
+        <v>44592</v>
+      </c>
+      <c r="D34" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="51">
+      <c r="B35" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="67">
         <v>44592</v>
       </c>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="65" t="s">
         <v>65</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="50" t="s">
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+    </row>
+    <row r="36" spans="1:7" ht="17">
+      <c r="A36" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="51">
+      <c r="B36" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="67">
         <v>44592</v>
       </c>
-      <c r="D36" s="50" t="s">
+      <c r="D36" s="65" t="s">
         <v>65</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="17">
-      <c r="A37" s="50" t="s">
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="51">
+      <c r="B37" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="67">
         <v>44592</v>
       </c>
-      <c r="D37" s="50" t="s">
+      <c r="D37" s="65" t="s">
         <v>65</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="50" t="s">
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="51">
+      <c r="B38" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="67">
         <v>44592</v>
       </c>
-      <c r="D38" s="50" t="s">
+      <c r="D38" s="65" t="s">
         <v>65</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="50" t="s">
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="51">
+      <c r="B39" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="67">
         <v>44592</v>
       </c>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="65" t="s">
         <v>65</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="50" t="s">
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="51">
+      <c r="B40" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="67">
         <v>44592</v>
       </c>
-      <c r="D40" s="50" t="s">
+      <c r="D40" s="65" t="s">
         <v>65</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="50" t="s">
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="51">
+      <c r="B41" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="67">
         <v>44592</v>
       </c>
-      <c r="D41" s="50" t="s">
+      <c r="D41" s="65" t="s">
         <v>65</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="50" t="s">
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="51">
+      <c r="B42" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="67">
         <v>44592</v>
       </c>
-      <c r="D42" s="50" t="s">
+      <c r="D42" s="65" t="s">
         <v>65</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="50" t="s">
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="51">
+      <c r="B43" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="67">
         <v>44592</v>
       </c>
-      <c r="D43" s="50" t="s">
+      <c r="D43" s="65" t="s">
         <v>65</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="50" t="s">
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="51">
+      <c r="B44" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="67">
         <v>44592</v>
       </c>
-      <c r="D44" s="50" t="s">
+      <c r="D44" s="65" t="s">
         <v>65</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="50" t="s">
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" s="51">
+      <c r="B45" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="67">
         <v>44592</v>
       </c>
-      <c r="D45" s="50" t="s">
+      <c r="D45" s="65" t="s">
         <v>65</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="50"/>
-      <c r="B46" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" s="51">
-        <v>44592</v>
-      </c>
-      <c r="D46" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="50" t="s">
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="65"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+    </row>
+    <row r="47" spans="1:7" ht="34">
+      <c r="A47" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="5"/>
-    </row>
-    <row r="48" spans="1:5" ht="34">
-      <c r="A48" s="50" t="s">
+      <c r="B47" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="67">
+        <v>44599</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+    </row>
+    <row r="48" spans="1:7" ht="34">
+      <c r="A48" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" s="51">
+      <c r="B48" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="67">
         <v>44599</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -7626,15 +7714,17 @@
       <c r="E48" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="34">
-      <c r="A49" s="50" t="s">
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+    </row>
+    <row r="49" spans="1:7" ht="34">
+      <c r="A49" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" s="51">
+      <c r="B49" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="67">
         <v>44599</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -7643,15 +7733,17 @@
       <c r="E49" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="34">
-      <c r="A50" s="50" t="s">
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+    </row>
+    <row r="50" spans="1:7" ht="34">
+      <c r="A50" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" s="51">
+      <c r="B50" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="67">
         <v>44599</v>
       </c>
       <c r="D50" s="3" t="s">
@@ -7660,155 +7752,177 @@
       <c r="E50" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="34">
-      <c r="A51" s="50" t="s">
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+    </row>
+    <row r="51" spans="1:7" ht="34">
+      <c r="A51" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="67">
+        <v>44599</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="65"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
+    </row>
+    <row r="53" spans="1:7" ht="34">
+      <c r="A53" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="51">
+      <c r="C53" s="67">
         <v>44599</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="34">
-      <c r="A52" s="50"/>
-      <c r="B52" s="52" t="s">
+      <c r="D53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="65"/>
+      <c r="G53" s="65"/>
+    </row>
+    <row r="54" spans="1:7" ht="34">
+      <c r="A54" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="51">
+      <c r="C54" s="67">
         <v>44599</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="5"/>
-    </row>
-    <row r="54" spans="1:5" ht="34">
-      <c r="A54" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="B54" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="C54" s="51">
+      <c r="D54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
+    </row>
+    <row r="55" spans="1:7" ht="34">
+      <c r="A55" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="67">
         <v>44599</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="34">
-      <c r="A55" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="B55" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="C55" s="51">
+      <c r="D55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+    </row>
+    <row r="56" spans="1:7" ht="34">
+      <c r="A56" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="67">
         <v>44599</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="34">
-      <c r="A56" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="B56" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="C56" s="51">
+      <c r="D56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="65"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="7"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
+    </row>
+    <row r="59" spans="1:7" ht="34">
+      <c r="A59" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" s="67">
         <v>44599</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="34">
-      <c r="A57" s="50"/>
-      <c r="B57" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="C57" s="51">
+      <c r="D59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+    </row>
+    <row r="60" spans="1:7" ht="34">
+      <c r="A60" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="67">
         <v>44599</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="7"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="5"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="B59" s="52"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="5"/>
-    </row>
-    <row r="60" spans="1:5" ht="34">
-      <c r="A60" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="B60" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="C60" s="51">
-        <v>44599</v>
-      </c>
       <c r="D60" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="34">
+      <c r="F60" s="65"/>
+      <c r="G60" s="65"/>
+    </row>
+    <row r="61" spans="1:7" ht="34">
       <c r="A61" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B61" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="C61" s="51">
+      <c r="B61" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="67">
         <v>44599</v>
       </c>
       <c r="D61" s="3" t="s">
@@ -7817,15 +7931,17 @@
       <c r="E61" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="34">
+      <c r="F61" s="65"/>
+      <c r="G61" s="65"/>
+    </row>
+    <row r="62" spans="1:7" ht="34">
       <c r="A62" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B62" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="C62" s="51">
+      <c r="B62" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="67">
         <v>44599</v>
       </c>
       <c r="D62" s="3" t="s">
@@ -7834,15 +7950,17 @@
       <c r="E62" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="34">
+      <c r="F62" s="65"/>
+      <c r="G62" s="65"/>
+    </row>
+    <row r="63" spans="1:7" ht="34">
       <c r="A63" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B63" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C63" s="51">
+      <c r="B63" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" s="67">
         <v>44599</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -7851,43 +7969,47 @@
       <c r="E63" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="34">
-      <c r="A64" s="50"/>
-      <c r="B64" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="C64" s="51">
-        <v>44599</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="F63" s="65"/>
+      <c r="G63" s="65"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="65"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="65"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="50" t="s">
+      <c r="A65" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B65" s="50"/>
-      <c r="C65" s="50"/>
-      <c r="D65" s="50"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="50"/>
-      <c r="G65" s="50"/>
+      <c r="B65" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" s="67">
+        <v>44819</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="28"/>
+      <c r="G65" s="65"/>
       <c r="H65" s="50"/>
       <c r="I65" s="50"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="50" t="s">
+      <c r="A66" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B66" s="50" t="s">
+      <c r="B66" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="51">
+      <c r="C66" s="67">
         <v>44819</v>
       </c>
       <c r="D66" s="3" t="s">
@@ -7897,50 +8019,50 @@
         <v>10</v>
       </c>
       <c r="F66" s="28"/>
-      <c r="G66" s="50"/>
+      <c r="G66" s="65"/>
       <c r="H66" s="50"/>
       <c r="I66" s="50"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="50"/>
-      <c r="B67" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="C67" s="51">
-        <v>44819</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="28"/>
-      <c r="G67" s="50"/>
+      <c r="A67" s="65"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="65"/>
+      <c r="D67" s="65"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="65"/>
       <c r="H67" s="50"/>
       <c r="I67" s="50"/>
     </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="50" t="s">
+    <row r="68" spans="1:9" ht="34">
+      <c r="A68" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B68" s="50"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="50"/>
-      <c r="G68" s="50"/>
+      <c r="B68" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" s="67">
+        <v>44599</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
       <c r="H68" s="50"/>
       <c r="I68" s="50"/>
     </row>
-    <row r="69" spans="1:9" ht="34">
-      <c r="A69" s="50" t="s">
+    <row r="69" spans="1:9">
+      <c r="A69" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="B69" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="C69" s="51">
+      <c r="B69" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" s="67">
         <v>44599</v>
       </c>
       <c r="D69" s="3" t="s">
@@ -7949,72 +8071,72 @@
       <c r="E69" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F69" s="50"/>
-      <c r="G69" s="50"/>
+      <c r="F69" s="65"/>
+      <c r="G69" s="65"/>
       <c r="H69" s="50"/>
       <c r="I69" s="50"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="50" t="s">
+      <c r="A70" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="B70" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="C70" s="51">
-        <v>44599</v>
+      <c r="B70" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="67">
+        <v>44839</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F70" s="50"/>
-      <c r="G70" s="50"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="65"/>
       <c r="H70" s="50"/>
       <c r="I70" s="50"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="50"/>
-      <c r="B71" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="C71" s="51">
-        <v>44839</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" s="41"/>
-      <c r="G71" s="50"/>
+      <c r="A71" s="65"/>
+      <c r="B71" s="65"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="65"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="65"/>
+      <c r="G71" s="65"/>
       <c r="H71" s="50"/>
       <c r="I71" s="50"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="50" t="s">
+      <c r="A72" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="B72" s="50"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="50"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="50"/>
-      <c r="G72" s="50"/>
+      <c r="B72" s="68">
+        <v>1.3</v>
+      </c>
+      <c r="C72" s="67">
+        <v>44599</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="65"/>
+      <c r="G72" s="65"/>
       <c r="H72" s="50"/>
       <c r="I72" s="50"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="50" t="s">
+      <c r="A73" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="B73" s="53">
-        <v>1.3</v>
-      </c>
-      <c r="C73" s="51">
+      <c r="B73" s="68">
+        <v>1.5</v>
+      </c>
+      <c r="C73" s="67">
         <v>44599</v>
       </c>
       <c r="D73" s="3" t="s">
@@ -8023,20 +8145,20 @@
       <c r="E73" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F73" s="50"/>
-      <c r="G73" s="50"/>
+      <c r="F73" s="65"/>
+      <c r="G73" s="65"/>
       <c r="H73" s="50"/>
       <c r="I73" s="50"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="50" t="s">
+      <c r="A74" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="B74" s="53">
-        <v>1.5</v>
-      </c>
-      <c r="C74" s="51">
-        <v>44599</v>
+      <c r="B74" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" s="5">
+        <v>44641</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>9</v>
@@ -8044,17 +8166,17 @@
       <c r="E74" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F74" s="50"/>
-      <c r="G74" s="50"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
       <c r="H74" s="50"/>
       <c r="I74" s="50"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="50" t="s">
+      <c r="A75" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="B75" s="53" t="s">
-        <v>126</v>
+      <c r="B75" s="68" t="s">
+        <v>127</v>
       </c>
       <c r="C75" s="5">
         <v>44641</v>
@@ -8065,85 +8187,85 @@
       <c r="E75" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F75" s="50"/>
-      <c r="G75" s="50"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="65"/>
       <c r="H75" s="50"/>
       <c r="I75" s="50"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="50"/>
-      <c r="B76" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="C76" s="5">
-        <v>44641</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" s="50"/>
-      <c r="G76" s="50"/>
+      <c r="A76" s="65"/>
+      <c r="B76" s="68"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="65"/>
       <c r="H76" s="50"/>
       <c r="I76" s="50"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="50" t="s">
+      <c r="A77" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="B77" s="53"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="50"/>
-      <c r="G77" s="50"/>
+      <c r="B77" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" s="67">
+        <v>44803</v>
+      </c>
+      <c r="D77" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="28"/>
+      <c r="G77" s="65"/>
       <c r="H77" s="50"/>
       <c r="I77" s="50"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="50"/>
-      <c r="B78" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="C78" s="51">
-        <v>44803</v>
-      </c>
-      <c r="D78" s="50" t="s">
-        <v>130</v>
-      </c>
+      <c r="A78" s="65"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="65"/>
+      <c r="D78" s="65"/>
       <c r="E78" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F78" s="28"/>
-      <c r="G78" s="50"/>
+      <c r="F78" s="65"/>
+      <c r="G78" s="65"/>
       <c r="H78" s="50"/>
       <c r="I78" s="50"/>
     </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="50" t="s">
+    <row r="79" spans="1:9" ht="34">
+      <c r="A79" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="B79" s="50"/>
-      <c r="C79" s="50"/>
-      <c r="D79" s="50"/>
+      <c r="B79" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79" s="67">
+        <v>44698</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E79" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F79" s="50"/>
-      <c r="G79" s="50"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="65"/>
       <c r="H79" s="50"/>
       <c r="I79" s="50"/>
     </row>
     <row r="80" spans="1:9" ht="34">
-      <c r="A80" s="50" t="s">
+      <c r="A80" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="B80" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="C80" s="51">
+      <c r="B80" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" s="67">
         <v>44698</v>
       </c>
       <c r="D80" s="3" t="s">
@@ -8153,18 +8275,18 @@
         <v>10</v>
       </c>
       <c r="F80" s="27"/>
-      <c r="G80" s="50"/>
+      <c r="G80" s="65"/>
       <c r="H80" s="50"/>
       <c r="I80" s="50"/>
     </row>
     <row r="81" spans="1:9" ht="34">
-      <c r="A81" s="50" t="s">
+      <c r="A81" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="B81" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C81" s="51">
+      <c r="B81" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81" s="67">
         <v>44698</v>
       </c>
       <c r="D81" s="3" t="s">
@@ -8174,18 +8296,18 @@
         <v>10</v>
       </c>
       <c r="F81" s="27"/>
-      <c r="G81" s="50"/>
+      <c r="G81" s="65"/>
       <c r="H81" s="50"/>
       <c r="I81" s="50"/>
     </row>
     <row r="82" spans="1:9" ht="34">
-      <c r="A82" s="50" t="s">
+      <c r="A82" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="B82" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="C82" s="51">
+      <c r="B82" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="C82" s="67">
         <v>44698</v>
       </c>
       <c r="D82" s="3" t="s">
@@ -8195,50 +8317,50 @@
         <v>10</v>
       </c>
       <c r="F82" s="27"/>
-      <c r="G82" s="50"/>
+      <c r="G82" s="65"/>
       <c r="H82" s="50"/>
       <c r="I82" s="50"/>
     </row>
-    <row r="83" spans="1:9" ht="34">
-      <c r="A83" s="50"/>
-      <c r="B83" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="C83" s="51">
-        <v>44698</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" s="27"/>
-      <c r="G83" s="50"/>
+    <row r="83" spans="1:9">
+      <c r="A83" s="65"/>
+      <c r="B83" s="66"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="65"/>
+      <c r="G83" s="65"/>
       <c r="H83" s="50"/>
       <c r="I83" s="50"/>
     </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="50" t="s">
+    <row r="84" spans="1:9" ht="34">
+      <c r="A84" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="B84" s="52"/>
-      <c r="C84" s="51"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="50"/>
-      <c r="G84" s="50"/>
+      <c r="B84" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="C84" s="67">
+        <v>44698</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="27"/>
+      <c r="G84" s="65"/>
       <c r="H84" s="50"/>
       <c r="I84" s="50"/>
     </row>
     <row r="85" spans="1:9" ht="34">
-      <c r="A85" s="50" t="s">
+      <c r="A85" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="B85" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="C85" s="51">
+      <c r="B85" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" s="67">
         <v>44698</v>
       </c>
       <c r="D85" s="3" t="s">
@@ -8248,18 +8370,18 @@
         <v>10</v>
       </c>
       <c r="F85" s="27"/>
-      <c r="G85" s="50"/>
+      <c r="G85" s="65"/>
       <c r="H85" s="50"/>
       <c r="I85" s="50"/>
     </row>
     <row r="86" spans="1:9" ht="34">
-      <c r="A86" s="50" t="s">
+      <c r="A86" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="B86" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="C86" s="51">
+      <c r="B86" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="C86" s="67">
         <v>44698</v>
       </c>
       <c r="D86" s="3" t="s">
@@ -8269,18 +8391,18 @@
         <v>10</v>
       </c>
       <c r="F86" s="27"/>
-      <c r="G86" s="50"/>
+      <c r="G86" s="65"/>
       <c r="H86" s="50"/>
       <c r="I86" s="50"/>
     </row>
     <row r="87" spans="1:9" ht="34">
-      <c r="A87" s="50" t="s">
+      <c r="A87" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="B87" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="C87" s="51">
+      <c r="B87" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="C87" s="67">
         <v>44698</v>
       </c>
       <c r="D87" s="3" t="s">
@@ -8290,52 +8412,52 @@
         <v>10</v>
       </c>
       <c r="F87" s="27"/>
-      <c r="G87" s="50"/>
+      <c r="G87" s="65" t="s">
+        <v>141</v>
+      </c>
       <c r="H87" s="50"/>
       <c r="I87" s="50"/>
     </row>
-    <row r="88" spans="1:9" ht="34">
-      <c r="A88" s="50"/>
-      <c r="B88" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="C88" s="51">
-        <v>44698</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" s="27"/>
-      <c r="G88" s="50" t="s">
-        <v>141</v>
-      </c>
+    <row r="88" spans="1:9">
+      <c r="A88" s="65"/>
+      <c r="B88" s="66"/>
+      <c r="C88" s="67"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="65"/>
+      <c r="G88" s="65"/>
       <c r="H88" s="50"/>
       <c r="I88" s="50"/>
     </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="50" t="s">
+    <row r="89" spans="1:9" ht="34">
+      <c r="A89" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="B89" s="52"/>
-      <c r="C89" s="51"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="50"/>
-      <c r="G89" s="50"/>
+      <c r="B89" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89" s="67">
+        <v>44698</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="27"/>
+      <c r="G89" s="65"/>
       <c r="H89" s="50"/>
       <c r="I89" s="50"/>
     </row>
     <row r="90" spans="1:9" ht="34">
-      <c r="A90" s="50" t="s">
+      <c r="A90" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="B90" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C90" s="51">
+      <c r="B90" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C90" s="67">
         <v>44698</v>
       </c>
       <c r="D90" s="3" t="s">
@@ -8345,18 +8467,18 @@
         <v>10</v>
       </c>
       <c r="F90" s="27"/>
-      <c r="G90" s="50"/>
+      <c r="G90" s="65"/>
       <c r="H90" s="50"/>
       <c r="I90" s="50"/>
     </row>
     <row r="91" spans="1:9" ht="34">
-      <c r="A91" s="50" t="s">
+      <c r="A91" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="B91" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C91" s="51">
+      <c r="B91" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="C91" s="67">
         <v>44698</v>
       </c>
       <c r="D91" s="3" t="s">
@@ -8366,18 +8488,18 @@
         <v>10</v>
       </c>
       <c r="F91" s="27"/>
-      <c r="G91" s="50"/>
+      <c r="G91" s="65"/>
       <c r="H91" s="50"/>
       <c r="I91" s="50"/>
     </row>
     <row r="92" spans="1:9" ht="34">
-      <c r="A92" s="50" t="s">
+      <c r="A92" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="B92" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="C92" s="51">
+      <c r="B92" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="C92" s="67">
         <v>44698</v>
       </c>
       <c r="D92" s="3" t="s">
@@ -8387,50 +8509,52 @@
         <v>10</v>
       </c>
       <c r="F92" s="27"/>
-      <c r="G92" s="50"/>
+      <c r="G92" s="65"/>
       <c r="H92" s="50"/>
       <c r="I92" s="50"/>
     </row>
-    <row r="93" spans="1:9" ht="34">
-      <c r="A93" s="50"/>
-      <c r="B93" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="C93" s="51">
-        <v>44698</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F93" s="27"/>
-      <c r="G93" s="50"/>
+    <row r="93" spans="1:9">
+      <c r="A93" s="65"/>
+      <c r="B93" s="66"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="65"/>
+      <c r="G93" s="65"/>
       <c r="H93" s="50"/>
       <c r="I93" s="50"/>
     </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="50" t="s">
+    <row r="94" spans="1:9" ht="34">
+      <c r="A94" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="B94" s="52"/>
-      <c r="C94" s="51"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="50"/>
-      <c r="G94" s="50"/>
+      <c r="B94" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="C94" s="67">
+        <v>44698</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="27"/>
+      <c r="G94" s="13" t="s">
+        <v>150</v>
+      </c>
       <c r="H94" s="50"/>
       <c r="I94" s="50"/>
     </row>
     <row r="95" spans="1:9" ht="34">
-      <c r="A95" s="50" t="s">
+      <c r="A95" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="B95" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="C95" s="51">
+      <c r="B95" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C95" s="67">
         <v>44698</v>
       </c>
       <c r="D95" s="3" t="s">
@@ -8447,13 +8571,13 @@
       <c r="I95" s="50"/>
     </row>
     <row r="96" spans="1:9" ht="34">
-      <c r="A96" s="50" t="s">
+      <c r="A96" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="B96" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="C96" s="51">
+      <c r="B96" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="C96" s="67">
         <v>44698</v>
       </c>
       <c r="D96" s="3" t="s">
@@ -8470,13 +8594,13 @@
       <c r="I96" s="50"/>
     </row>
     <row r="97" spans="1:9" ht="34">
-      <c r="A97" s="50" t="s">
+      <c r="A97" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="B97" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="C97" s="51">
+      <c r="B97" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="C97" s="67">
         <v>44698</v>
       </c>
       <c r="D97" s="3" t="s">
@@ -8493,13 +8617,13 @@
       <c r="I97" s="50"/>
     </row>
     <row r="98" spans="1:9" ht="34">
-      <c r="A98" s="50" t="s">
+      <c r="A98" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="B98" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="C98" s="51">
+      <c r="B98" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="C98" s="67">
         <v>44698</v>
       </c>
       <c r="D98" s="3" t="s">
@@ -8515,48 +8639,48 @@
       <c r="H98" s="50"/>
       <c r="I98" s="50"/>
     </row>
-    <row r="99" spans="1:9" ht="34">
-      <c r="A99" s="50"/>
-      <c r="B99" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="C99" s="51">
-        <v>44698</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F99" s="27"/>
-      <c r="G99" s="13" t="s">
-        <v>150</v>
-      </c>
+    <row r="99" spans="1:9">
+      <c r="A99" s="65"/>
+      <c r="B99" s="66"/>
+      <c r="C99" s="67"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="65"/>
+      <c r="G99" s="65"/>
       <c r="H99" s="50"/>
       <c r="I99" s="50"/>
     </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="50" t="s">
+    <row r="100" spans="1:9" ht="34">
+      <c r="A100" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="B100" s="52"/>
-      <c r="C100" s="51"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="50"/>
-      <c r="G100" s="50"/>
+      <c r="B100" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="C100" s="67">
+        <v>44698</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="27"/>
+      <c r="G100" s="13" t="s">
+        <v>150</v>
+      </c>
       <c r="H100" s="50"/>
       <c r="I100" s="50"/>
     </row>
     <row r="101" spans="1:9" ht="34">
-      <c r="A101" s="50" t="s">
+      <c r="A101" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="B101" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="C101" s="51">
+      <c r="B101" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="C101" s="67">
         <v>44698</v>
       </c>
       <c r="D101" s="3" t="s">
@@ -8573,13 +8697,13 @@
       <c r="I101" s="50"/>
     </row>
     <row r="102" spans="1:9" ht="34">
-      <c r="A102" s="50" t="s">
+      <c r="A102" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="B102" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="C102" s="51">
+      <c r="B102" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C102" s="67">
         <v>44698</v>
       </c>
       <c r="D102" s="3" t="s">
@@ -8596,13 +8720,13 @@
       <c r="I102" s="50"/>
     </row>
     <row r="103" spans="1:9" ht="34">
-      <c r="A103" s="50" t="s">
+      <c r="A103" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="B103" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="C103" s="51">
+      <c r="B103" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="C103" s="67">
         <v>44698</v>
       </c>
       <c r="D103" s="3" t="s">
@@ -8619,13 +8743,13 @@
       <c r="I103" s="50"/>
     </row>
     <row r="104" spans="1:9" ht="34">
-      <c r="A104" s="50" t="s">
+      <c r="A104" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="B104" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="C104" s="51">
+      <c r="B104" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="C104" s="67">
         <v>44698</v>
       </c>
       <c r="D104" s="3" t="s">
@@ -8641,48 +8765,46 @@
       <c r="H104" s="50"/>
       <c r="I104" s="50"/>
     </row>
-    <row r="105" spans="1:9" ht="34">
-      <c r="A105" s="50"/>
-      <c r="B105" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="C105" s="51">
-        <v>44698</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F105" s="27"/>
-      <c r="G105" s="13" t="s">
-        <v>150</v>
-      </c>
+    <row r="105" spans="1:9">
+      <c r="A105" s="65"/>
+      <c r="B105" s="65"/>
+      <c r="C105" s="65"/>
+      <c r="D105" s="65"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="65"/>
+      <c r="G105" s="65"/>
       <c r="H105" s="50"/>
       <c r="I105" s="50"/>
     </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="50" t="s">
+    <row r="106" spans="1:9" ht="34">
+      <c r="A106" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="B106" s="50"/>
-      <c r="C106" s="50"/>
-      <c r="D106" s="50"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="50"/>
-      <c r="G106" s="50"/>
+      <c r="B106" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C106" s="67">
+        <v>44698</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" s="27"/>
+      <c r="G106" s="65"/>
       <c r="H106" s="50"/>
       <c r="I106" s="50"/>
     </row>
     <row r="107" spans="1:9" ht="34">
-      <c r="A107" s="50" t="s">
+      <c r="A107" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="B107" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="C107" s="51">
+      <c r="B107" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="C107" s="67">
         <v>44698</v>
       </c>
       <c r="D107" s="3" t="s">
@@ -8692,18 +8814,18 @@
         <v>10</v>
       </c>
       <c r="F107" s="27"/>
-      <c r="G107" s="50"/>
+      <c r="G107" s="65"/>
       <c r="H107" s="50"/>
       <c r="I107" s="50"/>
     </row>
     <row r="108" spans="1:9" ht="34">
-      <c r="A108" s="50" t="s">
+      <c r="A108" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="B108" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="C108" s="51">
+      <c r="B108" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C108" s="67">
         <v>44698</v>
       </c>
       <c r="D108" s="3" t="s">
@@ -8713,18 +8835,18 @@
         <v>10</v>
       </c>
       <c r="F108" s="27"/>
-      <c r="G108" s="50"/>
+      <c r="G108" s="65"/>
       <c r="H108" s="50"/>
       <c r="I108" s="50"/>
     </row>
     <row r="109" spans="1:9" ht="34">
-      <c r="A109" s="50" t="s">
+      <c r="A109" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="B109" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C109" s="51">
+      <c r="B109" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="C109" s="67">
         <v>44698</v>
       </c>
       <c r="D109" s="3" t="s">
@@ -8734,18 +8856,18 @@
         <v>10</v>
       </c>
       <c r="F109" s="27"/>
-      <c r="G109" s="50"/>
+      <c r="G109" s="65"/>
       <c r="H109" s="50"/>
       <c r="I109" s="50"/>
     </row>
     <row r="110" spans="1:9" ht="34">
-      <c r="A110" s="50" t="s">
+      <c r="A110" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="B110" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="C110" s="51">
+      <c r="B110" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="C110" s="67">
         <v>44698</v>
       </c>
       <c r="D110" s="3" t="s">
@@ -8755,50 +8877,50 @@
         <v>10</v>
       </c>
       <c r="F110" s="27"/>
-      <c r="G110" s="50"/>
+      <c r="G110" s="65"/>
       <c r="H110" s="50"/>
       <c r="I110" s="50"/>
     </row>
-    <row r="111" spans="1:9" ht="34">
-      <c r="A111" s="50"/>
-      <c r="B111" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="C111" s="51">
-        <v>44698</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F111" s="27"/>
-      <c r="G111" s="50"/>
+    <row r="111" spans="1:9">
+      <c r="A111" s="65"/>
+      <c r="B111" s="65"/>
+      <c r="C111" s="65"/>
+      <c r="D111" s="65"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="65"/>
+      <c r="G111" s="65"/>
       <c r="H111" s="50"/>
       <c r="I111" s="50"/>
     </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="50" t="s">
+    <row r="112" spans="1:9" ht="34">
+      <c r="A112" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="B112" s="50"/>
-      <c r="C112" s="50"/>
-      <c r="D112" s="50"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="50"/>
-      <c r="G112" s="50"/>
+      <c r="B112" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="C112" s="67">
+        <v>44601</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F112" s="65"/>
+      <c r="G112" s="65"/>
       <c r="H112" s="50"/>
       <c r="I112" s="50"/>
     </row>
     <row r="113" spans="1:9" ht="34">
-      <c r="A113" s="50" t="s">
+      <c r="A113" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="B113" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="C113" s="51">
+      <c r="B113" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="C113" s="67">
         <v>44601</v>
       </c>
       <c r="D113" s="3" t="s">
@@ -8807,19 +8929,19 @@
       <c r="E113" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F113" s="50"/>
-      <c r="G113" s="50"/>
+      <c r="F113" s="65"/>
+      <c r="G113" s="65"/>
       <c r="H113" s="50"/>
       <c r="I113" s="50"/>
     </row>
     <row r="114" spans="1:9" ht="34">
-      <c r="A114" s="50" t="s">
+      <c r="A114" s="65" t="s">
         <v>169</v>
       </c>
-      <c r="B114" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="C114" s="51">
+      <c r="B114" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C114" s="67">
         <v>44601</v>
       </c>
       <c r="D114" s="3" t="s">
@@ -8828,19 +8950,19 @@
       <c r="E114" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F114" s="50"/>
-      <c r="G114" s="50"/>
+      <c r="F114" s="65"/>
+      <c r="G114" s="65"/>
       <c r="H114" s="50"/>
       <c r="I114" s="50"/>
     </row>
     <row r="115" spans="1:9" ht="34">
-      <c r="A115" s="50" t="s">
+      <c r="A115" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="B115" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="C115" s="51">
+      <c r="B115" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="C115" s="67">
         <v>44601</v>
       </c>
       <c r="D115" s="3" t="s">
@@ -8849,19 +8971,19 @@
       <c r="E115" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F115" s="50"/>
-      <c r="G115" s="50"/>
+      <c r="F115" s="65"/>
+      <c r="G115" s="65"/>
       <c r="H115" s="50"/>
       <c r="I115" s="50"/>
     </row>
     <row r="116" spans="1:9" ht="34">
-      <c r="A116" s="50" t="s">
+      <c r="A116" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="B116" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="C116" s="51">
+      <c r="B116" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="C116" s="67">
         <v>44601</v>
       </c>
       <c r="D116" s="3" t="s">
@@ -8870,95 +8992,95 @@
       <c r="E116" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F116" s="50"/>
-      <c r="G116" s="50"/>
+      <c r="F116" s="65"/>
+      <c r="G116" s="65"/>
       <c r="H116" s="50"/>
       <c r="I116" s="50"/>
     </row>
-    <row r="117" spans="1:9" ht="34">
-      <c r="A117" s="50"/>
-      <c r="B117" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="C117" s="51">
-        <v>44601</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F117" s="50"/>
-      <c r="G117" s="50"/>
+    <row r="117" spans="1:9">
+      <c r="A117" s="65"/>
+      <c r="B117" s="65"/>
+      <c r="C117" s="65"/>
+      <c r="D117" s="65"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="65"/>
+      <c r="G117" s="65"/>
       <c r="H117" s="50"/>
       <c r="I117" s="50"/>
     </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="50" t="s">
+    <row r="118" spans="1:9" ht="34">
+      <c r="A118" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="B118" s="50"/>
-      <c r="C118" s="50"/>
-      <c r="D118" s="50"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="50"/>
-      <c r="G118" s="50"/>
+      <c r="B118" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="C118" s="67">
+        <v>44602</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F118" s="65"/>
+      <c r="G118" s="65"/>
       <c r="H118" s="50"/>
       <c r="I118" s="50"/>
     </row>
     <row r="119" spans="1:9" ht="34">
-      <c r="A119" s="50" t="s">
+      <c r="A119" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="B119" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="C119" s="51">
-        <v>44602</v>
+      <c r="B119" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="C119" s="67">
+        <v>44754</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F119" s="50"/>
-      <c r="G119" s="50"/>
+      <c r="F119" s="65"/>
+      <c r="G119" s="65" t="s">
+        <v>175</v>
+      </c>
       <c r="H119" s="50"/>
       <c r="I119" s="50"/>
     </row>
     <row r="120" spans="1:9" ht="34">
-      <c r="A120" s="50" t="s">
+      <c r="A120" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="B120" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="C120" s="51">
-        <v>44754</v>
+      <c r="B120" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C120" s="67">
+        <v>44602</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F120" s="50"/>
-      <c r="G120" s="50" t="s">
-        <v>175</v>
-      </c>
+      <c r="F120" s="65"/>
+      <c r="G120" s="65"/>
       <c r="H120" s="50"/>
       <c r="I120" s="50"/>
     </row>
     <row r="121" spans="1:9" ht="34">
-      <c r="A121" s="50" t="s">
+      <c r="A121" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="B121" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="C121" s="51">
+      <c r="B121" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="C121" s="67">
         <v>44602</v>
       </c>
       <c r="D121" s="3" t="s">
@@ -8967,19 +9089,19 @@
       <c r="E121" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F121" s="50"/>
-      <c r="G121" s="50"/>
+      <c r="F121" s="65"/>
+      <c r="G121" s="65"/>
       <c r="H121" s="50"/>
       <c r="I121" s="50"/>
     </row>
     <row r="122" spans="1:9" ht="34">
-      <c r="A122" s="50" t="s">
+      <c r="A122" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="B122" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="C122" s="51">
+      <c r="B122" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C122" s="67">
         <v>44602</v>
       </c>
       <c r="D122" s="3" t="s">
@@ -8988,93 +9110,93 @@
       <c r="E122" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F122" s="50"/>
-      <c r="G122" s="50"/>
+      <c r="F122" s="65"/>
+      <c r="G122" s="65"/>
       <c r="H122" s="50"/>
       <c r="I122" s="50"/>
     </row>
-    <row r="123" spans="1:9" ht="34">
-      <c r="A123" s="50"/>
-      <c r="B123" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C123" s="51">
-        <v>44602</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F123" s="50"/>
-      <c r="G123" s="50"/>
+    <row r="123" spans="1:9">
+      <c r="A123" s="65"/>
+      <c r="B123" s="65"/>
+      <c r="C123" s="65"/>
+      <c r="D123" s="65"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="65"/>
+      <c r="G123" s="65"/>
       <c r="H123" s="50"/>
       <c r="I123" s="50"/>
     </row>
-    <row r="124" spans="1:9">
-      <c r="A124" s="50" t="s">
+    <row r="124" spans="1:9" ht="34">
+      <c r="A124" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="B124" s="50"/>
-      <c r="C124" s="50"/>
-      <c r="D124" s="50"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="50"/>
-      <c r="G124" s="50"/>
+      <c r="B124" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="C124" s="67">
+        <v>44602</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" s="65"/>
+      <c r="G124" s="65"/>
       <c r="H124" s="50"/>
       <c r="I124" s="50"/>
     </row>
     <row r="125" spans="1:9" ht="34">
-      <c r="A125" s="50" t="s">
+      <c r="A125" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="B125" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="C125" s="51">
-        <v>44602</v>
+      <c r="B125" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="C125" s="67">
+        <v>44733</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F125" s="50"/>
-      <c r="G125" s="50"/>
+      <c r="F125" s="65"/>
+      <c r="G125" s="65"/>
       <c r="H125" s="50"/>
       <c r="I125" s="50"/>
     </row>
     <row r="126" spans="1:9" ht="34">
-      <c r="A126" s="50" t="s">
+      <c r="A126" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="B126" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="C126" s="51">
-        <v>44733</v>
+      <c r="B126" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="C126" s="67">
+        <v>44602</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F126" s="50"/>
-      <c r="G126" s="50"/>
+      <c r="F126" s="65"/>
+      <c r="G126" s="65"/>
       <c r="H126" s="50"/>
       <c r="I126" s="50"/>
     </row>
     <row r="127" spans="1:9" ht="34">
-      <c r="A127" s="50" t="s">
+      <c r="A127" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="B127" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="C127" s="51">
+      <c r="B127" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="C127" s="67">
         <v>44602</v>
       </c>
       <c r="D127" s="3" t="s">
@@ -9083,19 +9205,19 @@
       <c r="E127" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F127" s="50"/>
-      <c r="G127" s="50"/>
+      <c r="F127" s="65"/>
+      <c r="G127" s="65"/>
       <c r="H127" s="50"/>
       <c r="I127" s="50"/>
     </row>
     <row r="128" spans="1:9" ht="34">
-      <c r="A128" s="50" t="s">
+      <c r="A128" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="B128" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="C128" s="51">
+      <c r="B128" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="C128" s="67">
         <v>44602</v>
       </c>
       <c r="D128" s="3" t="s">
@@ -9104,51 +9226,51 @@
       <c r="E128" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F128" s="50"/>
-      <c r="G128" s="50"/>
+      <c r="F128" s="65"/>
+      <c r="G128" s="65"/>
       <c r="H128" s="50"/>
       <c r="I128" s="50"/>
     </row>
-    <row r="129" spans="1:9" ht="34">
-      <c r="A129" s="50"/>
-      <c r="B129" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="C129" s="51">
-        <v>44602</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F129" s="50"/>
-      <c r="G129" s="50"/>
+    <row r="129" spans="1:9">
+      <c r="A129" s="65"/>
+      <c r="B129" s="66"/>
+      <c r="C129" s="67"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="65"/>
+      <c r="G129" s="65"/>
       <c r="H129" s="50"/>
       <c r="I129" s="50"/>
     </row>
-    <row r="130" spans="1:9">
-      <c r="A130" s="50" t="s">
+    <row r="130" spans="1:9" ht="34">
+      <c r="A130" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="B130" s="52"/>
-      <c r="C130" s="51"/>
-      <c r="D130" s="3"/>
+      <c r="B130" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="C130" s="67">
+        <v>44830</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="E130" s="5"/>
-      <c r="F130" s="50"/>
-      <c r="G130" s="50"/>
+      <c r="F130" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="G130" s="65"/>
       <c r="H130" s="50"/>
       <c r="I130" s="50"/>
     </row>
     <row r="131" spans="1:9" ht="34">
-      <c r="A131" s="50" t="s">
+      <c r="A131" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="B131" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="C131" s="51">
+      <c r="B131" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C131" s="67">
         <v>44830</v>
       </c>
       <c r="D131" s="3" t="s">
@@ -9158,18 +9280,18 @@
       <c r="F131" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="G131" s="50"/>
+      <c r="G131" s="65"/>
       <c r="H131" s="50"/>
       <c r="I131" s="50"/>
     </row>
     <row r="132" spans="1:9" ht="34">
-      <c r="A132" s="52" t="s">
+      <c r="A132" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="B132" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="C132" s="51">
+      <c r="B132" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C132" s="67">
         <v>44830</v>
       </c>
       <c r="D132" s="3" t="s">
@@ -9179,18 +9301,18 @@
       <c r="F132" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="G132" s="50"/>
+      <c r="G132" s="65"/>
       <c r="H132" s="50"/>
       <c r="I132" s="50"/>
     </row>
     <row r="133" spans="1:9" ht="34">
-      <c r="A133" s="52" t="s">
+      <c r="A133" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="B133" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="C133" s="51">
+      <c r="B133" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C133" s="67">
         <v>44830</v>
       </c>
       <c r="D133" s="3" t="s">
@@ -9200,1297 +9322,1278 @@
       <c r="F133" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="G133" s="50"/>
+      <c r="G133" s="65"/>
       <c r="H133" s="50"/>
       <c r="I133" s="50"/>
     </row>
-    <row r="134" spans="1:9" ht="34">
+    <row r="134" spans="1:9">
       <c r="A134" s="50"/>
-      <c r="B134" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="C134" s="51">
-        <v>44830</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E134" s="5"/>
-      <c r="F134" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="G134" s="50"/>
       <c r="H134" s="50"/>
       <c r="I134" s="50"/>
     </row>
-    <row r="135" spans="1:9" s="70" customFormat="1">
-      <c r="A135" s="63"/>
-      <c r="H135" s="63"/>
-      <c r="I135" s="63"/>
+    <row r="135" spans="1:9">
+      <c r="A135" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="B135" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="C135" s="67">
+        <v>44830</v>
+      </c>
+      <c r="D135" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="E135" s="65"/>
+      <c r="F135" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="G135" s="65"/>
+      <c r="H135" s="50"/>
+      <c r="I135" s="50"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="50" t="s">
-        <v>198</v>
-      </c>
-      <c r="B136" s="50" t="s">
+      <c r="A136" s="65" t="s">
+        <v>199</v>
+      </c>
+      <c r="B136" s="65" t="s">
         <v>200</v>
       </c>
-      <c r="C136" s="51">
-        <v>44830</v>
-      </c>
-      <c r="D136" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="E136" s="50"/>
+      <c r="C136" s="67">
+        <v>44832</v>
+      </c>
+      <c r="D136" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="E136" s="65"/>
       <c r="F136" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="G136" s="50"/>
+      <c r="G136" s="65"/>
       <c r="H136" s="50"/>
       <c r="I136" s="50"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="50" t="s">
-        <v>199</v>
-      </c>
-      <c r="B137" s="50" t="s">
+      <c r="A137" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="B137" s="65" t="s">
         <v>200</v>
       </c>
-      <c r="C137" s="51">
-        <v>44832</v>
-      </c>
-      <c r="D137" s="50" t="s">
+      <c r="C137" s="67">
+        <v>44830</v>
+      </c>
+      <c r="D137" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="E137" s="50"/>
+      <c r="E137" s="65"/>
       <c r="F137" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="G137" s="50"/>
+        <v>204</v>
+      </c>
+      <c r="G137" s="65"/>
       <c r="H137" s="50"/>
       <c r="I137" s="50"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="50" t="s">
-        <v>202</v>
-      </c>
-      <c r="B138" s="50" t="s">
+      <c r="A138" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="B138" s="65" t="s">
         <v>200</v>
       </c>
-      <c r="C138" s="51">
+      <c r="C138" s="67">
         <v>44830</v>
       </c>
-      <c r="D138" s="50" t="s">
+      <c r="D138" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="E138" s="50"/>
+      <c r="E138" s="65"/>
       <c r="F138" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="G138" s="50"/>
+        <v>205</v>
+      </c>
+      <c r="G138" s="65"/>
       <c r="H138" s="50"/>
       <c r="I138" s="50"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="50" t="s">
-        <v>203</v>
-      </c>
-      <c r="B139" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="C139" s="51">
-        <v>44830</v>
-      </c>
-      <c r="D139" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="E139" s="50"/>
-      <c r="F139" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="G139" s="50"/>
+      <c r="A139" s="65"/>
+      <c r="B139" s="65"/>
+      <c r="C139" s="67"/>
+      <c r="D139" s="65"/>
+      <c r="E139" s="65"/>
+      <c r="F139" s="65"/>
+      <c r="G139" s="65"/>
       <c r="H139" s="50"/>
       <c r="I139" s="50"/>
     </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="50"/>
-      <c r="B140" s="50"/>
-      <c r="C140" s="51"/>
-      <c r="D140" s="50"/>
-      <c r="E140" s="50"/>
-      <c r="F140" s="50"/>
-      <c r="G140" s="50"/>
+    <row r="140" spans="1:9" ht="34">
+      <c r="A140" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="B140" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C140" s="67">
+        <v>44830</v>
+      </c>
+      <c r="D140" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="E140" s="65"/>
+      <c r="F140" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="G140" s="65"/>
       <c r="H140" s="50"/>
       <c r="I140" s="50"/>
     </row>
     <row r="141" spans="1:9" ht="34">
-      <c r="A141" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="B141" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="C141" s="51">
+      <c r="A141" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="B141" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C141" s="67">
         <v>44830</v>
       </c>
-      <c r="D141" s="50" t="s">
+      <c r="D141" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="E141" s="50"/>
+      <c r="E141" s="65"/>
       <c r="F141" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="G141" s="50"/>
+      <c r="G141" s="65"/>
       <c r="H141" s="50"/>
       <c r="I141" s="50"/>
     </row>
     <row r="142" spans="1:9" ht="34">
-      <c r="A142" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="B142" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="C142" s="51">
+      <c r="A142" s="65" t="s">
+        <v>208</v>
+      </c>
+      <c r="B142" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C142" s="67">
         <v>44830</v>
       </c>
-      <c r="D142" s="50" t="s">
+      <c r="D142" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="E142" s="50"/>
+      <c r="E142" s="65"/>
       <c r="F142" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="G142" s="50"/>
+      <c r="G142" s="65"/>
       <c r="H142" s="50"/>
       <c r="I142" s="50"/>
     </row>
     <row r="143" spans="1:9" ht="34">
-      <c r="A143" s="50" t="s">
-        <v>208</v>
-      </c>
-      <c r="B143" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C143" s="51">
+      <c r="A143" s="65" t="s">
+        <v>209</v>
+      </c>
+      <c r="B143" s="66" t="s">
+        <v>210</v>
+      </c>
+      <c r="C143" s="67">
         <v>44830</v>
       </c>
-      <c r="D143" s="50" t="s">
+      <c r="D143" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="E143" s="50"/>
+      <c r="E143" s="65"/>
       <c r="F143" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="G143" s="50"/>
+      <c r="G143" s="65"/>
       <c r="H143" s="50"/>
       <c r="I143" s="50"/>
     </row>
-    <row r="144" spans="1:9" ht="34">
-      <c r="A144" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="B144" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="C144" s="51">
-        <v>44830</v>
-      </c>
-      <c r="D144" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="E144" s="50"/>
-      <c r="F144" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="G144" s="50"/>
+    <row r="144" spans="1:9">
+      <c r="A144" s="65"/>
+      <c r="B144" s="66"/>
+      <c r="C144" s="67"/>
+      <c r="D144" s="65"/>
+      <c r="E144" s="65"/>
+      <c r="F144" s="65"/>
+      <c r="G144" s="65"/>
       <c r="H144" s="50"/>
       <c r="I144" s="50"/>
     </row>
-    <row r="145" spans="1:9">
-      <c r="A145" s="50"/>
-      <c r="B145" s="52"/>
-      <c r="C145" s="51"/>
-      <c r="D145" s="50"/>
-      <c r="E145" s="50"/>
-      <c r="F145" s="50"/>
-      <c r="G145" s="50"/>
+    <row r="145" spans="1:9" ht="34">
+      <c r="A145" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="B145" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="C145" s="67">
+        <v>44830</v>
+      </c>
+      <c r="D145" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="E145" s="65"/>
+      <c r="F145" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="G145" s="65"/>
       <c r="H145" s="50"/>
       <c r="I145" s="50"/>
     </row>
     <row r="146" spans="1:9" ht="34">
-      <c r="A146" s="50" t="s">
-        <v>211</v>
-      </c>
-      <c r="B146" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="C146" s="51">
+      <c r="A146" s="65" t="s">
+        <v>212</v>
+      </c>
+      <c r="B146" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C146" s="67">
         <v>44830</v>
       </c>
-      <c r="D146" s="50" t="s">
+      <c r="D146" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="E146" s="50"/>
+      <c r="E146" s="65"/>
       <c r="F146" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="G146" s="50"/>
+      <c r="G146" s="65"/>
       <c r="H146" s="50"/>
       <c r="I146" s="50"/>
     </row>
     <row r="147" spans="1:9" ht="34">
-      <c r="A147" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="B147" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="C147" s="51">
+      <c r="A147" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="B147" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="C147" s="67">
         <v>44830</v>
       </c>
-      <c r="D147" s="50" t="s">
+      <c r="D147" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="E147" s="50"/>
+      <c r="E147" s="65"/>
       <c r="F147" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="G147" s="50"/>
+      <c r="G147" s="65"/>
       <c r="H147" s="50"/>
       <c r="I147" s="50"/>
     </row>
     <row r="148" spans="1:9" ht="34">
-      <c r="A148" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="B148" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="C148" s="51">
+      <c r="A148" s="65" t="s">
+        <v>214</v>
+      </c>
+      <c r="B148" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="C148" s="67">
         <v>44830</v>
       </c>
-      <c r="D148" s="50" t="s">
+      <c r="D148" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="E148" s="50"/>
+      <c r="E148" s="65"/>
       <c r="F148" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="G148" s="50"/>
+      <c r="G148" s="65"/>
       <c r="H148" s="50"/>
       <c r="I148" s="50"/>
     </row>
-    <row r="149" spans="1:9" ht="34">
-      <c r="A149" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="B149" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="C149" s="51">
-        <v>44830</v>
-      </c>
-      <c r="D149" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="E149" s="50"/>
-      <c r="F149" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="G149" s="50"/>
+    <row r="149" spans="1:9">
+      <c r="A149" s="65"/>
+      <c r="B149" s="66"/>
+      <c r="C149" s="67"/>
+      <c r="D149" s="65"/>
+      <c r="E149" s="65"/>
+      <c r="F149" s="65"/>
+      <c r="G149" s="65"/>
       <c r="H149" s="50"/>
       <c r="I149" s="50"/>
     </row>
-    <row r="150" spans="1:9">
-      <c r="A150" s="50"/>
-      <c r="B150" s="52"/>
-      <c r="C150" s="51"/>
-      <c r="D150" s="50"/>
-      <c r="E150" s="50"/>
-      <c r="F150" s="50"/>
-      <c r="G150" s="50"/>
+    <row r="150" spans="1:9" ht="34">
+      <c r="A150" s="65" t="s">
+        <v>215</v>
+      </c>
+      <c r="B150" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C150" s="67">
+        <v>44830</v>
+      </c>
+      <c r="D150" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="E150" s="65"/>
+      <c r="F150" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G150" s="65"/>
       <c r="H150" s="50"/>
       <c r="I150" s="50"/>
     </row>
     <row r="151" spans="1:9" ht="34">
-      <c r="A151" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="B151" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="C151" s="51">
+      <c r="A151" s="65" t="s">
+        <v>216</v>
+      </c>
+      <c r="B151" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C151" s="67">
         <v>44830</v>
       </c>
-      <c r="D151" s="50" t="s">
+      <c r="D151" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="E151" s="50"/>
+      <c r="E151" s="65"/>
       <c r="F151" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="G151" s="50"/>
+      <c r="G151" s="65"/>
       <c r="H151" s="50"/>
       <c r="I151" s="50"/>
     </row>
     <row r="152" spans="1:9" ht="34">
-      <c r="A152" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="B152" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="C152" s="51">
+      <c r="A152" s="65" t="s">
+        <v>217</v>
+      </c>
+      <c r="B152" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C152" s="67">
         <v>44830</v>
       </c>
-      <c r="D152" s="50" t="s">
+      <c r="D152" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="E152" s="50"/>
+      <c r="E152" s="65"/>
       <c r="F152" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="G152" s="50"/>
+      <c r="G152" s="65"/>
       <c r="H152" s="50"/>
       <c r="I152" s="50"/>
     </row>
     <row r="153" spans="1:9" ht="34">
-      <c r="A153" s="50" t="s">
-        <v>217</v>
-      </c>
-      <c r="B153" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C153" s="51">
+      <c r="A153" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="B153" s="66" t="s">
+        <v>210</v>
+      </c>
+      <c r="C153" s="67">
         <v>44830</v>
       </c>
-      <c r="D153" s="50" t="s">
+      <c r="D153" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="E153" s="50"/>
+      <c r="E153" s="65"/>
       <c r="F153" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="G153" s="50"/>
+      <c r="G153" s="65"/>
       <c r="H153" s="50"/>
       <c r="I153" s="50"/>
     </row>
-    <row r="154" spans="1:9" ht="34">
-      <c r="A154" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="B154" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="C154" s="51">
-        <v>44830</v>
-      </c>
-      <c r="D154" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="E154" s="50"/>
-      <c r="F154" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="G154" s="50"/>
+    <row r="154" spans="1:9">
+      <c r="A154" s="65"/>
+      <c r="B154" s="66"/>
+      <c r="C154" s="67"/>
+      <c r="D154" s="65"/>
+      <c r="E154" s="65"/>
+      <c r="F154" s="65"/>
+      <c r="G154" s="65"/>
       <c r="H154" s="50"/>
       <c r="I154" s="50"/>
     </row>
-    <row r="155" spans="1:9">
-      <c r="A155" s="50"/>
-      <c r="B155" s="52"/>
-      <c r="C155" s="51"/>
-      <c r="D155" s="50"/>
-      <c r="E155" s="50"/>
-      <c r="F155" s="50"/>
-      <c r="G155" s="50"/>
+    <row r="155" spans="1:9" ht="34">
+      <c r="A155" s="65" t="s">
+        <v>219</v>
+      </c>
+      <c r="B155" s="66" t="s">
+        <v>221</v>
+      </c>
+      <c r="C155" s="67">
+        <v>44831</v>
+      </c>
+      <c r="D155" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="E155" s="65"/>
+      <c r="F155" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="G155" s="65"/>
       <c r="H155" s="50"/>
       <c r="I155" s="50"/>
     </row>
     <row r="156" spans="1:9" ht="34">
-      <c r="A156" s="50" t="s">
-        <v>219</v>
-      </c>
-      <c r="B156" s="52" t="s">
-        <v>221</v>
-      </c>
-      <c r="C156" s="51">
+      <c r="A156" s="65" t="s">
+        <v>220</v>
+      </c>
+      <c r="B156" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="C156" s="67">
         <v>44831</v>
       </c>
-      <c r="D156" s="50" t="s">
+      <c r="D156" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="E156" s="50"/>
+      <c r="E156" s="65"/>
       <c r="F156" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="G156" s="50"/>
+      <c r="G156" s="65"/>
       <c r="H156" s="50"/>
       <c r="I156" s="50"/>
     </row>
     <row r="157" spans="1:9" ht="34">
-      <c r="A157" s="50" t="s">
-        <v>220</v>
-      </c>
-      <c r="B157" s="52" t="s">
-        <v>223</v>
-      </c>
-      <c r="C157" s="51">
+      <c r="A157" s="65" t="s">
+        <v>222</v>
+      </c>
+      <c r="B157" s="66" t="s">
+        <v>225</v>
+      </c>
+      <c r="C157" s="67">
         <v>44831</v>
       </c>
-      <c r="D157" s="50" t="s">
+      <c r="D157" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="E157" s="50"/>
+      <c r="E157" s="65"/>
       <c r="F157" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="G157" s="50"/>
+      <c r="G157" s="65"/>
       <c r="H157" s="50"/>
       <c r="I157" s="50"/>
     </row>
     <row r="158" spans="1:9" ht="34">
-      <c r="A158" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="B158" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="C158" s="51">
+      <c r="A158" s="65" t="s">
+        <v>224</v>
+      </c>
+      <c r="B158" s="66" t="s">
+        <v>226</v>
+      </c>
+      <c r="C158" s="67">
         <v>44831</v>
       </c>
-      <c r="D158" s="50" t="s">
+      <c r="D158" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="E158" s="50"/>
+      <c r="E158" s="65"/>
       <c r="F158" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="G158" s="50"/>
+      <c r="G158" s="65"/>
       <c r="H158" s="50"/>
       <c r="I158" s="50"/>
     </row>
-    <row r="159" spans="1:9" ht="34">
-      <c r="A159" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="B159" s="52" t="s">
-        <v>226</v>
-      </c>
-      <c r="C159" s="51">
-        <v>44831</v>
-      </c>
-      <c r="D159" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="E159" s="50"/>
-      <c r="F159" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="G159" s="50"/>
+    <row r="159" spans="1:9">
+      <c r="A159" s="65"/>
+      <c r="B159" s="65"/>
+      <c r="C159" s="65"/>
+      <c r="D159" s="65"/>
+      <c r="E159" s="65"/>
+      <c r="F159" s="65"/>
+      <c r="G159" s="65"/>
       <c r="H159" s="50"/>
       <c r="I159" s="50"/>
     </row>
-    <row r="160" spans="1:9">
-      <c r="A160" s="50"/>
-      <c r="B160" s="50"/>
-      <c r="C160" s="50"/>
-      <c r="D160" s="50"/>
-      <c r="E160" s="50"/>
-      <c r="F160" s="50"/>
-      <c r="G160" s="50"/>
+    <row r="160" spans="1:9" ht="34">
+      <c r="A160" s="65" t="s">
+        <v>227</v>
+      </c>
+      <c r="B160" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="C160" s="67">
+        <v>44830</v>
+      </c>
+      <c r="D160" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="E160" s="65"/>
+      <c r="F160" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="G160" s="65"/>
       <c r="H160" s="50"/>
       <c r="I160" s="50"/>
     </row>
     <row r="161" spans="1:9" ht="34">
-      <c r="A161" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="B161" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="C161" s="51">
+      <c r="A161" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="B161" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C161" s="67">
         <v>44830</v>
       </c>
-      <c r="D161" s="50" t="s">
+      <c r="D161" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="E161" s="50"/>
+      <c r="E161" s="65"/>
       <c r="F161" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="G161" s="50"/>
+      <c r="G161" s="65"/>
       <c r="H161" s="50"/>
       <c r="I161" s="50"/>
     </row>
     <row r="162" spans="1:9" ht="34">
-      <c r="A162" s="50" t="s">
-        <v>228</v>
-      </c>
-      <c r="B162" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C162" s="51">
+      <c r="A162" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="B162" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="C162" s="67">
         <v>44830</v>
       </c>
-      <c r="D162" s="50" t="s">
+      <c r="D162" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="E162" s="50"/>
+      <c r="E162" s="65"/>
       <c r="F162" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="G162" s="50"/>
+      <c r="G162" s="65"/>
       <c r="H162" s="50"/>
       <c r="I162" s="50"/>
     </row>
     <row r="163" spans="1:9" ht="34">
-      <c r="A163" s="50" t="s">
-        <v>229</v>
-      </c>
-      <c r="B163" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="C163" s="51">
+      <c r="A163" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="B163" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="C163" s="67">
         <v>44830</v>
       </c>
-      <c r="D163" s="50" t="s">
+      <c r="D163" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="E163" s="50"/>
+      <c r="E163" s="65"/>
       <c r="F163" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="G163" s="50"/>
+      <c r="G163" s="65"/>
       <c r="H163" s="50"/>
       <c r="I163" s="50"/>
     </row>
-    <row r="164" spans="1:9" ht="34">
-      <c r="A164" s="50" t="s">
-        <v>230</v>
-      </c>
-      <c r="B164" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="C164" s="51">
-        <v>44830</v>
-      </c>
-      <c r="D164" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="E164" s="50"/>
-      <c r="F164" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="G164" s="50"/>
+    <row r="164" spans="1:9">
+      <c r="A164" s="65"/>
+      <c r="B164" s="65"/>
+      <c r="C164" s="65"/>
+      <c r="D164" s="65"/>
+      <c r="E164" s="65"/>
+      <c r="F164" s="65"/>
+      <c r="G164" s="65"/>
       <c r="H164" s="50"/>
       <c r="I164" s="50"/>
     </row>
-    <row r="165" spans="1:9">
-      <c r="A165" s="50"/>
-      <c r="B165" s="50"/>
-      <c r="C165" s="50"/>
-      <c r="D165" s="50"/>
-      <c r="E165" s="50"/>
-      <c r="F165" s="50"/>
-      <c r="G165" s="50"/>
+    <row r="165" spans="1:9" ht="34">
+      <c r="A165" s="65" t="s">
+        <v>231</v>
+      </c>
+      <c r="B165" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="C165" s="67">
+        <v>44830</v>
+      </c>
+      <c r="D165" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="E165" s="65"/>
+      <c r="F165" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G165" s="65"/>
       <c r="H165" s="50"/>
       <c r="I165" s="50"/>
     </row>
     <row r="166" spans="1:9" ht="34">
-      <c r="A166" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="B166" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="C166" s="51">
+      <c r="A166" s="65" t="s">
+        <v>232</v>
+      </c>
+      <c r="B166" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C166" s="67">
         <v>44830</v>
       </c>
-      <c r="D166" s="50" t="s">
+      <c r="D166" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="E166" s="50"/>
+      <c r="E166" s="65"/>
       <c r="F166" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="G166" s="50"/>
+      <c r="G166" s="65"/>
       <c r="H166" s="50"/>
       <c r="I166" s="50"/>
     </row>
     <row r="167" spans="1:9" ht="34">
-      <c r="A167" s="50" t="s">
-        <v>232</v>
-      </c>
-      <c r="B167" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C167" s="51">
+      <c r="A167" s="65" t="s">
+        <v>233</v>
+      </c>
+      <c r="B167" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="C167" s="67">
         <v>44830</v>
       </c>
-      <c r="D167" s="50" t="s">
+      <c r="D167" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="E167" s="50"/>
+      <c r="E167" s="65"/>
       <c r="F167" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="G167" s="50"/>
+      <c r="G167" s="65"/>
       <c r="H167" s="50"/>
       <c r="I167" s="50"/>
     </row>
     <row r="168" spans="1:9" ht="34">
-      <c r="A168" s="50" t="s">
-        <v>233</v>
-      </c>
-      <c r="B168" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="C168" s="51">
+      <c r="A168" s="65" t="s">
+        <v>234</v>
+      </c>
+      <c r="B168" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="C168" s="67">
         <v>44830</v>
       </c>
-      <c r="D168" s="50" t="s">
+      <c r="D168" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="E168" s="50"/>
+      <c r="E168" s="65"/>
       <c r="F168" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="G168" s="50"/>
+      <c r="G168" s="65"/>
       <c r="H168" s="50"/>
       <c r="I168" s="50"/>
     </row>
-    <row r="169" spans="1:9" ht="34">
-      <c r="A169" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="B169" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="C169" s="51">
-        <v>44830</v>
-      </c>
-      <c r="D169" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="E169" s="50"/>
-      <c r="F169" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="G169" s="50"/>
+    <row r="169" spans="1:9">
+      <c r="A169" s="65"/>
+      <c r="B169" s="65"/>
+      <c r="C169" s="65"/>
+      <c r="D169" s="65"/>
+      <c r="E169" s="65"/>
+      <c r="F169" s="65"/>
+      <c r="G169" s="65"/>
       <c r="H169" s="50"/>
       <c r="I169" s="50"/>
     </row>
-    <row r="170" spans="1:9">
-      <c r="A170" s="50"/>
-      <c r="B170" s="50"/>
-      <c r="C170" s="50"/>
-      <c r="D170" s="50"/>
-      <c r="E170" s="50"/>
-      <c r="F170" s="50"/>
-      <c r="G170" s="50"/>
+    <row r="170" spans="1:9" ht="34">
+      <c r="A170" s="65" t="s">
+        <v>235</v>
+      </c>
+      <c r="B170" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C170" s="67">
+        <v>44830</v>
+      </c>
+      <c r="D170" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="E170" s="65"/>
+      <c r="F170" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="G170" s="65"/>
       <c r="H170" s="50"/>
       <c r="I170" s="50"/>
     </row>
     <row r="171" spans="1:9" ht="34">
-      <c r="A171" s="50" t="s">
-        <v>235</v>
-      </c>
-      <c r="B171" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="C171" s="51">
+      <c r="A171" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="B171" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C171" s="67">
         <v>44830</v>
       </c>
-      <c r="D171" s="50" t="s">
+      <c r="D171" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="E171" s="50"/>
+      <c r="E171" s="65"/>
       <c r="F171" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="G171" s="50"/>
+      <c r="G171" s="65"/>
       <c r="H171" s="50"/>
       <c r="I171" s="50"/>
     </row>
     <row r="172" spans="1:9" ht="34">
-      <c r="A172" s="50" t="s">
-        <v>236</v>
-      </c>
-      <c r="B172" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C172" s="51">
+      <c r="A172" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="B172" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="C172" s="67">
         <v>44830</v>
       </c>
-      <c r="D172" s="50" t="s">
+      <c r="D172" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="E172" s="50"/>
+      <c r="E172" s="65"/>
       <c r="F172" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="G172" s="50"/>
+      <c r="G172" s="65"/>
       <c r="H172" s="50"/>
       <c r="I172" s="50"/>
     </row>
     <row r="173" spans="1:9" ht="34">
-      <c r="A173" s="50" t="s">
-        <v>237</v>
-      </c>
-      <c r="B173" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="C173" s="51">
+      <c r="A173" s="65" t="s">
+        <v>238</v>
+      </c>
+      <c r="B173" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="C173" s="67">
         <v>44830</v>
       </c>
-      <c r="D173" s="50" t="s">
+      <c r="D173" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="E173" s="50"/>
+      <c r="E173" s="65"/>
       <c r="F173" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="G173" s="50"/>
+      <c r="G173" s="65"/>
       <c r="H173" s="50"/>
       <c r="I173" s="50"/>
     </row>
-    <row r="174" spans="1:9" ht="34">
-      <c r="A174" s="50" t="s">
-        <v>238</v>
-      </c>
-      <c r="B174" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="C174" s="51">
-        <v>44830</v>
-      </c>
-      <c r="D174" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="E174" s="50"/>
-      <c r="F174" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="G174" s="50"/>
+    <row r="174" spans="1:9">
+      <c r="A174" s="65"/>
+      <c r="B174" s="65"/>
+      <c r="C174" s="65"/>
+      <c r="D174" s="65"/>
+      <c r="E174" s="65"/>
+      <c r="F174" s="65"/>
+      <c r="G174" s="65"/>
       <c r="H174" s="50"/>
       <c r="I174" s="50"/>
     </row>
-    <row r="175" spans="1:9">
-      <c r="A175" s="50"/>
-      <c r="B175" s="50"/>
-      <c r="C175" s="50"/>
-      <c r="D175" s="50"/>
-      <c r="E175" s="50"/>
-      <c r="F175" s="50"/>
-      <c r="G175" s="50"/>
+    <row r="175" spans="1:9" ht="34">
+      <c r="A175" s="65" t="s">
+        <v>239</v>
+      </c>
+      <c r="B175" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C175" s="67">
+        <v>44830</v>
+      </c>
+      <c r="D175" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="E175" s="65"/>
+      <c r="F175" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G175" s="65"/>
       <c r="H175" s="50"/>
       <c r="I175" s="50"/>
     </row>
     <row r="176" spans="1:9" ht="34">
-      <c r="A176" s="50" t="s">
-        <v>239</v>
-      </c>
-      <c r="B176" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="C176" s="51">
+      <c r="A176" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="B176" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C176" s="67">
         <v>44830</v>
       </c>
-      <c r="D176" s="50" t="s">
+      <c r="D176" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="E176" s="50"/>
+      <c r="E176" s="65"/>
       <c r="F176" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="G176" s="50"/>
+      <c r="G176" s="65"/>
       <c r="H176" s="50"/>
       <c r="I176" s="50"/>
     </row>
     <row r="177" spans="1:9" ht="34">
-      <c r="A177" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="B177" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C177" s="51">
+      <c r="A177" s="65" t="s">
+        <v>241</v>
+      </c>
+      <c r="B177" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="C177" s="67">
         <v>44830</v>
       </c>
-      <c r="D177" s="50" t="s">
+      <c r="D177" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="E177" s="50"/>
+      <c r="E177" s="65"/>
       <c r="F177" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="G177" s="50"/>
+      <c r="G177" s="65"/>
       <c r="H177" s="50"/>
       <c r="I177" s="50"/>
     </row>
     <row r="178" spans="1:9" ht="34">
-      <c r="A178" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="B178" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="C178" s="51">
+      <c r="A178" s="65" t="s">
+        <v>242</v>
+      </c>
+      <c r="B178" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="C178" s="67">
         <v>44830</v>
       </c>
-      <c r="D178" s="50" t="s">
+      <c r="D178" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="E178" s="50"/>
+      <c r="E178" s="65"/>
       <c r="F178" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="G178" s="50"/>
+      <c r="G178" s="65"/>
       <c r="H178" s="50"/>
       <c r="I178" s="50"/>
     </row>
-    <row r="179" spans="1:9" ht="34">
-      <c r="A179" s="50" t="s">
-        <v>242</v>
-      </c>
-      <c r="B179" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="C179" s="51">
-        <v>44830</v>
-      </c>
-      <c r="D179" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="E179" s="50"/>
-      <c r="F179" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="G179" s="50"/>
+    <row r="179" spans="1:9">
+      <c r="A179" s="65"/>
+      <c r="B179" s="65"/>
+      <c r="C179" s="65"/>
+      <c r="D179" s="65"/>
+      <c r="E179" s="65"/>
+      <c r="F179" s="65"/>
+      <c r="G179" s="65"/>
       <c r="H179" s="50"/>
       <c r="I179" s="50"/>
     </row>
-    <row r="180" spans="1:9">
-      <c r="A180" s="50"/>
-      <c r="B180" s="50"/>
-      <c r="C180" s="50"/>
-      <c r="D180" s="50"/>
-      <c r="E180" s="50"/>
-      <c r="F180" s="50"/>
-      <c r="G180" s="50"/>
+    <row r="180" spans="1:9" ht="34">
+      <c r="A180" s="65" t="s">
+        <v>243</v>
+      </c>
+      <c r="B180" s="66" t="s">
+        <v>245</v>
+      </c>
+      <c r="C180" s="67">
+        <v>44830</v>
+      </c>
+      <c r="D180" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="E180" s="65"/>
+      <c r="F180" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="G180" s="65"/>
       <c r="H180" s="50"/>
       <c r="I180" s="50"/>
     </row>
     <row r="181" spans="1:9" ht="34">
-      <c r="A181" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="B181" s="52" t="s">
+      <c r="A181" s="65" t="s">
+        <v>244</v>
+      </c>
+      <c r="B181" s="66" t="s">
         <v>245</v>
       </c>
-      <c r="C181" s="51">
+      <c r="C181" s="67">
         <v>44830</v>
       </c>
-      <c r="D181" s="50" t="s">
+      <c r="D181" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="E181" s="50"/>
+      <c r="E181" s="65"/>
       <c r="F181" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="G181" s="50"/>
+      <c r="G181" s="65"/>
       <c r="H181" s="50"/>
       <c r="I181" s="50"/>
     </row>
     <row r="182" spans="1:9" ht="34">
-      <c r="A182" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="B182" s="52" t="s">
+      <c r="A182" s="65" t="s">
+        <v>247</v>
+      </c>
+      <c r="B182" s="66" t="s">
         <v>245</v>
       </c>
-      <c r="C182" s="51">
+      <c r="C182" s="67">
         <v>44830</v>
       </c>
-      <c r="D182" s="50" t="s">
+      <c r="D182" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="E182" s="50"/>
+      <c r="E182" s="65"/>
       <c r="F182" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="G182" s="50"/>
+      <c r="G182" s="65"/>
       <c r="H182" s="50"/>
       <c r="I182" s="50"/>
     </row>
     <row r="183" spans="1:9" ht="34">
-      <c r="A183" s="50" t="s">
-        <v>247</v>
-      </c>
-      <c r="B183" s="52" t="s">
-        <v>245</v>
-      </c>
-      <c r="C183" s="51">
+      <c r="A183" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="B183" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="C183" s="67">
         <v>44830</v>
       </c>
-      <c r="D183" s="50" t="s">
+      <c r="D183" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="E183" s="50"/>
+      <c r="E183" s="65"/>
       <c r="F183" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="G183" s="50"/>
+      <c r="G183" s="65"/>
       <c r="H183" s="50"/>
       <c r="I183" s="50"/>
     </row>
-    <row r="184" spans="1:9" ht="34">
-      <c r="A184" s="50" t="s">
-        <v>248</v>
-      </c>
-      <c r="B184" s="52" t="s">
-        <v>249</v>
-      </c>
-      <c r="C184" s="51">
-        <v>44830</v>
-      </c>
-      <c r="D184" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="E184" s="50"/>
-      <c r="F184" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="G184" s="50"/>
+    <row r="184" spans="1:9">
+      <c r="A184" s="65"/>
+      <c r="B184" s="65"/>
+      <c r="C184" s="65"/>
+      <c r="D184" s="65"/>
+      <c r="E184" s="65"/>
+      <c r="F184" s="65"/>
+      <c r="G184" s="65"/>
       <c r="H184" s="50"/>
       <c r="I184" s="50"/>
     </row>
-    <row r="185" spans="1:9">
-      <c r="A185" s="50"/>
-      <c r="B185" s="50"/>
-      <c r="C185" s="50"/>
-      <c r="D185" s="50"/>
-      <c r="E185" s="50"/>
-      <c r="F185" s="50"/>
-      <c r="G185" s="50"/>
+    <row r="185" spans="1:9" ht="34">
+      <c r="A185" s="65" t="s">
+        <v>250</v>
+      </c>
+      <c r="B185" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C185" s="67">
+        <v>44830</v>
+      </c>
+      <c r="D185" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="E185" s="65"/>
+      <c r="F185" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="G185" s="65"/>
       <c r="H185" s="50"/>
       <c r="I185" s="50"/>
     </row>
-    <row r="186" spans="1:9" ht="34">
-      <c r="A186" s="50" t="s">
-        <v>250</v>
-      </c>
-      <c r="B186" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C186" s="51">
-        <v>44830</v>
-      </c>
-      <c r="D186" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="E186" s="50"/>
-      <c r="F186" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="G186" s="50"/>
+    <row r="186" spans="1:9">
+      <c r="A186" s="65"/>
+      <c r="B186" s="65"/>
+      <c r="C186" s="65"/>
+      <c r="D186" s="65"/>
+      <c r="E186" s="65"/>
+      <c r="F186" s="65"/>
+      <c r="G186" s="65"/>
       <c r="H186" s="50"/>
       <c r="I186" s="50"/>
     </row>
-    <row r="187" spans="1:9">
-      <c r="A187" s="50"/>
-      <c r="B187" s="50"/>
-      <c r="C187" s="50"/>
-      <c r="D187" s="50"/>
-      <c r="E187" s="50"/>
-      <c r="F187" s="50"/>
-      <c r="G187" s="50"/>
+    <row r="187" spans="1:9" ht="34">
+      <c r="A187" s="65" t="s">
+        <v>251</v>
+      </c>
+      <c r="B187" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="C187" s="67">
+        <v>44830</v>
+      </c>
+      <c r="D187" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="E187" s="65"/>
+      <c r="F187" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="G187" s="65"/>
       <c r="H187" s="50"/>
       <c r="I187" s="50"/>
     </row>
     <row r="188" spans="1:9" ht="34">
-      <c r="A188" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="B188" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="C188" s="51">
+      <c r="A188" s="65" t="s">
+        <v>252</v>
+      </c>
+      <c r="B188" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C188" s="67">
         <v>44830</v>
       </c>
-      <c r="D188" s="50" t="s">
+      <c r="D188" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="E188" s="50"/>
+      <c r="E188" s="65"/>
       <c r="F188" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="G188" s="50"/>
+      <c r="G188" s="65"/>
       <c r="H188" s="50"/>
       <c r="I188" s="50"/>
     </row>
     <row r="189" spans="1:9" ht="34">
-      <c r="A189" s="50" t="s">
-        <v>252</v>
-      </c>
-      <c r="B189" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="C189" s="51">
+      <c r="A189" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="B189" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="C189" s="67">
         <v>44830</v>
       </c>
-      <c r="D189" s="50" t="s">
+      <c r="D189" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="E189" s="50"/>
+      <c r="E189" s="65"/>
       <c r="F189" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="G189" s="50"/>
+      <c r="G189" s="65"/>
       <c r="H189" s="50"/>
       <c r="I189" s="50"/>
     </row>
     <row r="190" spans="1:9" ht="34">
-      <c r="A190" s="50" t="s">
-        <v>253</v>
-      </c>
-      <c r="B190" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="C190" s="51">
+      <c r="A190" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="B190" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="C190" s="67">
         <v>44830</v>
       </c>
-      <c r="D190" s="50" t="s">
+      <c r="D190" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="E190" s="50"/>
+      <c r="E190" s="65"/>
       <c r="F190" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="G190" s="50"/>
+      <c r="G190" s="65"/>
       <c r="H190" s="50"/>
       <c r="I190" s="50"/>
     </row>
-    <row r="191" spans="1:9" ht="34">
-      <c r="A191" s="50" t="s">
-        <v>254</v>
-      </c>
-      <c r="B191" s="52" t="s">
-        <v>255</v>
-      </c>
-      <c r="C191" s="51">
-        <v>44830</v>
-      </c>
-      <c r="D191" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="E191" s="50"/>
-      <c r="F191" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="G191" s="50"/>
+    <row r="191" spans="1:9">
+      <c r="A191" s="65"/>
+      <c r="B191" s="65"/>
+      <c r="C191" s="65"/>
+      <c r="D191" s="65"/>
+      <c r="E191" s="65"/>
+      <c r="F191" s="65"/>
+      <c r="G191" s="65"/>
       <c r="H191" s="50"/>
       <c r="I191" s="50"/>
     </row>
-    <row r="192" spans="1:9">
-      <c r="A192" s="50"/>
-      <c r="B192" s="50"/>
-      <c r="C192" s="50"/>
-      <c r="D192" s="50"/>
-      <c r="E192" s="50"/>
-      <c r="F192" s="50"/>
-      <c r="G192" s="50"/>
+    <row r="192" spans="1:9" ht="34">
+      <c r="A192" s="66" t="s">
+        <v>256</v>
+      </c>
+      <c r="B192" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C192" s="67">
+        <v>44832</v>
+      </c>
+      <c r="D192" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="E192" s="65"/>
+      <c r="F192" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="G192" s="65" t="s">
+        <v>259</v>
+      </c>
       <c r="H192" s="50"/>
       <c r="I192" s="50"/>
     </row>
     <row r="193" spans="1:9" ht="34">
-      <c r="A193" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="B193" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="C193" s="51">
+      <c r="A193" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="B193" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C193" s="67">
         <v>44832</v>
       </c>
-      <c r="D193" s="50" t="s">
+      <c r="D193" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="E193" s="50"/>
+      <c r="E193" s="65"/>
       <c r="F193" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="G193" s="50"/>
+      <c r="G193" s="7" t="s">
+        <v>259</v>
+      </c>
       <c r="H193" s="50"/>
       <c r="I193" s="50"/>
     </row>
     <row r="194" spans="1:9" ht="34">
-      <c r="A194" s="50" t="s">
-        <v>257</v>
-      </c>
-      <c r="B194" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="C194" s="51">
+      <c r="A194" s="65" t="s">
+        <v>260</v>
+      </c>
+      <c r="B194" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C194" s="67">
         <v>44832</v>
       </c>
-      <c r="D194" s="50" t="s">
+      <c r="D194" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="E194" s="50"/>
+      <c r="E194" s="65"/>
       <c r="F194" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="G194" s="50" t="s">
+      <c r="G194" s="65" t="s">
         <v>259</v>
       </c>
       <c r="H194" s="50"/>
       <c r="I194" s="50"/>
     </row>
     <row r="195" spans="1:9" ht="34">
-      <c r="A195" s="50" t="s">
-        <v>260</v>
-      </c>
-      <c r="B195" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C195" s="51">
+      <c r="A195" s="65" t="s">
+        <v>261</v>
+      </c>
+      <c r="B195" s="66" t="s">
+        <v>210</v>
+      </c>
+      <c r="C195" s="67">
         <v>44832</v>
       </c>
-      <c r="D195" s="50" t="s">
+      <c r="D195" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="E195" s="50"/>
+      <c r="E195" s="65"/>
       <c r="F195" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="G195" s="7" t="s">
+      <c r="G195" s="65" t="s">
         <v>259</v>
       </c>
       <c r="H195" s="50"/>
       <c r="I195" s="50"/>
     </row>
-    <row r="196" spans="1:9" ht="34">
-      <c r="A196" s="50" t="s">
-        <v>261</v>
-      </c>
-      <c r="B196" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="C196" s="51">
-        <v>44832</v>
-      </c>
-      <c r="D196" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="E196" s="50"/>
-      <c r="F196" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="G196" s="50" t="s">
-        <v>259</v>
-      </c>
+    <row r="196" spans="1:9">
+      <c r="A196" s="65"/>
+      <c r="B196" s="65"/>
+      <c r="C196" s="65"/>
+      <c r="D196" s="65"/>
+      <c r="E196" s="65"/>
+      <c r="F196" s="65"/>
+      <c r="G196" s="65"/>
       <c r="H196" s="50"/>
       <c r="I196" s="50"/>
     </row>
     <row r="197" spans="1:9">
-      <c r="A197" s="50"/>
-      <c r="B197" s="50"/>
-      <c r="C197" s="50"/>
-      <c r="D197" s="50"/>
-      <c r="E197" s="50"/>
-      <c r="F197" s="50"/>
-      <c r="G197" s="50" t="s">
-        <v>259</v>
-      </c>
+      <c r="A197" s="65" t="s">
+        <v>262</v>
+      </c>
+      <c r="B197" s="65" t="s">
+        <v>264</v>
+      </c>
+      <c r="C197" s="67">
+        <v>44876</v>
+      </c>
+      <c r="D197" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="E197" s="65"/>
+      <c r="F197" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="G197" s="65"/>
       <c r="H197" s="50"/>
       <c r="I197" s="50"/>
     </row>
     <row r="198" spans="1:9">
-      <c r="A198" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="B198" s="50" t="s">
+      <c r="A198" s="65" t="s">
+        <v>263</v>
+      </c>
+      <c r="B198" s="65" t="s">
         <v>264</v>
       </c>
-      <c r="C198" s="51">
+      <c r="C198" s="67">
         <v>44876</v>
       </c>
-      <c r="D198" s="50" t="s">
+      <c r="D198" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="E198" s="50"/>
+      <c r="E198" s="65"/>
       <c r="F198" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="G198" s="50"/>
+      <c r="G198" s="65"/>
       <c r="H198" s="50"/>
       <c r="I198" s="50"/>
     </row>
     <row r="199" spans="1:9">
-      <c r="A199" s="50" t="s">
-        <v>263</v>
-      </c>
-      <c r="B199" s="50" t="s">
-        <v>264</v>
-      </c>
-      <c r="C199" s="51">
-        <v>44876</v>
-      </c>
-      <c r="D199" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="E199" s="50"/>
-      <c r="F199" s="28" t="s">
-        <v>265</v>
-      </c>
+      <c r="A199" s="50"/>
       <c r="G199" s="50"/>
       <c r="H199" s="50"/>
       <c r="I199" s="50"/>
     </row>
-    <row r="200" spans="1:9">
-      <c r="A200" s="50"/>
-      <c r="G200" s="50"/>
-      <c r="H200" s="50"/>
-      <c r="I200" s="50"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F193" r:id="rId1" xr:uid="{1BCB3ACB-88D6-4FDE-8E0A-AA377376D3A2}"/>
-    <hyperlink ref="F194" r:id="rId2" xr:uid="{56F48CF1-4186-40E3-A2A6-C22D1A27583A}"/>
-    <hyperlink ref="F195" r:id="rId3" xr:uid="{9E7BB28C-4053-4120-90C1-59A3E135625B}"/>
-    <hyperlink ref="F196" r:id="rId4" xr:uid="{D09BBCB9-A29B-44CA-8F73-B9D581AD69F9}"/>
-    <hyperlink ref="F181" r:id="rId5" xr:uid="{2F62C8FA-A2E0-4C52-B603-8FC315ECDF16}"/>
-    <hyperlink ref="F182:F184" r:id="rId6" display="DNA-1207" xr:uid="{B7F60819-7984-4424-ABEB-E1466BD78794}"/>
-    <hyperlink ref="F186" r:id="rId7" xr:uid="{E33B11DD-52DB-48F5-A30F-ED882093B92E}"/>
-    <hyperlink ref="F188:F191" r:id="rId8" display="DNA-1207" xr:uid="{87C8F299-56A6-4FA1-B9EB-98C28597684C}"/>
-    <hyperlink ref="F138" r:id="rId9" xr:uid="{FC8CDD8C-3F4A-49A4-85AE-7633776A0A26}"/>
-    <hyperlink ref="F146:F149" r:id="rId10" display="DNA-1208" xr:uid="{14542702-2032-4993-8E25-9CC61E9E02D9}"/>
-    <hyperlink ref="F161:F164" r:id="rId11" display="DNA-1208" xr:uid="{5A327B56-BE76-41A6-BF68-3EB334A9A11D}"/>
-    <hyperlink ref="F171:F174" r:id="rId12" display="DNA-1208" xr:uid="{EA810397-253D-4685-924E-A3C6CDBDE8F1}"/>
-    <hyperlink ref="F139" r:id="rId13" xr:uid="{AA040250-78BC-4703-8114-6045C259FFA7}"/>
-    <hyperlink ref="F151:F154" r:id="rId14" display="DNA-1209" xr:uid="{0F75BB17-9A9C-42D3-AE36-B26B67A3E352}"/>
-    <hyperlink ref="F166:F169" r:id="rId15" display="DNA-1209" xr:uid="{C481789A-4661-40E6-8611-7DABC9A5E773}"/>
-    <hyperlink ref="F176:F179" r:id="rId16" display="DNA-1209" xr:uid="{2AE7445D-6BE9-4615-8376-DCCA1ABB9D19}"/>
-    <hyperlink ref="F136" r:id="rId17" xr:uid="{D285AB7F-C074-4040-B723-7741BFC1575F}"/>
-    <hyperlink ref="F137" r:id="rId18" xr:uid="{D3157EBF-BDAD-4DC7-8AC7-9B0F6FAE1798}"/>
-    <hyperlink ref="F156" r:id="rId19" xr:uid="{2C9DA036-32F2-451A-B820-081A3396B2BC}"/>
-    <hyperlink ref="F157" r:id="rId20" xr:uid="{4A0D6115-F313-4C29-8234-46FF7C1A84CD}"/>
-    <hyperlink ref="F158" r:id="rId21" xr:uid="{80297CAD-7514-4C4A-9380-0B56A550CB09}"/>
-    <hyperlink ref="F159" r:id="rId22" xr:uid="{B4A4B887-BC08-4DBE-9580-BBDFD8EF8C46}"/>
-    <hyperlink ref="F141" r:id="rId23" xr:uid="{2F264426-CCD5-43BE-8F2F-AF23F222EFDC}"/>
-    <hyperlink ref="F142" r:id="rId24" xr:uid="{450C72CD-CD46-4F28-818B-F7B83B1653D2}"/>
-    <hyperlink ref="F143" r:id="rId25" xr:uid="{8564E3AE-56D1-4D73-9944-5BE6301B7DEB}"/>
-    <hyperlink ref="F144" r:id="rId26" xr:uid="{A1B11126-3A33-4C40-B172-485DEE4E6CB2}"/>
-    <hyperlink ref="F131" r:id="rId27" xr:uid="{9A95AFD6-23A4-4DAE-AC91-AEF0F9AE0B16}"/>
-    <hyperlink ref="F132" r:id="rId28" xr:uid="{99FD40FE-9300-44D0-8D90-F18B3E01FC3D}"/>
-    <hyperlink ref="F133" r:id="rId29" xr:uid="{DB082D31-1336-480D-BF84-6A2FBBCFCEE9}"/>
-    <hyperlink ref="F134" r:id="rId30" xr:uid="{A5E79768-F468-4310-9010-8476A479725C}"/>
-    <hyperlink ref="F198" r:id="rId31" xr:uid="{947C8AC3-6639-4E9E-9101-CA6E160841CE}"/>
-    <hyperlink ref="F199" r:id="rId32" xr:uid="{03E55232-6466-40C6-9395-0B04C93019E8}"/>
+    <hyperlink ref="F130" r:id="rId1" xr:uid="{4BD54F73-5A90-1340-97FF-3B2C5328001C}"/>
+    <hyperlink ref="F131" r:id="rId2" xr:uid="{83B80BC2-3C2C-FB4A-A06C-4CD01C42305A}"/>
+    <hyperlink ref="F132" r:id="rId3" xr:uid="{A07DFAC9-3EB7-194D-AAAE-8BC293A4350B}"/>
+    <hyperlink ref="F133" r:id="rId4" xr:uid="{364E4466-5222-014D-8032-84AEA10C669D}"/>
+    <hyperlink ref="F192" r:id="rId5" xr:uid="{FCE3212D-C63D-014C-9071-A00DB945474C}"/>
+    <hyperlink ref="F193" r:id="rId6" xr:uid="{C11B0599-35EE-C942-B9DB-1BDD354F52D9}"/>
+    <hyperlink ref="F194" r:id="rId7" xr:uid="{EEE11DE3-3710-7642-AC01-6CA9920904C3}"/>
+    <hyperlink ref="F195" r:id="rId8" xr:uid="{CA9C30DA-94D2-3549-975B-F56B587C9EF7}"/>
+    <hyperlink ref="F180" r:id="rId9" xr:uid="{2F672350-90CC-D74A-8AC5-17A6CEDDAC90}"/>
+    <hyperlink ref="F181:F183" r:id="rId10" display="DNA-1207" xr:uid="{F4F566AF-3870-0544-AF3B-76DA12DCFD16}"/>
+    <hyperlink ref="F185" r:id="rId11" xr:uid="{C6EFDFCD-2922-B24D-BF65-1911F7D2DB9B}"/>
+    <hyperlink ref="F187:F190" r:id="rId12" display="DNA-1207" xr:uid="{2FC3F405-15ED-F547-B01B-D5DDB30F4A16}"/>
+    <hyperlink ref="F137" r:id="rId13" xr:uid="{8011FB71-1991-1C43-A3C1-BB77A8975E2C}"/>
+    <hyperlink ref="F145:F148" r:id="rId14" display="DNA-1208" xr:uid="{F80B2646-390D-624C-AF35-7FBB8281A498}"/>
+    <hyperlink ref="F160:F163" r:id="rId15" display="DNA-1208" xr:uid="{69ACAD9B-902C-FF4E-BDA6-522E99CDA4EB}"/>
+    <hyperlink ref="F170:F173" r:id="rId16" display="DNA-1208" xr:uid="{1C6B6123-A9E2-0C42-9527-C7995D4A86C4}"/>
+    <hyperlink ref="F138" r:id="rId17" xr:uid="{1CED3E07-628D-4543-ACCE-2208D0B3B038}"/>
+    <hyperlink ref="F150:F153" r:id="rId18" display="DNA-1209" xr:uid="{4D82F9A4-D92C-C945-A291-03B27BA7F8DA}"/>
+    <hyperlink ref="F165:F168" r:id="rId19" display="DNA-1209" xr:uid="{2A4D31A3-C693-8048-9C5A-BA3F97685005}"/>
+    <hyperlink ref="F175:F178" r:id="rId20" display="DNA-1209" xr:uid="{C83BD87B-52DF-784A-9F31-11797FBC3732}"/>
+    <hyperlink ref="F135" r:id="rId21" xr:uid="{05E95E3D-938D-F74D-B57E-D250CFA2D62C}"/>
+    <hyperlink ref="F136" r:id="rId22" xr:uid="{2DDC66B4-E6E9-9247-8E16-B58CAE591635}"/>
+    <hyperlink ref="F155" r:id="rId23" xr:uid="{89FC735F-0221-D64B-AB21-317A697FA85E}"/>
+    <hyperlink ref="F156" r:id="rId24" xr:uid="{A9FF8416-4C99-1C45-80CB-62A27A1C52DA}"/>
+    <hyperlink ref="F157" r:id="rId25" xr:uid="{799F0263-83EE-BD49-B6AB-096C2C39B406}"/>
+    <hyperlink ref="F158" r:id="rId26" xr:uid="{A422395D-50DB-6A47-A8F2-7A5A5115CC4B}"/>
+    <hyperlink ref="F140" r:id="rId27" xr:uid="{358E3C9F-7C82-E647-8A59-EEA9E907E284}"/>
+    <hyperlink ref="F141" r:id="rId28" xr:uid="{69FF759E-7677-E24A-9F08-8A318CDAED24}"/>
+    <hyperlink ref="F142" r:id="rId29" xr:uid="{D7169AFA-FD10-7E4B-97E2-12D7E930431E}"/>
+    <hyperlink ref="F143" r:id="rId30" xr:uid="{32CB84FC-AAA8-FA42-92F2-7E382025BFE3}"/>
+    <hyperlink ref="F197" r:id="rId31" xr:uid="{E6967C10-A0E3-ED44-A36E-CF5227D8F6A0}"/>
+    <hyperlink ref="F198" r:id="rId32" xr:uid="{4E03EE55-7659-5C4B-9DED-2BD1A1A4E3E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId33"/>
@@ -18745,7 +18848,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -22381,7 +22484,7 @@
       <c r="G138" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F55" r:id="rId1" display="https://jira.corp.adobe.com/browse/DNA-1227" xr:uid="{FE2FEB31-A5C5-485F-908C-88B1699C1DCB}"/>
     <hyperlink ref="F48" r:id="rId2" display="https://jira.corp.adobe.com/browse/DNA-1227" xr:uid="{EA9A1833-1F07-40E2-A089-17F42DC12BB3}"/>
@@ -24368,7 +24471,7 @@
       <c r="B104" s="29"/>
     </row>
     <row r="105" spans="1:2" ht="16">
-      <c r="A105" s="64" t="s">
+      <c r="A105" s="61" t="s">
         <v>1480</v>
       </c>
       <c r="B105" s="61" t="s">
@@ -24376,7 +24479,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" ht="16">
-      <c r="A106" s="64" t="s">
+      <c r="A106" s="61" t="s">
         <v>1481</v>
       </c>
       <c r="B106" s="61" t="s">
@@ -24384,7 +24487,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" ht="16">
-      <c r="A107" s="64" t="s">
+      <c r="A107" s="61" t="s">
         <v>1482</v>
       </c>
       <c r="B107" s="61" t="s">
@@ -24392,7 +24495,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" ht="16">
-      <c r="A108" s="64" t="s">
+      <c r="A108" s="61" t="s">
         <v>1483</v>
       </c>
       <c r="B108" s="61" t="s">
@@ -24400,7 +24503,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="16">
-      <c r="A109" s="64" t="s">
+      <c r="A109" s="61" t="s">
         <v>1484</v>
       </c>
       <c r="B109" s="61" t="s">
@@ -24408,7 +24511,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" ht="16">
-      <c r="A110" s="64" t="s">
+      <c r="A110" s="61" t="s">
         <v>1485</v>
       </c>
       <c r="B110" s="61" t="s">
@@ -24416,7 +24519,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="16">
-      <c r="A111" s="64" t="s">
+      <c r="A111" s="61" t="s">
         <v>1489</v>
       </c>
       <c r="B111" s="61" t="s">
@@ -24424,7 +24527,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="16">
-      <c r="A112" s="64" t="s">
+      <c r="A112" s="61" t="s">
         <v>1490</v>
       </c>
       <c r="B112" s="61" t="s">
@@ -24432,7 +24535,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="16">
-      <c r="A113" s="64" t="s">
+      <c r="A113" s="61" t="s">
         <v>1491</v>
       </c>
       <c r="B113" s="61" t="s">
@@ -24468,7 +24571,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" ht="16">
-      <c r="A118" s="64" t="s">
+      <c r="A118" s="61" t="s">
         <v>1492</v>
       </c>
       <c r="B118" s="61" t="s">
@@ -24476,15 +24579,15 @@
       </c>
     </row>
     <row r="119" spans="1:2" ht="34">
-      <c r="A119" s="64" t="s">
+      <c r="A119" s="61" t="s">
         <v>1493</v>
       </c>
-      <c r="B119" s="65" t="s">
+      <c r="B119" s="62" t="s">
         <v>1494</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="16">
-      <c r="A120" s="64" t="s">
+      <c r="A120" s="61" t="s">
         <v>1495</v>
       </c>
       <c r="B120" s="61" t="s">
@@ -24492,7 +24595,7 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="16">
-      <c r="A121" s="64" t="s">
+      <c r="A121" s="61" t="s">
         <v>1496</v>
       </c>
       <c r="B121" s="61" t="s">
@@ -24500,7 +24603,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" ht="16">
-      <c r="A122" s="64" t="s">
+      <c r="A122" s="61" t="s">
         <v>1497</v>
       </c>
       <c r="B122" s="61" t="s">
@@ -24508,7 +24611,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" ht="16">
-      <c r="A123" s="64" t="s">
+      <c r="A123" s="61" t="s">
         <v>1498</v>
       </c>
       <c r="B123" s="61" t="s">
@@ -24520,74 +24623,74 @@
       <c r="B124" s="29"/>
     </row>
     <row r="125" spans="1:2" ht="16">
-      <c r="A125" s="64" t="s">
+      <c r="A125" s="61" t="s">
         <v>1523</v>
       </c>
-      <c r="B125" s="64" t="s">
+      <c r="B125" s="61" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="16">
-      <c r="A126" s="64" t="s">
+      <c r="A126" s="61" t="s">
         <v>1524</v>
       </c>
-      <c r="B126" s="64" t="s">
+      <c r="B126" s="61" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="16">
-      <c r="A127" s="64" t="s">
+      <c r="A127" s="61" t="s">
         <v>1525</v>
       </c>
-      <c r="B127" s="64" t="s">
+      <c r="B127" s="61" t="s">
         <v>1424</v>
       </c>
     </row>
-    <row r="128" spans="1:2" s="68" customFormat="1" ht="16">
-      <c r="A128" s="64" t="s">
+    <row r="128" spans="1:2" ht="16">
+      <c r="A128" s="61" t="s">
         <v>1526</v>
       </c>
-      <c r="B128" s="64" t="s">
+      <c r="B128" s="61" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="129" spans="1:2" s="68" customFormat="1" ht="16">
-      <c r="A129" s="64" t="s">
+    <row r="129" spans="1:2" ht="16">
+      <c r="A129" s="61" t="s">
         <v>1527</v>
       </c>
-      <c r="B129" s="64" t="s">
+      <c r="B129" s="61" t="s">
         <v>1420</v>
       </c>
     </row>
-    <row r="130" spans="1:2" s="68" customFormat="1" ht="16">
-      <c r="A130" s="64" t="s">
+    <row r="130" spans="1:2" ht="16">
+      <c r="A130" s="61" t="s">
         <v>1528</v>
       </c>
-      <c r="B130" s="64" t="s">
+      <c r="B130" s="61" t="s">
         <v>1424</v>
       </c>
     </row>
-    <row r="131" spans="1:2" s="68" customFormat="1" ht="16">
-      <c r="A131" s="64" t="s">
+    <row r="131" spans="1:2" ht="16">
+      <c r="A131" s="61" t="s">
         <v>1529</v>
       </c>
-      <c r="B131" s="64" t="s">
+      <c r="B131" s="61" t="s">
         <v>1430</v>
       </c>
     </row>
-    <row r="132" spans="1:2" s="68" customFormat="1" ht="16">
-      <c r="A132" s="64" t="s">
+    <row r="132" spans="1:2" ht="16">
+      <c r="A132" s="61" t="s">
         <v>1530</v>
       </c>
-      <c r="B132" s="64" t="s">
+      <c r="B132" s="61" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15" customHeight="1">
-      <c r="A133" s="64" t="s">
+      <c r="A133" s="61" t="s">
         <v>1531</v>
       </c>
-      <c r="B133" s="64" t="s">
+      <c r="B133" s="61" t="s">
         <v>1425</v>
       </c>
     </row>
@@ -24596,74 +24699,74 @@
       <c r="B134" s="29"/>
     </row>
     <row r="135" spans="1:2" ht="16">
-      <c r="A135" s="64" t="s">
+      <c r="A135" s="61" t="s">
         <v>1532</v>
       </c>
-      <c r="B135" s="64" t="s">
+      <c r="B135" s="61" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="16">
-      <c r="A136" s="64" t="s">
+      <c r="A136" s="61" t="s">
         <v>1533</v>
       </c>
-      <c r="B136" s="64" t="s">
+      <c r="B136" s="61" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="16">
-      <c r="A137" s="64" t="s">
+      <c r="A137" s="61" t="s">
         <v>1534</v>
       </c>
-      <c r="B137" s="64" t="s">
+      <c r="B137" s="61" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="16">
-      <c r="A138" s="64" t="s">
+      <c r="A138" s="61" t="s">
         <v>1535</v>
       </c>
-      <c r="B138" s="64" t="s">
+      <c r="B138" s="61" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="16">
-      <c r="A139" s="64" t="s">
+      <c r="A139" s="61" t="s">
         <v>1536</v>
       </c>
-      <c r="B139" s="64" t="s">
+      <c r="B139" s="61" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="16">
-      <c r="A140" s="64" t="s">
+      <c r="A140" s="61" t="s">
         <v>1537</v>
       </c>
-      <c r="B140" s="64" t="s">
+      <c r="B140" s="61" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="16">
-      <c r="A141" s="64" t="s">
+      <c r="A141" s="61" t="s">
         <v>1538</v>
       </c>
-      <c r="B141" s="64" t="s">
+      <c r="B141" s="61" t="s">
         <v>1430</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="16">
-      <c r="A142" s="64" t="s">
+      <c r="A142" s="61" t="s">
         <v>1539</v>
       </c>
-      <c r="B142" s="64" t="s">
+      <c r="B142" s="61" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="16">
-      <c r="A143" s="64" t="s">
+      <c r="A143" s="61" t="s">
         <v>1540</v>
       </c>
-      <c r="B143" s="64" t="s">
+      <c r="B143" s="61" t="s">
         <v>1425</v>
       </c>
     </row>
@@ -24672,74 +24775,74 @@
       <c r="B144" s="29"/>
     </row>
     <row r="145" spans="1:2" ht="16">
-      <c r="A145" s="64" t="s">
+      <c r="A145" s="61" t="s">
         <v>1541</v>
       </c>
-      <c r="B145" s="64" t="s">
+      <c r="B145" s="61" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="16">
-      <c r="A146" s="64" t="s">
+      <c r="A146" s="61" t="s">
         <v>1542</v>
       </c>
-      <c r="B146" s="64" t="s">
+      <c r="B146" s="61" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="16">
-      <c r="A147" s="64" t="s">
+      <c r="A147" s="61" t="s">
         <v>1543</v>
       </c>
-      <c r="B147" s="64" t="s">
+      <c r="B147" s="61" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="16">
-      <c r="A148" s="64" t="s">
+      <c r="A148" s="61" t="s">
         <v>1544</v>
       </c>
-      <c r="B148" s="64" t="s">
+      <c r="B148" s="61" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="16">
-      <c r="A149" s="64" t="s">
+      <c r="A149" s="61" t="s">
         <v>1545</v>
       </c>
-      <c r="B149" s="64" t="s">
+      <c r="B149" s="61" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="16">
-      <c r="A150" s="64" t="s">
+      <c r="A150" s="61" t="s">
         <v>1546</v>
       </c>
-      <c r="B150" s="64" t="s">
+      <c r="B150" s="61" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="16">
-      <c r="A151" s="64" t="s">
+      <c r="A151" s="61" t="s">
         <v>1547</v>
       </c>
-      <c r="B151" s="64" t="s">
+      <c r="B151" s="61" t="s">
         <v>1430</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="16">
-      <c r="A152" s="64" t="s">
+      <c r="A152" s="61" t="s">
         <v>1548</v>
       </c>
-      <c r="B152" s="64" t="s">
+      <c r="B152" s="61" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="16">
-      <c r="A153" s="64" t="s">
+      <c r="A153" s="61" t="s">
         <v>1549</v>
       </c>
-      <c r="B153" s="64" t="s">
+      <c r="B153" s="61" t="s">
         <v>1425</v>
       </c>
     </row>
@@ -24748,74 +24851,74 @@
       <c r="B154" s="29"/>
     </row>
     <row r="155" spans="1:2" ht="16">
-      <c r="A155" s="64" t="s">
+      <c r="A155" s="61" t="s">
         <v>1550</v>
       </c>
-      <c r="B155" s="64" t="s">
+      <c r="B155" s="61" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="16">
-      <c r="A156" s="64" t="s">
+      <c r="A156" s="61" t="s">
         <v>1551</v>
       </c>
-      <c r="B156" s="64" t="s">
+      <c r="B156" s="61" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="16">
-      <c r="A157" s="64" t="s">
+      <c r="A157" s="61" t="s">
         <v>1552</v>
       </c>
-      <c r="B157" s="64" t="s">
+      <c r="B157" s="61" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="16">
-      <c r="A158" s="64" t="s">
+      <c r="A158" s="61" t="s">
         <v>1553</v>
       </c>
-      <c r="B158" s="64" t="s">
+      <c r="B158" s="61" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="16">
-      <c r="A159" s="64" t="s">
+      <c r="A159" s="61" t="s">
         <v>1554</v>
       </c>
-      <c r="B159" s="64" t="s">
+      <c r="B159" s="61" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="16">
-      <c r="A160" s="64" t="s">
+      <c r="A160" s="61" t="s">
         <v>1555</v>
       </c>
-      <c r="B160" s="64" t="s">
+      <c r="B160" s="61" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="16">
-      <c r="A161" s="64" t="s">
+      <c r="A161" s="61" t="s">
         <v>1556</v>
       </c>
-      <c r="B161" s="64" t="s">
+      <c r="B161" s="61" t="s">
         <v>1430</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="16">
-      <c r="A162" s="64" t="s">
+      <c r="A162" s="61" t="s">
         <v>1557</v>
       </c>
-      <c r="B162" s="64" t="s">
+      <c r="B162" s="61" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="16">
-      <c r="A163" s="64" t="s">
+      <c r="A163" s="61" t="s">
         <v>1558</v>
       </c>
-      <c r="B163" s="64" t="s">
+      <c r="B163" s="61" t="s">
         <v>1425</v>
       </c>
     </row>
@@ -24824,91 +24927,91 @@
       <c r="B164" s="29"/>
     </row>
     <row r="165" spans="1:3" ht="16">
-      <c r="A165" s="63" t="s">
+      <c r="A165" s="50" t="s">
         <v>452</v>
       </c>
-      <c r="B165" s="63" t="s">
+      <c r="B165" s="50" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="16">
-      <c r="A166" s="63" t="s">
+      <c r="A166" s="50" t="s">
         <v>453</v>
       </c>
-      <c r="B166" s="63" t="s">
+      <c r="B166" s="50" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="16">
-      <c r="A167" s="63" t="s">
+      <c r="A167" s="50" t="s">
         <v>454</v>
       </c>
-      <c r="B167" s="63" t="s">
+      <c r="B167" s="50" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="16">
-      <c r="A168" s="63" t="s">
+      <c r="A168" s="50" t="s">
         <v>455</v>
       </c>
-      <c r="B168" s="63" t="s">
+      <c r="B168" s="50" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="16">
-      <c r="A169" s="63" t="s">
+      <c r="A169" s="50" t="s">
         <v>456</v>
       </c>
-      <c r="B169" s="63" t="s">
+      <c r="B169" s="50" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="16">
-      <c r="A170" s="63" t="s">
+      <c r="A170" s="50" t="s">
         <v>457</v>
       </c>
-      <c r="B170" s="63" t="s">
+      <c r="B170" s="50" t="s">
         <v>31</v>
       </c>
       <c r="C170" s="50"/>
     </row>
     <row r="171" spans="1:3" ht="16">
-      <c r="A171" s="63" t="s">
+      <c r="A171" s="50" t="s">
         <v>458</v>
       </c>
-      <c r="B171" s="63" t="s">
+      <c r="B171" s="50" t="s">
         <v>28</v>
       </c>
       <c r="C171" s="50"/>
     </row>
     <row r="172" spans="1:3" ht="16">
-      <c r="A172" s="63" t="s">
+      <c r="A172" s="50" t="s">
         <v>459</v>
       </c>
-      <c r="B172" s="63" t="s">
+      <c r="B172" s="50" t="s">
         <v>26</v>
       </c>
       <c r="C172" s="50"/>
     </row>
     <row r="173" spans="1:3" ht="16">
-      <c r="A173" s="63"/>
-      <c r="B173" s="63"/>
+      <c r="A173" s="50"/>
+      <c r="B173" s="50"/>
       <c r="C173" s="50"/>
     </row>
     <row r="174" spans="1:3" ht="16">
-      <c r="A174" s="63" t="s">
+      <c r="A174" s="50" t="s">
         <v>460</v>
       </c>
-      <c r="B174" s="63" t="s">
+      <c r="B174" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C174" s="50"/>
     </row>
     <row r="175" spans="1:3" ht="16">
-      <c r="A175" s="63" t="s">
+      <c r="A175" s="50" t="s">
         <v>1404</v>
       </c>
-      <c r="B175" s="63" t="s">
+      <c r="B175" s="50" t="s">
         <v>1400</v>
       </c>
       <c r="C175" t="s">
@@ -24916,15 +25019,15 @@
       </c>
     </row>
     <row r="176" spans="1:3" ht="16">
-      <c r="A176" s="63"/>
-      <c r="B176" s="63"/>
+      <c r="A176" s="50"/>
+      <c r="B176" s="50"/>
       <c r="C176" s="50"/>
     </row>
     <row r="177" spans="1:3" ht="16">
-      <c r="A177" s="63" t="s">
+      <c r="A177" s="50" t="s">
         <v>461</v>
       </c>
-      <c r="B177" s="66" t="s">
+      <c r="B177" s="53" t="s">
         <v>462</v>
       </c>
       <c r="C177" s="50" t="s">
@@ -24932,10 +25035,10 @@
       </c>
     </row>
     <row r="178" spans="1:3" ht="16">
-      <c r="A178" s="63" t="s">
+      <c r="A178" s="50" t="s">
         <v>464</v>
       </c>
-      <c r="B178" s="66" t="s">
+      <c r="B178" s="53" t="s">
         <v>465</v>
       </c>
       <c r="C178" s="50" t="s">
@@ -24949,382 +25052,382 @@
       <c r="B179" s="29"/>
     </row>
     <row r="180" spans="1:3" ht="16">
-      <c r="A180" s="69" t="s">
+      <c r="A180" s="64" t="s">
         <v>1559</v>
       </c>
-      <c r="B180" s="64" t="s">
+      <c r="B180" s="61" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="16">
-      <c r="A181" s="69" t="s">
+      <c r="A181" s="64" t="s">
         <v>1560</v>
       </c>
-      <c r="B181" s="69" t="s">
+      <c r="B181" s="64" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="16">
-      <c r="A182" s="69" t="s">
+      <c r="A182" s="64" t="s">
         <v>1561</v>
       </c>
-      <c r="B182" s="69" t="s">
+      <c r="B182" s="64" t="s">
         <v>1425</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="16">
-      <c r="A183" s="69" t="s">
+      <c r="A183" s="64" t="s">
         <v>1562</v>
       </c>
-      <c r="B183" s="64" t="s">
+      <c r="B183" s="61" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="16">
-      <c r="A184" s="69" t="s">
+      <c r="A184" s="64" t="s">
         <v>1563</v>
       </c>
-      <c r="B184" s="69" t="s">
+      <c r="B184" s="64" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="16">
-      <c r="A185" s="69" t="s">
+      <c r="A185" s="64" t="s">
         <v>1564</v>
       </c>
-      <c r="B185" s="69" t="s">
+      <c r="B185" s="64" t="s">
         <v>1425</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="16">
-      <c r="A186" s="69" t="s">
+      <c r="A186" s="64" t="s">
         <v>1565</v>
       </c>
-      <c r="B186" s="64" t="s">
+      <c r="B186" s="61" t="s">
         <v>1430</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="16">
-      <c r="A187" s="69" t="s">
+      <c r="A187" s="64" t="s">
         <v>1566</v>
       </c>
-      <c r="B187" s="69" t="s">
+      <c r="B187" s="64" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="16">
-      <c r="A188" s="69" t="s">
+      <c r="A188" s="64" t="s">
         <v>1567</v>
       </c>
-      <c r="B188" s="69" t="s">
+      <c r="B188" s="64" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="189" spans="1:3" s="68" customFormat="1" ht="16">
-      <c r="A189" s="67"/>
-      <c r="B189" s="67"/>
-    </row>
-    <row r="190" spans="1:3" s="68" customFormat="1" ht="16">
-      <c r="A190" s="69" t="s">
+    <row r="189" spans="1:3" ht="16">
+      <c r="A189" s="63"/>
+      <c r="B189" s="63"/>
+    </row>
+    <row r="190" spans="1:3" ht="16">
+      <c r="A190" s="64" t="s">
         <v>1568</v>
       </c>
-      <c r="B190" s="64" t="s">
+      <c r="B190" s="61" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="191" spans="1:3" s="68" customFormat="1" ht="16">
-      <c r="A191" s="69" t="s">
+    <row r="191" spans="1:3" ht="16">
+      <c r="A191" s="64" t="s">
         <v>1569</v>
       </c>
-      <c r="B191" s="69" t="s">
+      <c r="B191" s="64" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="16">
-      <c r="A192" s="69" t="s">
+      <c r="A192" s="64" t="s">
         <v>1570</v>
       </c>
-      <c r="B192" s="69" t="s">
+      <c r="B192" s="64" t="s">
         <v>1425</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="16">
-      <c r="A193" s="69" t="s">
+      <c r="A193" s="64" t="s">
         <v>1572</v>
       </c>
-      <c r="B193" s="64" t="s">
+      <c r="B193" s="61" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="16">
-      <c r="A194" s="69" t="s">
+      <c r="A194" s="64" t="s">
         <v>1571</v>
       </c>
-      <c r="B194" s="69" t="s">
+      <c r="B194" s="64" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="16">
-      <c r="A195" s="69" t="s">
+      <c r="A195" s="64" t="s">
         <v>1573</v>
       </c>
-      <c r="B195" s="69" t="s">
+      <c r="B195" s="64" t="s">
         <v>1425</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="16">
-      <c r="A196" s="69" t="s">
+      <c r="A196" s="64" t="s">
         <v>1574</v>
       </c>
-      <c r="B196" s="64" t="s">
+      <c r="B196" s="61" t="s">
         <v>1430</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="16">
-      <c r="A197" s="69" t="s">
+      <c r="A197" s="64" t="s">
         <v>1575</v>
       </c>
-      <c r="B197" s="69" t="s">
+      <c r="B197" s="64" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="16">
-      <c r="A198" s="69" t="s">
+      <c r="A198" s="64" t="s">
         <v>1576</v>
       </c>
-      <c r="B198" s="69" t="s">
+      <c r="B198" s="64" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="199" spans="1:2" s="68" customFormat="1" ht="16">
-      <c r="A199" s="67"/>
-      <c r="B199" s="67"/>
-    </row>
-    <row r="200" spans="1:2" s="68" customFormat="1" ht="16">
-      <c r="A200" s="69" t="s">
+    <row r="199" spans="1:2" ht="16">
+      <c r="A199" s="63"/>
+      <c r="B199" s="63"/>
+    </row>
+    <row r="200" spans="1:2" ht="16">
+      <c r="A200" s="64" t="s">
         <v>1577</v>
       </c>
-      <c r="B200" s="64" t="s">
+      <c r="B200" s="61" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="201" spans="1:2" s="68" customFormat="1" ht="16">
-      <c r="A201" s="69" t="s">
+    <row r="201" spans="1:2" ht="16">
+      <c r="A201" s="64" t="s">
         <v>1578</v>
       </c>
-      <c r="B201" s="69" t="s">
+      <c r="B201" s="64" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="16">
-      <c r="A202" s="69" t="s">
+      <c r="A202" s="64" t="s">
         <v>1579</v>
       </c>
-      <c r="B202" s="69" t="s">
+      <c r="B202" s="64" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="16">
-      <c r="A203" s="69" t="s">
+      <c r="A203" s="64" t="s">
         <v>1580</v>
       </c>
-      <c r="B203" s="64" t="s">
+      <c r="B203" s="61" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="16">
-      <c r="A204" s="69" t="s">
+      <c r="A204" s="64" t="s">
         <v>1581</v>
       </c>
-      <c r="B204" s="69" t="s">
+      <c r="B204" s="64" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="16">
-      <c r="A205" s="69" t="s">
+      <c r="A205" s="64" t="s">
         <v>1582</v>
       </c>
-      <c r="B205" s="69" t="s">
+      <c r="B205" s="64" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="16">
-      <c r="A206" s="69" t="s">
+      <c r="A206" s="64" t="s">
         <v>1583</v>
       </c>
-      <c r="B206" s="64" t="s">
+      <c r="B206" s="61" t="s">
         <v>1430</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="16">
-      <c r="A207" s="69" t="s">
+      <c r="A207" s="64" t="s">
         <v>1584</v>
       </c>
-      <c r="B207" s="69" t="s">
+      <c r="B207" s="64" t="s">
         <v>1419</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="16">
-      <c r="A208" s="69" t="s">
+      <c r="A208" s="64" t="s">
         <v>1585</v>
       </c>
-      <c r="B208" s="69" t="s">
+      <c r="B208" s="64" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="209" spans="1:2" s="68" customFormat="1" ht="16">
-      <c r="A209" s="67"/>
-      <c r="B209" s="67"/>
-    </row>
-    <row r="210" spans="1:2" s="68" customFormat="1" ht="16">
-      <c r="A210" s="69" t="s">
+    <row r="209" spans="1:2" ht="16">
+      <c r="A209" s="63"/>
+      <c r="B209" s="63"/>
+    </row>
+    <row r="210" spans="1:2" ht="16">
+      <c r="A210" s="64" t="s">
         <v>1586</v>
       </c>
-      <c r="B210" s="69" t="s">
+      <c r="B210" s="64" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="211" spans="1:2" s="68" customFormat="1" ht="16">
-      <c r="A211" s="69" t="s">
+    <row r="211" spans="1:2" ht="16">
+      <c r="A211" s="64" t="s">
         <v>1587</v>
       </c>
-      <c r="B211" s="69" t="s">
+      <c r="B211" s="64" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="16">
-      <c r="A212" s="69" t="s">
+      <c r="A212" s="64" t="s">
         <v>1588</v>
       </c>
-      <c r="B212" s="69" t="s">
+      <c r="B212" s="64" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="16">
-      <c r="A213" s="69" t="s">
+      <c r="A213" s="64" t="s">
         <v>1589</v>
       </c>
-      <c r="B213" s="69" t="s">
+      <c r="B213" s="64" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="16">
-      <c r="A214" s="69" t="s">
+      <c r="A214" s="64" t="s">
         <v>1590</v>
       </c>
-      <c r="B214" s="69" t="s">
+      <c r="B214" s="64" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="16">
-      <c r="A215" s="69" t="s">
+      <c r="A215" s="64" t="s">
         <v>1591</v>
       </c>
-      <c r="B215" s="69" t="s">
+      <c r="B215" s="64" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="16">
-      <c r="A216" s="69" t="s">
+      <c r="A216" s="64" t="s">
         <v>1592</v>
       </c>
-      <c r="B216" s="64" t="s">
+      <c r="B216" s="61" t="s">
         <v>1430</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="16">
-      <c r="A217" s="69" t="s">
+      <c r="A217" s="64" t="s">
         <v>1593</v>
       </c>
-      <c r="B217" s="69" t="s">
+      <c r="B217" s="64" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="16">
-      <c r="A218" s="69" t="s">
+      <c r="A218" s="64" t="s">
         <v>1594</v>
       </c>
-      <c r="B218" s="69" t="s">
+      <c r="B218" s="64" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="219" spans="1:2" s="68" customFormat="1" ht="16">
-      <c r="A219" s="63"/>
-      <c r="B219" s="63"/>
+    <row r="219" spans="1:2" ht="16">
+      <c r="A219" s="50"/>
+      <c r="B219" s="50"/>
     </row>
     <row r="220" spans="1:2" ht="16">
-      <c r="A220" s="63" t="s">
+      <c r="A220" s="50" t="s">
         <v>468</v>
       </c>
-      <c r="B220" s="63" t="s">
+      <c r="B220" s="50" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="16">
-      <c r="A221" s="63" t="s">
+      <c r="A221" s="50" t="s">
         <v>469</v>
       </c>
-      <c r="B221" s="63" t="s">
+      <c r="B221" s="50" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="16">
-      <c r="A222" s="63" t="s">
+      <c r="A222" s="50" t="s">
         <v>470</v>
       </c>
-      <c r="B222" s="63" t="s">
+      <c r="B222" s="50" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="16">
-      <c r="A223" s="63" t="s">
+      <c r="A223" s="50" t="s">
         <v>471</v>
       </c>
-      <c r="B223" s="63" t="s">
+      <c r="B223" s="50" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="16">
-      <c r="A224" s="63" t="s">
+      <c r="A224" s="50" t="s">
         <v>472</v>
       </c>
-      <c r="B224" s="63" t="s">
+      <c r="B224" s="50" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="16">
-      <c r="A225" s="63" t="s">
+      <c r="A225" s="50" t="s">
         <v>473</v>
       </c>
-      <c r="B225" s="63" t="s">
+      <c r="B225" s="50" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="16">
-      <c r="A226" s="63" t="s">
+      <c r="A226" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="B226" s="63" t="s">
+      <c r="B226" s="50" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="16">
-      <c r="A227" s="63"/>
-      <c r="B227" s="63"/>
+      <c r="A227" s="50"/>
+      <c r="B227" s="50"/>
     </row>
     <row r="228" spans="1:3" ht="16">
-      <c r="A228" s="63" t="s">
+      <c r="A228" s="50" t="s">
         <v>475</v>
       </c>
-      <c r="B228" s="63" t="s">
+      <c r="B228" s="50" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="16">
-      <c r="A229" s="67" t="s">
+      <c r="A229" s="63" t="s">
         <v>1405</v>
       </c>
-      <c r="B229" s="63" t="s">
+      <c r="B229" s="50" t="s">
         <v>1402</v>
       </c>
       <c r="C229" t="s">
@@ -25332,23 +25435,19 @@
       </c>
     </row>
     <row r="230" spans="1:3" ht="16">
-      <c r="A230" s="63"/>
-      <c r="B230" s="63"/>
+      <c r="A230" s="50"/>
+      <c r="B230" s="50"/>
     </row>
     <row r="231" spans="1:3" ht="16">
-      <c r="A231" s="63" t="s">
+      <c r="A231" s="50" t="s">
         <v>476</v>
       </c>
-      <c r="B231" s="66" t="s">
+      <c r="B231" s="53" t="s">
         <v>477</v>
       </c>
       <c r="C231" s="50" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="232" spans="1:3">
-      <c r="A232" s="68"/>
-      <c r="B232" s="68"/>
     </row>
     <row r="233" spans="1:3" ht="19">
       <c r="A233" s="11" t="s">
@@ -25357,662 +25456,662 @@
       <c r="B233" s="29"/>
     </row>
     <row r="234" spans="1:3" ht="16">
-      <c r="A234" s="69" t="s">
+      <c r="A234" s="64" t="s">
         <v>1595</v>
       </c>
-      <c r="B234" s="69" t="s">
+      <c r="B234" s="64" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="16">
-      <c r="A235" s="69" t="s">
+      <c r="A235" s="64" t="s">
         <v>1596</v>
       </c>
-      <c r="B235" s="69" t="s">
+      <c r="B235" s="64" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="16">
-      <c r="A236" s="69" t="s">
+      <c r="A236" s="64" t="s">
         <v>1597</v>
       </c>
-      <c r="B236" s="69" t="s">
+      <c r="B236" s="64" t="s">
         <v>1425</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="16">
-      <c r="A237" s="69" t="s">
+      <c r="A237" s="64" t="s">
         <v>1598</v>
       </c>
-      <c r="B237" s="69" t="s">
+      <c r="B237" s="64" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="16">
-      <c r="A238" s="69" t="s">
+      <c r="A238" s="64" t="s">
         <v>1599</v>
       </c>
-      <c r="B238" s="69" t="s">
+      <c r="B238" s="64" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="16">
-      <c r="A239" s="69" t="s">
+      <c r="A239" s="64" t="s">
         <v>1600</v>
       </c>
-      <c r="B239" s="69" t="s">
+      <c r="B239" s="64" t="s">
         <v>1425</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="16">
-      <c r="A240" s="69" t="s">
+      <c r="A240" s="64" t="s">
         <v>1601</v>
       </c>
-      <c r="B240" s="64" t="s">
+      <c r="B240" s="61" t="s">
         <v>1430</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="16">
-      <c r="A241" s="69" t="s">
+      <c r="A241" s="64" t="s">
         <v>1602</v>
       </c>
-      <c r="B241" s="69" t="s">
+      <c r="B241" s="64" t="s">
         <v>1419</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="16">
-      <c r="A242" s="69" t="s">
+      <c r="A242" s="64" t="s">
         <v>1603</v>
       </c>
-      <c r="B242" s="69" t="s">
+      <c r="B242" s="64" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="243" spans="1:2" s="68" customFormat="1" ht="16">
-      <c r="A243" s="67"/>
-      <c r="B243" s="67"/>
-    </row>
-    <row r="244" spans="1:2" s="68" customFormat="1" ht="16">
-      <c r="A244" s="69" t="s">
+    <row r="243" spans="1:2" ht="16">
+      <c r="A243" s="63"/>
+      <c r="B243" s="63"/>
+    </row>
+    <row r="244" spans="1:2" ht="16">
+      <c r="A244" s="64" t="s">
         <v>1613</v>
       </c>
-      <c r="B244" s="69" t="s">
+      <c r="B244" s="64" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="245" spans="1:2" s="68" customFormat="1" ht="16">
-      <c r="A245" s="69" t="s">
+    <row r="245" spans="1:2" ht="16">
+      <c r="A245" s="64" t="s">
         <v>1614</v>
       </c>
-      <c r="B245" s="69" t="s">
+      <c r="B245" s="64" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="16">
-      <c r="A246" s="69" t="s">
+      <c r="A246" s="64" t="s">
         <v>1615</v>
       </c>
-      <c r="B246" s="69" t="s">
+      <c r="B246" s="64" t="s">
         <v>1425</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="16">
-      <c r="A247" s="69" t="s">
+      <c r="A247" s="64" t="s">
         <v>1616</v>
       </c>
-      <c r="B247" s="69" t="s">
+      <c r="B247" s="64" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="16">
-      <c r="A248" s="69" t="s">
+      <c r="A248" s="64" t="s">
         <v>1617</v>
       </c>
-      <c r="B248" s="69" t="s">
+      <c r="B248" s="64" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="16">
-      <c r="A249" s="69" t="s">
+      <c r="A249" s="64" t="s">
         <v>1618</v>
       </c>
-      <c r="B249" s="69" t="s">
+      <c r="B249" s="64" t="s">
         <v>1425</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="16">
-      <c r="A250" s="69" t="s">
+      <c r="A250" s="64" t="s">
         <v>1619</v>
       </c>
-      <c r="B250" s="64" t="s">
+      <c r="B250" s="61" t="s">
         <v>1430</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="16">
-      <c r="A251" s="69" t="s">
+      <c r="A251" s="64" t="s">
         <v>1620</v>
       </c>
-      <c r="B251" s="69" t="s">
+      <c r="B251" s="64" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="16">
-      <c r="A252" s="69" t="s">
+      <c r="A252" s="64" t="s">
         <v>1621</v>
       </c>
-      <c r="B252" s="69" t="s">
+      <c r="B252" s="64" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="253" spans="1:2" s="68" customFormat="1" ht="16">
-      <c r="A253" s="67"/>
-      <c r="B253" s="67"/>
-    </row>
-    <row r="254" spans="1:2" s="68" customFormat="1" ht="16">
-      <c r="A254" s="69" t="s">
+    <row r="253" spans="1:2" ht="16">
+      <c r="A253" s="63"/>
+      <c r="B253" s="63"/>
+    </row>
+    <row r="254" spans="1:2" ht="16">
+      <c r="A254" s="64" t="s">
         <v>1622</v>
       </c>
-      <c r="B254" s="69" t="s">
+      <c r="B254" s="64" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="255" spans="1:2" s="68" customFormat="1" ht="16">
-      <c r="A255" s="69" t="s">
+    <row r="255" spans="1:2" ht="16">
+      <c r="A255" s="64" t="s">
         <v>1623</v>
       </c>
-      <c r="B255" s="69" t="s">
+      <c r="B255" s="64" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="16">
-      <c r="A256" s="69" t="s">
+      <c r="A256" s="64" t="s">
         <v>1624</v>
       </c>
-      <c r="B256" s="69" t="s">
+      <c r="B256" s="64" t="s">
         <v>1425</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="16">
-      <c r="A257" s="69" t="s">
+      <c r="A257" s="64" t="s">
         <v>1625</v>
       </c>
-      <c r="B257" s="69" t="s">
+      <c r="B257" s="64" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="16">
-      <c r="A258" s="69" t="s">
+      <c r="A258" s="64" t="s">
         <v>1626</v>
       </c>
-      <c r="B258" s="69" t="s">
+      <c r="B258" s="64" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="16">
-      <c r="A259" s="69" t="s">
+      <c r="A259" s="64" t="s">
         <v>1627</v>
       </c>
-      <c r="B259" s="69" t="s">
+      <c r="B259" s="64" t="s">
         <v>1425</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="16">
-      <c r="A260" s="69" t="s">
+      <c r="A260" s="64" t="s">
         <v>1628</v>
       </c>
-      <c r="B260" s="64" t="s">
+      <c r="B260" s="61" t="s">
         <v>1430</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="16">
-      <c r="A261" s="69" t="s">
+      <c r="A261" s="64" t="s">
         <v>1629</v>
       </c>
-      <c r="B261" s="69" t="s">
+      <c r="B261" s="64" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="16">
-      <c r="A262" s="69" t="s">
+      <c r="A262" s="64" t="s">
         <v>1630</v>
       </c>
-      <c r="B262" s="69" t="s">
+      <c r="B262" s="64" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="263" spans="1:2" s="68" customFormat="1" ht="16">
-      <c r="A263" s="67"/>
-      <c r="B263" s="67"/>
-    </row>
-    <row r="264" spans="1:2" s="68" customFormat="1" ht="16">
-      <c r="A264" s="69" t="s">
+    <row r="263" spans="1:2" ht="16">
+      <c r="A263" s="63"/>
+      <c r="B263" s="63"/>
+    </row>
+    <row r="264" spans="1:2" ht="16">
+      <c r="A264" s="64" t="s">
         <v>1631</v>
       </c>
-      <c r="B264" s="69" t="s">
+      <c r="B264" s="64" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="265" spans="1:2" s="68" customFormat="1" ht="16">
-      <c r="A265" s="69" t="s">
+    <row r="265" spans="1:2" ht="16">
+      <c r="A265" s="64" t="s">
         <v>1632</v>
       </c>
-      <c r="B265" s="69" t="s">
+      <c r="B265" s="64" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="16">
-      <c r="A266" s="69" t="s">
+      <c r="A266" s="64" t="s">
         <v>1633</v>
       </c>
-      <c r="B266" s="69" t="s">
+      <c r="B266" s="64" t="s">
         <v>1425</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="16">
-      <c r="A267" s="69" t="s">
+      <c r="A267" s="64" t="s">
         <v>1634</v>
       </c>
-      <c r="B267" s="69" t="s">
+      <c r="B267" s="64" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="16">
-      <c r="A268" s="69" t="s">
+      <c r="A268" s="64" t="s">
         <v>1635</v>
       </c>
-      <c r="B268" s="69" t="s">
+      <c r="B268" s="64" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="16">
-      <c r="A269" s="69" t="s">
+      <c r="A269" s="64" t="s">
         <v>1636</v>
       </c>
-      <c r="B269" s="69" t="s">
+      <c r="B269" s="64" t="s">
         <v>1425</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="16">
-      <c r="A270" s="69" t="s">
+      <c r="A270" s="64" t="s">
         <v>1637</v>
       </c>
-      <c r="B270" s="64" t="s">
+      <c r="B270" s="61" t="s">
         <v>1430</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="16">
-      <c r="A271" s="69" t="s">
+      <c r="A271" s="64" t="s">
         <v>1638</v>
       </c>
-      <c r="B271" s="69" t="s">
+      <c r="B271" s="64" t="s">
         <v>1419</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="16">
-      <c r="A272" s="69" t="s">
+      <c r="A272" s="64" t="s">
         <v>1639</v>
       </c>
-      <c r="B272" s="69" t="s">
+      <c r="B272" s="64" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="273" spans="1:2" s="68" customFormat="1" ht="16">
-      <c r="A273" s="67"/>
-      <c r="B273" s="67"/>
-    </row>
-    <row r="274" spans="1:2" s="68" customFormat="1" ht="16">
-      <c r="A274" s="69" t="s">
+    <row r="273" spans="1:2" ht="16">
+      <c r="A273" s="63"/>
+      <c r="B273" s="63"/>
+    </row>
+    <row r="274" spans="1:2" ht="16">
+      <c r="A274" s="64" t="s">
         <v>1640</v>
       </c>
-      <c r="B274" s="69" t="s">
+      <c r="B274" s="64" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="275" spans="1:2" s="68" customFormat="1" ht="16">
-      <c r="A275" s="69" t="s">
+    <row r="275" spans="1:2" ht="16">
+      <c r="A275" s="64" t="s">
         <v>1641</v>
       </c>
-      <c r="B275" s="69" t="s">
+      <c r="B275" s="64" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="16">
-      <c r="A276" s="69" t="s">
+      <c r="A276" s="64" t="s">
         <v>1642</v>
       </c>
-      <c r="B276" s="69" t="s">
+      <c r="B276" s="64" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="16">
-      <c r="A277" s="69" t="s">
+      <c r="A277" s="64" t="s">
         <v>1643</v>
       </c>
-      <c r="B277" s="69" t="s">
+      <c r="B277" s="64" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="16">
-      <c r="A278" s="69" t="s">
+      <c r="A278" s="64" t="s">
         <v>1644</v>
       </c>
-      <c r="B278" s="69" t="s">
+      <c r="B278" s="64" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="16">
-      <c r="A279" s="69" t="s">
+      <c r="A279" s="64" t="s">
         <v>1645</v>
       </c>
-      <c r="B279" s="69" t="s">
+      <c r="B279" s="64" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="16">
-      <c r="A280" s="69" t="s">
+      <c r="A280" s="64" t="s">
         <v>1646</v>
       </c>
-      <c r="B280" s="64" t="s">
+      <c r="B280" s="61" t="s">
         <v>1430</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="16">
-      <c r="A281" s="69" t="s">
+      <c r="A281" s="64" t="s">
         <v>1647</v>
       </c>
-      <c r="B281" s="69" t="s">
+      <c r="B281" s="64" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="16">
-      <c r="A282" s="69" t="s">
+      <c r="A282" s="64" t="s">
         <v>1648</v>
       </c>
-      <c r="B282" s="69" t="s">
+      <c r="B282" s="64" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="283" spans="1:2" s="68" customFormat="1" ht="16">
-      <c r="A283" s="67"/>
-      <c r="B283" s="67"/>
-    </row>
-    <row r="284" spans="1:2" s="68" customFormat="1" ht="16">
-      <c r="A284" s="69" t="s">
+    <row r="283" spans="1:2" ht="16">
+      <c r="A283" s="63"/>
+      <c r="B283" s="63"/>
+    </row>
+    <row r="284" spans="1:2" ht="16">
+      <c r="A284" s="64" t="s">
         <v>1650</v>
       </c>
-      <c r="B284" s="69" t="s">
+      <c r="B284" s="64" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="285" spans="1:2" s="68" customFormat="1" ht="16">
-      <c r="A285" s="69" t="s">
+    <row r="285" spans="1:2" ht="16">
+      <c r="A285" s="64" t="s">
         <v>1651</v>
       </c>
-      <c r="B285" s="69" t="s">
+      <c r="B285" s="64" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="16">
-      <c r="A286" s="69" t="s">
+      <c r="A286" s="64" t="s">
         <v>1653</v>
       </c>
-      <c r="B286" s="69" t="s">
+      <c r="B286" s="64" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="16">
-      <c r="A287" s="69" t="s">
+      <c r="A287" s="64" t="s">
         <v>1649</v>
       </c>
-      <c r="B287" s="69" t="s">
+      <c r="B287" s="64" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="16">
-      <c r="A288" s="69" t="s">
+      <c r="A288" s="64" t="s">
         <v>1652</v>
       </c>
-      <c r="B288" s="69" t="s">
+      <c r="B288" s="64" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="16">
-      <c r="A289" s="69" t="s">
+      <c r="A289" s="64" t="s">
         <v>1654</v>
       </c>
-      <c r="B289" s="69" t="s">
+      <c r="B289" s="64" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="16">
-      <c r="A290" s="69" t="s">
+      <c r="A290" s="64" t="s">
         <v>1663</v>
       </c>
-      <c r="B290" s="64" t="s">
+      <c r="B290" s="61" t="s">
         <v>1430</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="16">
-      <c r="A291" s="69" t="s">
+      <c r="A291" s="64" t="s">
         <v>1662</v>
       </c>
-      <c r="B291" s="69" t="s">
+      <c r="B291" s="64" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="16">
-      <c r="A292" s="69" t="s">
+      <c r="A292" s="64" t="s">
         <v>1655</v>
       </c>
-      <c r="B292" s="69" t="s">
+      <c r="B292" s="64" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="293" spans="1:2" s="68" customFormat="1" ht="16">
-      <c r="A293" s="67"/>
-      <c r="B293" s="67"/>
+    <row r="293" spans="1:2" ht="16">
+      <c r="A293" s="63"/>
+      <c r="B293" s="63"/>
     </row>
     <row r="294" spans="1:2" ht="16">
-      <c r="A294" s="69" t="s">
+      <c r="A294" s="64" t="s">
         <v>1664</v>
       </c>
-      <c r="B294" s="69" t="s">
+      <c r="B294" s="64" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="16">
-      <c r="A295" s="69" t="s">
+      <c r="A295" s="64" t="s">
         <v>1659</v>
       </c>
-      <c r="B295" s="69" t="s">
+      <c r="B295" s="64" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="16">
-      <c r="A296" s="69" t="s">
+      <c r="A296" s="64" t="s">
         <v>1656</v>
       </c>
-      <c r="B296" s="69" t="s">
+      <c r="B296" s="64" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="16">
-      <c r="A297" s="69" t="s">
+      <c r="A297" s="64" t="s">
         <v>1665</v>
       </c>
-      <c r="B297" s="69" t="s">
+      <c r="B297" s="64" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="16">
-      <c r="A298" s="69" t="s">
+      <c r="A298" s="64" t="s">
         <v>1660</v>
       </c>
-      <c r="B298" s="69" t="s">
+      <c r="B298" s="64" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="16">
-      <c r="A299" s="69" t="s">
+      <c r="A299" s="64" t="s">
         <v>1657</v>
       </c>
-      <c r="B299" s="69" t="s">
+      <c r="B299" s="64" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="16">
-      <c r="A300" s="69" t="s">
+      <c r="A300" s="64" t="s">
         <v>1666</v>
       </c>
-      <c r="B300" s="64" t="s">
+      <c r="B300" s="61" t="s">
         <v>1430</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="16">
-      <c r="A301" s="69" t="s">
+      <c r="A301" s="64" t="s">
         <v>1661</v>
       </c>
-      <c r="B301" s="69" t="s">
+      <c r="B301" s="64" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="16">
-      <c r="A302" s="69" t="s">
+      <c r="A302" s="64" t="s">
         <v>1658</v>
       </c>
-      <c r="B302" s="69" t="s">
+      <c r="B302" s="64" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="303" spans="1:2" s="68" customFormat="1" ht="16">
-      <c r="A303" s="67"/>
-      <c r="B303" s="67"/>
-    </row>
-    <row r="304" spans="1:2" s="68" customFormat="1" ht="16">
-      <c r="A304" s="69" t="s">
+    <row r="303" spans="1:2" ht="16">
+      <c r="A303" s="63"/>
+      <c r="B303" s="63"/>
+    </row>
+    <row r="304" spans="1:2" ht="16">
+      <c r="A304" s="64" t="s">
         <v>1604</v>
       </c>
-      <c r="B304" s="69" t="s">
+      <c r="B304" s="64" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="305" spans="1:3" s="68" customFormat="1" ht="16">
-      <c r="A305" s="69" t="s">
+    <row r="305" spans="1:3" ht="16">
+      <c r="A305" s="64" t="s">
         <v>1605</v>
       </c>
-      <c r="B305" s="69" t="s">
+      <c r="B305" s="64" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="16">
-      <c r="A306" s="69" t="s">
+      <c r="A306" s="64" t="s">
         <v>1606</v>
       </c>
-      <c r="B306" s="69" t="s">
+      <c r="B306" s="64" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="16">
-      <c r="A307" s="69" t="s">
+      <c r="A307" s="64" t="s">
         <v>1607</v>
       </c>
-      <c r="B307" s="69" t="s">
+      <c r="B307" s="64" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="16">
-      <c r="A308" s="69" t="s">
+      <c r="A308" s="64" t="s">
         <v>1608</v>
       </c>
-      <c r="B308" s="69" t="s">
+      <c r="B308" s="64" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="16">
-      <c r="A309" s="69" t="s">
+      <c r="A309" s="64" t="s">
         <v>1609</v>
       </c>
-      <c r="B309" s="69" t="s">
+      <c r="B309" s="64" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="16">
-      <c r="A310" s="69" t="s">
+      <c r="A310" s="64" t="s">
         <v>1611</v>
       </c>
-      <c r="B310" s="64" t="s">
+      <c r="B310" s="61" t="s">
         <v>1430</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="16">
-      <c r="A311" s="69" t="s">
+      <c r="A311" s="64" t="s">
         <v>1610</v>
       </c>
-      <c r="B311" s="69" t="s">
+      <c r="B311" s="64" t="s">
         <v>1419</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="16">
-      <c r="A312" s="69" t="s">
+      <c r="A312" s="64" t="s">
         <v>1612</v>
       </c>
-      <c r="B312" s="69" t="s">
+      <c r="B312" s="64" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="313" spans="1:3" s="68" customFormat="1" ht="16">
-      <c r="A313" s="63"/>
-      <c r="B313" s="63"/>
+    <row r="313" spans="1:3" ht="16">
+      <c r="A313" s="50"/>
+      <c r="B313" s="50"/>
     </row>
     <row r="314" spans="1:3" ht="16">
-      <c r="A314" s="63" t="s">
+      <c r="A314" s="50" t="s">
         <v>480</v>
       </c>
-      <c r="B314" s="63" t="s">
+      <c r="B314" s="50" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="16">
-      <c r="A315" s="63" t="s">
+      <c r="A315" s="50" t="s">
         <v>481</v>
       </c>
-      <c r="B315" s="63" t="s">
+      <c r="B315" s="50" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="16">
-      <c r="A316" s="63" t="s">
+      <c r="A316" s="50" t="s">
         <v>482</v>
       </c>
-      <c r="B316" s="63" t="s">
+      <c r="B316" s="50" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="16">
-      <c r="A317" s="63" t="s">
+      <c r="A317" s="50" t="s">
         <v>483</v>
       </c>
-      <c r="B317" s="63" t="s">
+      <c r="B317" s="50" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="16">
-      <c r="A318" s="63"/>
-      <c r="B318" s="63"/>
+      <c r="A318" s="50"/>
+      <c r="B318" s="50"/>
     </row>
     <row r="319" spans="1:3" ht="16">
-      <c r="A319" s="63" t="s">
+      <c r="A319" s="50" t="s">
         <v>484</v>
       </c>
-      <c r="B319" s="63" t="s">
+      <c r="B319" s="50" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="16">
-      <c r="A320" s="67" t="s">
+      <c r="A320" s="63" t="s">
         <v>1406</v>
       </c>
-      <c r="B320" s="63" t="s">
+      <c r="B320" s="50" t="s">
         <v>1400</v>
       </c>
       <c r="C320" t="s">
@@ -26020,14 +26119,14 @@
       </c>
     </row>
     <row r="321" spans="1:3" ht="16">
-      <c r="A321" s="63"/>
-      <c r="B321" s="63"/>
+      <c r="A321" s="50"/>
+      <c r="B321" s="50"/>
     </row>
     <row r="322" spans="1:3" ht="16">
-      <c r="A322" s="63" t="s">
+      <c r="A322" s="50" t="s">
         <v>485</v>
       </c>
-      <c r="B322" s="66" t="s">
+      <c r="B322" s="53" t="s">
         <v>462</v>
       </c>
       <c r="C322" s="50" t="s">
@@ -26035,10 +26134,10 @@
       </c>
     </row>
     <row r="323" spans="1:3" ht="16">
-      <c r="A323" s="63" t="s">
+      <c r="A323" s="50" t="s">
         <v>486</v>
       </c>
-      <c r="B323" s="66" t="s">
+      <c r="B323" s="53" t="s">
         <v>465</v>
       </c>
       <c r="C323" s="50" t="s">
@@ -26046,20 +26145,16 @@
       </c>
     </row>
     <row r="324" spans="1:3" ht="16">
-      <c r="A324" s="63"/>
-      <c r="B324" s="63"/>
+      <c r="A324" s="50"/>
+      <c r="B324" s="50"/>
     </row>
     <row r="325" spans="1:3" ht="16">
-      <c r="A325" s="63" t="s">
+      <c r="A325" s="50" t="s">
         <v>487</v>
       </c>
-      <c r="B325" s="63" t="s">
+      <c r="B325" s="50" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="326" spans="1:3">
-      <c r="A326" s="68"/>
-      <c r="B326" s="68"/>
     </row>
     <row r="327" spans="1:3" ht="19">
       <c r="A327" s="11" t="s">
@@ -26068,270 +26163,270 @@
       <c r="B327" s="29"/>
     </row>
     <row r="328" spans="1:3" ht="16">
-      <c r="A328" s="69" t="s">
+      <c r="A328" s="64" t="s">
         <v>1499</v>
       </c>
-      <c r="B328" s="63" t="s">
+      <c r="B328" s="50" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="16">
-      <c r="A329" s="69" t="s">
+      <c r="A329" s="64" t="s">
         <v>1500</v>
       </c>
-      <c r="B329" s="69" t="s">
+      <c r="B329" s="64" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="16">
-      <c r="A330" s="69" t="s">
+      <c r="A330" s="64" t="s">
         <v>1501</v>
       </c>
-      <c r="B330" s="69" t="s">
+      <c r="B330" s="64" t="s">
         <v>1425</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="16">
-      <c r="A331" s="69" t="s">
+      <c r="A331" s="64" t="s">
         <v>1502</v>
       </c>
-      <c r="B331" s="63" t="s">
+      <c r="B331" s="50" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="16">
-      <c r="A332" s="69" t="s">
+      <c r="A332" s="64" t="s">
         <v>1503</v>
       </c>
-      <c r="B332" s="69" t="s">
+      <c r="B332" s="64" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="16">
-      <c r="A333" s="69" t="s">
+      <c r="A333" s="64" t="s">
         <v>1504</v>
       </c>
-      <c r="B333" s="69" t="s">
+      <c r="B333" s="64" t="s">
         <v>1425</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="16">
-      <c r="A334" s="67"/>
-      <c r="B334" s="67"/>
+      <c r="A334" s="63"/>
+      <c r="B334" s="63"/>
     </row>
     <row r="335" spans="1:3" ht="16">
-      <c r="A335" s="69" t="s">
+      <c r="A335" s="64" t="s">
         <v>1505</v>
       </c>
-      <c r="B335" s="63" t="s">
+      <c r="B335" s="50" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="16">
-      <c r="A336" s="69" t="s">
+      <c r="A336" s="64" t="s">
         <v>1506</v>
       </c>
-      <c r="B336" s="69" t="s">
+      <c r="B336" s="64" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="16">
-      <c r="A337" s="69" t="s">
+      <c r="A337" s="64" t="s">
         <v>1507</v>
       </c>
-      <c r="B337" s="69" t="s">
+      <c r="B337" s="64" t="s">
         <v>1425</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="16">
-      <c r="A338" s="69" t="s">
+      <c r="A338" s="64" t="s">
         <v>1508</v>
       </c>
-      <c r="B338" s="63" t="s">
+      <c r="B338" s="50" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="16">
-      <c r="A339" s="69" t="s">
+      <c r="A339" s="64" t="s">
         <v>1509</v>
       </c>
-      <c r="B339" s="69" t="s">
+      <c r="B339" s="64" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="16">
-      <c r="A340" s="69" t="s">
+      <c r="A340" s="64" t="s">
         <v>1510</v>
       </c>
-      <c r="B340" s="69" t="s">
+      <c r="B340" s="64" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="341" spans="1:2" s="68" customFormat="1" ht="16">
-      <c r="A341" s="67"/>
-      <c r="B341" s="67"/>
+    <row r="341" spans="1:2" ht="16">
+      <c r="A341" s="63"/>
+      <c r="B341" s="63"/>
     </row>
     <row r="342" spans="1:2" ht="16">
-      <c r="A342" s="69" t="s">
+      <c r="A342" s="64" t="s">
         <v>1511</v>
       </c>
-      <c r="B342" s="63" t="s">
+      <c r="B342" s="50" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="16">
-      <c r="A343" s="69" t="s">
+      <c r="A343" s="64" t="s">
         <v>1512</v>
       </c>
-      <c r="B343" s="69" t="s">
+      <c r="B343" s="64" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="16">
-      <c r="A344" s="69" t="s">
+      <c r="A344" s="64" t="s">
         <v>1513</v>
       </c>
-      <c r="B344" s="69" t="s">
+      <c r="B344" s="64" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="16">
-      <c r="A345" s="69" t="s">
+      <c r="A345" s="64" t="s">
         <v>1514</v>
       </c>
-      <c r="B345" s="63" t="s">
+      <c r="B345" s="50" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="16">
-      <c r="A346" s="69" t="s">
+      <c r="A346" s="64" t="s">
         <v>1515</v>
       </c>
-      <c r="B346" s="69" t="s">
+      <c r="B346" s="64" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="16">
-      <c r="A347" s="69" t="s">
+      <c r="A347" s="64" t="s">
         <v>1516</v>
       </c>
-      <c r="B347" s="69" t="s">
+      <c r="B347" s="64" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="348" spans="1:2" s="68" customFormat="1" ht="16">
-      <c r="A348" s="67"/>
-      <c r="B348" s="67"/>
-    </row>
-    <row r="349" spans="1:2" s="68" customFormat="1" ht="16">
-      <c r="A349" s="69" t="s">
+    <row r="348" spans="1:2" ht="16">
+      <c r="A348" s="63"/>
+      <c r="B348" s="63"/>
+    </row>
+    <row r="349" spans="1:2" ht="16">
+      <c r="A349" s="64" t="s">
         <v>1517</v>
       </c>
-      <c r="B349" s="63" t="s">
+      <c r="B349" s="50" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="350" spans="1:2" s="68" customFormat="1" ht="16">
-      <c r="A350" s="69" t="s">
+    <row r="350" spans="1:2" ht="16">
+      <c r="A350" s="64" t="s">
         <v>1518</v>
       </c>
-      <c r="B350" s="69" t="s">
+      <c r="B350" s="64" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="16">
-      <c r="A351" s="69" t="s">
+      <c r="A351" s="64" t="s">
         <v>1519</v>
       </c>
-      <c r="B351" s="69" t="s">
+      <c r="B351" s="64" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="16">
-      <c r="A352" s="69" t="s">
+      <c r="A352" s="64" t="s">
         <v>1520</v>
       </c>
-      <c r="B352" s="63" t="s">
+      <c r="B352" s="50" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="16">
-      <c r="A353" s="69" t="s">
+      <c r="A353" s="64" t="s">
         <v>1521</v>
       </c>
-      <c r="B353" s="69" t="s">
+      <c r="B353" s="64" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="16">
-      <c r="A354" s="69" t="s">
+      <c r="A354" s="64" t="s">
         <v>1522</v>
       </c>
-      <c r="B354" s="69" t="s">
+      <c r="B354" s="64" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="355" spans="1:3" s="68" customFormat="1" ht="16">
-      <c r="A355" s="63"/>
-      <c r="B355" s="63"/>
+    <row r="355" spans="1:3" ht="16">
+      <c r="A355" s="50"/>
+      <c r="B355" s="50"/>
     </row>
     <row r="356" spans="1:3" ht="16">
-      <c r="A356" s="63" t="s">
+      <c r="A356" s="50" t="s">
         <v>490</v>
       </c>
-      <c r="B356" s="63" t="s">
+      <c r="B356" s="50" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="16">
-      <c r="A357" s="63" t="s">
+      <c r="A357" s="50" t="s">
         <v>491</v>
       </c>
-      <c r="B357" s="63" t="s">
+      <c r="B357" s="50" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="16">
-      <c r="A358" s="63" t="s">
+      <c r="A358" s="50" t="s">
         <v>492</v>
       </c>
-      <c r="B358" s="63" t="s">
+      <c r="B358" s="50" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="16">
-      <c r="A359" s="63" t="s">
+      <c r="A359" s="50" t="s">
         <v>493</v>
       </c>
-      <c r="B359" s="63" t="s">
+      <c r="B359" s="50" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="16">
-      <c r="A360" s="63" t="s">
+      <c r="A360" s="50" t="s">
         <v>494</v>
       </c>
-      <c r="B360" s="63" t="s">
+      <c r="B360" s="50" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="16">
-      <c r="A361" s="63"/>
-      <c r="B361" s="63"/>
+      <c r="A361" s="50"/>
+      <c r="B361" s="50"/>
     </row>
     <row r="362" spans="1:3" ht="16">
-      <c r="A362" s="63" t="s">
+      <c r="A362" s="50" t="s">
         <v>495</v>
       </c>
-      <c r="B362" s="63" t="s">
+      <c r="B362" s="50" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="16">
-      <c r="A363" s="67" t="s">
+      <c r="A363" s="63" t="s">
         <v>1407</v>
       </c>
-      <c r="B363" s="67" t="s">
+      <c r="B363" s="63" t="s">
         <v>1402</v>
       </c>
       <c r="C363" t="s">
@@ -26345,34 +26440,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="8ee4a0ce-e9c8-448f-95e8-0be97c8ae141">
-      <UserInfo>
-        <DisplayName>Erik Holley</DisplayName>
-        <AccountId>66</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Ben Farrell</DisplayName>
-        <AccountId>225</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A61085A9324F1740B616687CB3FC2029" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ce3756ada184f704d0854d959931df14">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52308ad5-aa2d-4701-bd11-5edd481a7970" xmlns:ns3="8ee4a0ce-e9c8-448f-95e8-0be97c8ae141" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95e8aa03c1379342797f89a929b281f5" ns2:_="" ns3:_="">
     <xsd:import namespace="52308ad5-aa2d-4701-bd11-5edd481a7970"/>
@@ -26569,32 +26636,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{905EC822-C85D-4815-A526-0083FD207757}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="8ee4a0ce-e9c8-448f-95e8-0be97c8ae141"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="52308ad5-aa2d-4701-bd11-5edd481a7970"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3764340F-59F8-4D85-9AA3-1B570AA4ED86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="8ee4a0ce-e9c8-448f-95e8-0be97c8ae141">
+      <UserInfo>
+        <DisplayName>Erik Holley</DisplayName>
+        <AccountId>66</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Ben Farrell</DisplayName>
+        <AccountId>225</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64F03121-E4E0-4263-9030-E026269D024A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26611,4 +26681,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3764340F-59F8-4D85-9AA3-1B570AA4ED86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{905EC822-C85D-4815-A526-0083FD207757}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="8ee4a0ce-e9c8-448f-95e8-0be97c8ae141"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52308ad5-aa2d-4701-bd11-5edd481a7970"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/spec-tokens.xlsx
+++ b/spec-tokens.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garthdb/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garthdb/Spectrum/spectrum-tokens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1D3CE20-8679-D94D-83D6-67E8BBA2AD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49245AF8-827A-C34E-9BB8-C4C1BFA1BF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13200" yWindow="1820" windowWidth="21360" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11180" yWindow="520" windowWidth="36140" windowHeight="21880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Layout" sheetId="1" r:id="rId1"/>
@@ -2424,18 +2424,18 @@
     <t>red-500</t>
   </si>
   <si>
-    <t>#FF9B88 (light)_x000D_
-#D71913 (dark)_x000D_
-#C40706 (darkest)_x000D_
+    <t>#FF9B88 (light)
+#D71913 (dark)
+#C40706 (darkest)
 #D8E1F4 (wireframe)</t>
   </si>
   <si>
     <t>red-600</t>
   </si>
   <si>
-    <t>#FF7C65 (light)_x000D_
-#EA3829 (dark)_x000D_
-#DD2118 (darkest)_x000D_
+    <t>#FF7C65 (light)
+#EA3829 (dark)
+#DD2118 (darkest)
 #CBD7F1 (wireframe)</t>
   </si>
   <si>
@@ -2460,9 +2460,9 @@
     <t>red-900</t>
   </si>
   <si>
-    <t>#D31510 (light)_x000D_
-#FF9581 (dark)_x000D_
-#FF816B (darkest)_x000D_
+    <t>#D31510 (light)
+#FF9581 (dark)
+#FF816B (darkest)
 #9AB1E3 (wireframe)</t>
   </si>
   <si>
@@ -6760,9 +6760,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A114" sqref="A114"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B249" sqref="B249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10296,9 +10296,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2BE219-7E9B-451A-BD2E-F86DF4EBA445}">
   <dimension ref="A1:I362"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A351" sqref="A351:D351"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A324" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A344" sqref="A344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16116,9 +16116,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8729FF3C-6D27-4452-8072-323C67F98C75}">
   <dimension ref="A1:G232"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A97" sqref="A97"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19171,7 +19171,7 @@
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -20484,8 +20484,8 @@
   <dimension ref="A1:G144"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A84" sqref="A82:A84"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -28466,12 +28466,22 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="8ee4a0ce-e9c8-448f-95e8-0be97c8ae141">
+      <UserInfo>
+        <DisplayName>Erik Holley</DisplayName>
+        <AccountId>66</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Ben Farrell</DisplayName>
+        <AccountId>225</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28672,28 +28682,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="8ee4a0ce-e9c8-448f-95e8-0be97c8ae141">
-      <UserInfo>
-        <DisplayName>Erik Holley</DisplayName>
-        <AccountId>66</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Ben Farrell</DisplayName>
-        <AccountId>225</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3764340F-59F8-4D85-9AA3-1B570AA4ED86}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{905EC822-C85D-4815-A526-0083FD207757}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="52308ad5-aa2d-4701-bd11-5edd481a7970"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8ee4a0ce-e9c8-448f-95e8-0be97c8ae141"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -28718,18 +28727,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{905EC822-C85D-4815-A526-0083FD207757}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3764340F-59F8-4D85-9AA3-1B570AA4ED86}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="52308ad5-aa2d-4701-bd11-5edd481a7970"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8ee4a0ce-e9c8-448f-95e8-0be97c8ae141"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/spec-tokens.xlsx
+++ b/spec-tokens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garthdb/Spectrum/spectrum-tokens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E12E31E8-D78A-B44C-A147-47DC8727BC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C995405E-464B-544F-9FB8-E5B2BEFC5AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8020" yWindow="500" windowWidth="43180" windowHeight="28300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3320" yWindow="500" windowWidth="43800" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Layout" sheetId="1" r:id="rId1"/>
@@ -2025,32 +2025,16 @@
     <t>color-loupe-height</t>
   </si>
   <si>
-    <t>64 px (Spectrum, desktop)
-40 px (Express, desktop)</t>
-  </si>
-  <si>
     <t>color-loupe-width</t>
   </si>
   <si>
-    <t>48 px (Spectrum, desktop)
-32 px (Express, desktop)</t>
-  </si>
-  <si>
     <t>color-loupe-bottom-to-color-handle</t>
   </si>
   <si>
-    <t>12 px (Spectrum, desktop)
-6 px (Express, desktop)</t>
-  </si>
-  <si>
     <t>color-loupe-outer-border-width</t>
   </si>
   <si>
     <t>color-loupe-inner-border-width</t>
-  </si>
-  <si>
-    <t>border-width-200 (Spectrum, desktop)
-3 px (Express, desktop)</t>
   </si>
   <si>
     <t>Cards</t>
@@ -6049,15 +6033,38 @@
 #004DA3 (dark)
 #004087 (darkest)
 #E9EEF8 (wireframe)</t>
+  </si>
+  <si>
+    <t>64 px (Spectrum / desktop)
+40 px (Express / desktop)</t>
+  </si>
+  <si>
+    <t>48 px (Spectrum / desktop)
+32 px (Express / desktop)</t>
+  </si>
+  <si>
+    <t>12 px (Spectrum / desktop)
+6 px (Express / desktop)</t>
+  </si>
+  <si>
+    <t>border-width-200 (Spectrum / desktop)
+3 px (Express / desktop)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -6281,41 +6288,38 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6327,132 +6331,138 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10314,7 +10324,7 @@
       <c r="I185" s="43"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F159" r:id="rId1" xr:uid="{E0B74BCF-941C-4091-92A3-D60AD28A5E37}"/>
   </hyperlinks>
@@ -10327,9 +10337,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2BE219-7E9B-451A-BD2E-F86DF4EBA445}">
   <dimension ref="A1:I363"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A354" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C361" sqref="C361"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B358" sqref="B358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16155,8 +16165,8 @@
       <c r="A353" s="43" t="s">
         <v>593</v>
       </c>
-      <c r="B353" s="44" t="s">
-        <v>594</v>
+      <c r="B353" s="59" t="s">
+        <v>1669</v>
       </c>
       <c r="C353" s="45">
         <v>44943</v>
@@ -16172,10 +16182,10 @@
     </row>
     <row r="354" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A354" s="43" t="s">
-        <v>595</v>
-      </c>
-      <c r="B354" s="44" t="s">
-        <v>596</v>
+        <v>594</v>
+      </c>
+      <c r="B354" s="59" t="s">
+        <v>1670</v>
       </c>
       <c r="C354" s="45">
         <v>44943</v>
@@ -16191,10 +16201,10 @@
     </row>
     <row r="355" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A355" s="43" t="s">
-        <v>597</v>
-      </c>
-      <c r="B355" s="44" t="s">
-        <v>598</v>
+        <v>595</v>
+      </c>
+      <c r="B355" s="59" t="s">
+        <v>1671</v>
       </c>
       <c r="C355" s="45">
         <v>44943</v>
@@ -16210,7 +16220,7 @@
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A356" s="43" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B356" s="43" t="s">
         <v>90</v>
@@ -16229,10 +16239,10 @@
     </row>
     <row r="357" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A357" s="43" t="s">
-        <v>600</v>
-      </c>
-      <c r="B357" s="44" t="s">
-        <v>601</v>
+        <v>597</v>
+      </c>
+      <c r="B357" s="59" t="s">
+        <v>1672</v>
       </c>
       <c r="C357" s="45">
         <v>44943</v>
@@ -16248,7 +16258,7 @@
     </row>
     <row r="358" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A358" s="10" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B358" s="10"/>
       <c r="C358" s="10"/>
@@ -16261,10 +16271,10 @@
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A359" s="43" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B359" s="43" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C359" s="5">
         <v>44946</v>
@@ -16280,10 +16290,10 @@
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A360" s="43" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B360" s="43" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C360" s="5">
         <v>44946</v>
@@ -16299,7 +16309,7 @@
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A361" s="43" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B361" s="43" t="s">
         <v>50</v>
@@ -16396,10 +16406,10 @@
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C3" s="5">
         <v>44635</v>
@@ -16422,10 +16432,10 @@
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C5" s="5">
         <v>44770</v>
@@ -16440,10 +16450,10 @@
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C6" s="5">
         <v>44635</v>
@@ -16458,10 +16468,10 @@
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C7" s="5">
         <v>44635</v>
@@ -16476,10 +16486,10 @@
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C8" s="5">
         <v>44635</v>
@@ -16494,10 +16504,10 @@
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C9" s="5">
         <v>44635</v>
@@ -16512,10 +16522,10 @@
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C10" s="5">
         <v>44635</v>
@@ -16530,10 +16540,10 @@
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C11" s="5">
         <v>44635</v>
@@ -16548,10 +16558,10 @@
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C12" s="5">
         <v>44635</v>
@@ -16566,10 +16576,10 @@
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C13" s="5">
         <v>44635</v>
@@ -16588,10 +16598,10 @@
     </row>
     <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C15" s="5">
         <v>44635</v>
@@ -16614,10 +16624,10 @@
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C17" s="5">
         <v>44770</v>
@@ -16632,10 +16642,10 @@
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C18" s="5">
         <v>44635</v>
@@ -16650,10 +16660,10 @@
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C19" s="5">
         <v>44635</v>
@@ -16668,10 +16678,10 @@
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C20" s="5">
         <v>44635</v>
@@ -16686,10 +16696,10 @@
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C21" s="5">
         <v>44635</v>
@@ -16704,10 +16714,10 @@
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C22" s="5">
         <v>44635</v>
@@ -16722,10 +16732,10 @@
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C23" s="5">
         <v>44635</v>
@@ -16740,10 +16750,10 @@
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C24" s="5">
         <v>44635</v>
@@ -16758,10 +16768,10 @@
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C25" s="5">
         <v>44635</v>
@@ -16780,10 +16790,10 @@
     </row>
     <row r="27" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C27" s="5">
         <v>44648</v>
@@ -16795,15 +16805,15 @@
         <v>10</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C28" s="5">
         <v>44648</v>
@@ -16815,15 +16825,15 @@
         <v>10</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C29" s="5">
         <v>44648</v>
@@ -16835,15 +16845,15 @@
         <v>10</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C30" s="5">
         <v>44648</v>
@@ -16855,15 +16865,15 @@
         <v>10</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C31" s="5">
         <v>44648</v>
@@ -16875,15 +16885,15 @@
         <v>10</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C32" s="5">
         <v>44648</v>
@@ -16895,15 +16905,15 @@
         <v>10</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C33" s="5">
         <v>44648</v>
@@ -16915,15 +16925,15 @@
         <v>10</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C34" s="5">
         <v>44648</v>
@@ -16935,15 +16945,15 @@
         <v>10</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C35" s="5">
         <v>44648</v>
@@ -16955,15 +16965,15 @@
         <v>10</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C36" s="5">
         <v>44648</v>
@@ -16975,15 +16985,15 @@
         <v>10</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C37" s="5">
         <v>44648</v>
@@ -16995,7 +17005,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -17006,10 +17016,10 @@
     </row>
     <row r="39" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C39" s="18">
         <v>44648</v>
@@ -17021,15 +17031,15 @@
         <v>10</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C40" s="18">
         <v>44648</v>
@@ -17041,15 +17051,15 @@
         <v>10</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="C41" s="18">
         <v>44648</v>
@@ -17061,15 +17071,15 @@
         <v>10</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C42" s="18">
         <v>44648</v>
@@ -17081,15 +17091,15 @@
         <v>10</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C43" s="18">
         <v>44648</v>
@@ -17101,15 +17111,15 @@
         <v>10</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C44" s="18">
         <v>44648</v>
@@ -17121,15 +17131,15 @@
         <v>10</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C45" s="18">
         <v>44648</v>
@@ -17141,15 +17151,15 @@
         <v>10</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C46" s="18">
         <v>44648</v>
@@ -17161,15 +17171,15 @@
         <v>10</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C47" s="18">
         <v>44648</v>
@@ -17181,15 +17191,15 @@
         <v>10</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C48" s="18">
         <v>44648</v>
@@ -17201,15 +17211,15 @@
         <v>10</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C49" s="18">
         <v>44648</v>
@@ -17221,15 +17231,15 @@
         <v>10</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C50" s="18">
         <v>44648</v>
@@ -17241,15 +17251,15 @@
         <v>10</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C51" s="18">
         <v>44648</v>
@@ -17261,15 +17271,15 @@
         <v>10</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C52" s="18">
         <v>44648</v>
@@ -17281,7 +17291,7 @@
         <v>10</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -17292,10 +17302,10 @@
     </row>
     <row r="54" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="3"/>
@@ -17306,10 +17316,10 @@
     </row>
     <row r="55" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="3"/>
@@ -17320,10 +17330,10 @@
     </row>
     <row r="56" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="3"/>
@@ -17334,10 +17344,10 @@
     </row>
     <row r="57" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="3"/>
@@ -17348,10 +17358,10 @@
     </row>
     <row r="58" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="3"/>
@@ -17362,10 +17372,10 @@
     </row>
     <row r="59" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="3"/>
@@ -17375,10 +17385,10 @@
     </row>
     <row r="60" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="3"/>
@@ -17389,10 +17399,10 @@
     </row>
     <row r="61" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="3"/>
@@ -17403,10 +17413,10 @@
     </row>
     <row r="62" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="3"/>
@@ -17417,10 +17427,10 @@
     </row>
     <row r="63" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="3"/>
@@ -17431,10 +17441,10 @@
     </row>
     <row r="64" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="3"/>
@@ -17445,10 +17455,10 @@
     </row>
     <row r="65" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="3"/>
@@ -17459,10 +17469,10 @@
     </row>
     <row r="66" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="3"/>
@@ -17473,10 +17483,10 @@
     </row>
     <row r="67" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>10</v>
@@ -17493,10 +17503,10 @@
     </row>
     <row r="69" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="3"/>
@@ -17507,10 +17517,10 @@
     </row>
     <row r="70" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="3"/>
@@ -17521,10 +17531,10 @@
     </row>
     <row r="71" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="3"/>
@@ -17535,10 +17545,10 @@
     </row>
     <row r="72" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="3"/>
@@ -17549,10 +17559,10 @@
     </row>
     <row r="73" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="3"/>
@@ -17563,10 +17573,10 @@
     </row>
     <row r="74" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="3"/>
@@ -17577,10 +17587,10 @@
     </row>
     <row r="75" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="3"/>
@@ -17591,10 +17601,10 @@
     </row>
     <row r="76" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="3"/>
@@ -17605,10 +17615,10 @@
     </row>
     <row r="77" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="3"/>
@@ -17619,10 +17629,10 @@
     </row>
     <row r="78" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="3"/>
@@ -17633,10 +17643,10 @@
     </row>
     <row r="79" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="3"/>
@@ -17647,10 +17657,10 @@
     </row>
     <row r="80" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="3"/>
@@ -17661,10 +17671,10 @@
     </row>
     <row r="81" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="3"/>
@@ -17675,10 +17685,10 @@
     </row>
     <row r="82" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>10</v>
@@ -17695,10 +17705,10 @@
     </row>
     <row r="84" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="3"/>
@@ -17709,10 +17719,10 @@
     </row>
     <row r="85" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="3"/>
@@ -17723,10 +17733,10 @@
     </row>
     <row r="86" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="3"/>
@@ -17737,10 +17747,10 @@
     </row>
     <row r="87" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="3"/>
@@ -17751,10 +17761,10 @@
     </row>
     <row r="88" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="3"/>
@@ -17765,10 +17775,10 @@
     </row>
     <row r="89" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="3"/>
@@ -17778,10 +17788,10 @@
     </row>
     <row r="90" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="3"/>
@@ -17792,10 +17802,10 @@
     </row>
     <row r="91" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="3"/>
@@ -17806,10 +17816,10 @@
     </row>
     <row r="92" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="3"/>
@@ -17820,10 +17830,10 @@
     </row>
     <row r="93" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="3"/>
@@ -17834,10 +17844,10 @@
     </row>
     <row r="94" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="3"/>
@@ -17848,10 +17858,10 @@
     </row>
     <row r="95" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="3"/>
@@ -17862,10 +17872,10 @@
     </row>
     <row r="96" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="3"/>
@@ -17876,10 +17886,10 @@
     </row>
     <row r="97" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>10</v>
@@ -17896,10 +17906,10 @@
     </row>
     <row r="99" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="3"/>
@@ -17910,10 +17920,10 @@
     </row>
     <row r="100" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="3"/>
@@ -17924,10 +17934,10 @@
     </row>
     <row r="101" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="3"/>
@@ -17938,10 +17948,10 @@
     </row>
     <row r="102" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="3"/>
@@ -17952,10 +17962,10 @@
     </row>
     <row r="103" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="3"/>
@@ -17966,10 +17976,10 @@
     </row>
     <row r="104" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="3"/>
@@ -17980,10 +17990,10 @@
     </row>
     <row r="105" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="3"/>
@@ -17994,10 +18004,10 @@
     </row>
     <row r="106" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="3"/>
@@ -18008,10 +18018,10 @@
     </row>
     <row r="107" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="3"/>
@@ -18022,10 +18032,10 @@
     </row>
     <row r="108" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="3"/>
@@ -18036,10 +18046,10 @@
     </row>
     <row r="109" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="3"/>
@@ -18050,10 +18060,10 @@
     </row>
     <row r="110" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="3"/>
@@ -18064,10 +18074,10 @@
     </row>
     <row r="111" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="3"/>
@@ -18078,10 +18088,10 @@
     </row>
     <row r="112" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>10</v>
@@ -18096,10 +18106,10 @@
     </row>
     <row r="114" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>10</v>
@@ -18108,10 +18118,10 @@
     </row>
     <row r="115" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>10</v>
@@ -18120,10 +18130,10 @@
     </row>
     <row r="116" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>10</v>
@@ -18132,10 +18142,10 @@
     </row>
     <row r="117" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>10</v>
@@ -18144,10 +18154,10 @@
     </row>
     <row r="118" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>10</v>
@@ -18156,10 +18166,10 @@
     </row>
     <row r="119" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>10</v>
@@ -18168,10 +18178,10 @@
     </row>
     <row r="120" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>10</v>
@@ -18180,10 +18190,10 @@
     </row>
     <row r="121" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>10</v>
@@ -18192,10 +18202,10 @@
     </row>
     <row r="122" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>10</v>
@@ -18204,10 +18214,10 @@
     </row>
     <row r="123" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="E123" s="5" t="s">
         <v>10</v>
@@ -18216,10 +18226,10 @@
     </row>
     <row r="124" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>10</v>
@@ -18228,10 +18238,10 @@
     </row>
     <row r="125" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>10</v>
@@ -18240,10 +18250,10 @@
     </row>
     <row r="126" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>10</v>
@@ -18252,10 +18262,10 @@
     </row>
     <row r="127" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>10</v>
@@ -18270,10 +18280,10 @@
     </row>
     <row r="129" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>10</v>
@@ -18282,10 +18292,10 @@
     </row>
     <row r="130" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="E130" s="5" t="s">
         <v>10</v>
@@ -18294,10 +18304,10 @@
     </row>
     <row r="131" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="E131" s="5" t="s">
         <v>10</v>
@@ -18306,10 +18316,10 @@
     </row>
     <row r="132" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>10</v>
@@ -18318,10 +18328,10 @@
     </row>
     <row r="133" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>10</v>
@@ -18330,10 +18340,10 @@
     </row>
     <row r="134" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>10</v>
@@ -18342,10 +18352,10 @@
     </row>
     <row r="135" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="E135" s="5" t="s">
         <v>10</v>
@@ -18354,10 +18364,10 @@
     </row>
     <row r="136" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="E136" s="5" t="s">
         <v>10</v>
@@ -18366,10 +18376,10 @@
     </row>
     <row r="137" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>10</v>
@@ -18378,10 +18388,10 @@
     </row>
     <row r="138" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>10</v>
@@ -18390,10 +18400,10 @@
     </row>
     <row r="139" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>10</v>
@@ -18402,10 +18412,10 @@
     </row>
     <row r="140" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>10</v>
@@ -18414,10 +18424,10 @@
     </row>
     <row r="141" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>10</v>
@@ -18426,10 +18436,10 @@
     </row>
     <row r="142" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>10</v>
@@ -18444,10 +18454,10 @@
     </row>
     <row r="144" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>10</v>
@@ -18455,10 +18465,10 @@
     </row>
     <row r="145" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>10</v>
@@ -18466,10 +18476,10 @@
     </row>
     <row r="146" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>10</v>
@@ -18477,10 +18487,10 @@
     </row>
     <row r="147" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>10</v>
@@ -18488,10 +18498,10 @@
     </row>
     <row r="148" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>10</v>
@@ -18499,10 +18509,10 @@
     </row>
     <row r="149" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>10</v>
@@ -18510,10 +18520,10 @@
     </row>
     <row r="150" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="E150" s="5" t="s">
         <v>10</v>
@@ -18521,10 +18531,10 @@
     </row>
     <row r="151" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>10</v>
@@ -18532,10 +18542,10 @@
     </row>
     <row r="152" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="E152" s="5" t="s">
         <v>10</v>
@@ -18543,10 +18553,10 @@
     </row>
     <row r="153" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>10</v>
@@ -18554,10 +18564,10 @@
     </row>
     <row r="154" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>10</v>
@@ -18565,10 +18575,10 @@
     </row>
     <row r="155" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>10</v>
@@ -18576,10 +18586,10 @@
     </row>
     <row r="156" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>10</v>
@@ -18587,10 +18597,10 @@
     </row>
     <row r="157" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="E157" s="5" t="s">
         <v>10</v>
@@ -18603,10 +18613,10 @@
     </row>
     <row r="159" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>10</v>
@@ -18614,10 +18624,10 @@
     </row>
     <row r="160" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>10</v>
@@ -18625,10 +18635,10 @@
     </row>
     <row r="161" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="E161" s="5" t="s">
         <v>10</v>
@@ -18636,10 +18646,10 @@
     </row>
     <row r="162" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>10</v>
@@ -18647,10 +18657,10 @@
     </row>
     <row r="163" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>10</v>
@@ -18658,10 +18668,10 @@
     </row>
     <row r="164" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>10</v>
@@ -18669,10 +18679,10 @@
     </row>
     <row r="165" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="E165" s="5" t="s">
         <v>10</v>
@@ -18680,10 +18690,10 @@
     </row>
     <row r="166" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="E166" s="5" t="s">
         <v>10</v>
@@ -18691,10 +18701,10 @@
     </row>
     <row r="167" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="E167" s="5" t="s">
         <v>10</v>
@@ -18702,10 +18712,10 @@
     </row>
     <row r="168" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="E168" s="5" t="s">
         <v>10</v>
@@ -18713,10 +18723,10 @@
     </row>
     <row r="169" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="E169" s="5" t="s">
         <v>10</v>
@@ -18724,10 +18734,10 @@
     </row>
     <row r="170" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>10</v>
@@ -18735,10 +18745,10 @@
     </row>
     <row r="171" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="E171" s="5" t="s">
         <v>10</v>
@@ -18746,10 +18756,10 @@
     </row>
     <row r="172" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="E172" s="5" t="s">
         <v>10</v>
@@ -18762,10 +18772,10 @@
     </row>
     <row r="174" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="E174" s="5" t="s">
         <v>10</v>
@@ -18773,10 +18783,10 @@
     </row>
     <row r="175" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="E175" s="5" t="s">
         <v>10</v>
@@ -18784,10 +18794,10 @@
     </row>
     <row r="176" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="B176" s="19" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="E176" s="5" t="s">
         <v>10</v>
@@ -18795,10 +18805,10 @@
     </row>
     <row r="177" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="B177" s="19" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="E177" s="5" t="s">
         <v>10</v>
@@ -18806,10 +18816,10 @@
     </row>
     <row r="178" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="B178" s="19" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="E178" s="5" t="s">
         <v>10</v>
@@ -18817,10 +18827,10 @@
     </row>
     <row r="179" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="B179" s="19" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="E179" s="5" t="s">
         <v>10</v>
@@ -18828,10 +18838,10 @@
     </row>
     <row r="180" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="B180" s="19" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="E180" s="5" t="s">
         <v>10</v>
@@ -18839,10 +18849,10 @@
     </row>
     <row r="181" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="B181" s="19" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="E181" s="5" t="s">
         <v>10</v>
@@ -18850,10 +18860,10 @@
     </row>
     <row r="182" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="B182" s="19" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="E182" s="5" t="s">
         <v>10</v>
@@ -18861,10 +18871,10 @@
     </row>
     <row r="183" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="E183" s="5" t="s">
         <v>10</v>
@@ -18872,10 +18882,10 @@
     </row>
     <row r="184" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="E184" s="5" t="s">
         <v>10</v>
@@ -18883,10 +18893,10 @@
     </row>
     <row r="185" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="E185" s="5" t="s">
         <v>10</v>
@@ -18894,10 +18904,10 @@
     </row>
     <row r="186" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="B186" s="19" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="E186" s="5" t="s">
         <v>10</v>
@@ -18905,10 +18915,10 @@
     </row>
     <row r="187" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="E187" s="5" t="s">
         <v>10</v>
@@ -18921,10 +18931,10 @@
     </row>
     <row r="189" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="E189" s="5" t="s">
         <v>10</v>
@@ -18932,10 +18942,10 @@
     </row>
     <row r="190" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="E190" s="5" t="s">
         <v>10</v>
@@ -18943,10 +18953,10 @@
     </row>
     <row r="191" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="B191" s="19" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="E191" s="5" t="s">
         <v>10</v>
@@ -18954,10 +18964,10 @@
     </row>
     <row r="192" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="B192" s="19" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="E192" s="5" t="s">
         <v>10</v>
@@ -18965,10 +18975,10 @@
     </row>
     <row r="193" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="B193" s="19" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="E193" s="5" t="s">
         <v>10</v>
@@ -18976,10 +18986,10 @@
     </row>
     <row r="194" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="B194" s="19" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="E194" s="5" t="s">
         <v>10</v>
@@ -18987,10 +18997,10 @@
     </row>
     <row r="195" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="B195" s="19" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="E195" s="5" t="s">
         <v>10</v>
@@ -18998,10 +19008,10 @@
     </row>
     <row r="196" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="E196" s="5" t="s">
         <v>10</v>
@@ -19009,10 +19019,10 @@
     </row>
     <row r="197" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="E197" s="5" t="s">
         <v>10</v>
@@ -19020,10 +19030,10 @@
     </row>
     <row r="198" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="E198" s="5" t="s">
         <v>10</v>
@@ -19031,10 +19041,10 @@
     </row>
     <row r="199" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="E199" s="5" t="s">
         <v>10</v>
@@ -19042,10 +19052,10 @@
     </row>
     <row r="200" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="B200" s="19" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="E200" s="5" t="s">
         <v>10</v>
@@ -19053,10 +19063,10 @@
     </row>
     <row r="201" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="B201" s="19" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="E201" s="5" t="s">
         <v>10</v>
@@ -19064,10 +19074,10 @@
     </row>
     <row r="202" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="B202" s="19" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="E202" s="5" t="s">
         <v>10</v>
@@ -19080,10 +19090,10 @@
     </row>
     <row r="204" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="B204" s="19" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>10</v>
@@ -19091,10 +19101,10 @@
     </row>
     <row r="205" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="B205" s="19" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="E205" s="5" t="s">
         <v>10</v>
@@ -19102,10 +19112,10 @@
     </row>
     <row r="206" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="B206" s="19" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="E206" s="5" t="s">
         <v>10</v>
@@ -19113,10 +19123,10 @@
     </row>
     <row r="207" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="B207" s="19" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="E207" s="5" t="s">
         <v>10</v>
@@ -19124,10 +19134,10 @@
     </row>
     <row r="208" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="B208" s="19" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="E208" s="5" t="s">
         <v>10</v>
@@ -19135,10 +19145,10 @@
     </row>
     <row r="209" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="B209" s="19" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="E209" s="5" t="s">
         <v>10</v>
@@ -19146,10 +19156,10 @@
     </row>
     <row r="210" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="B210" s="19" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="E210" s="5" t="s">
         <v>10</v>
@@ -19157,10 +19167,10 @@
     </row>
     <row r="211" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="B211" s="19" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="E211" s="5" t="s">
         <v>10</v>
@@ -19168,10 +19178,10 @@
     </row>
     <row r="212" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B212" s="19" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="E212" s="5" t="s">
         <v>10</v>
@@ -19179,10 +19189,10 @@
     </row>
     <row r="213" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="B213" s="19" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="E213" s="5" t="s">
         <v>10</v>
@@ -19190,10 +19200,10 @@
     </row>
     <row r="214" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="B214" s="19" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="E214" s="5" t="s">
         <v>10</v>
@@ -19201,10 +19211,10 @@
     </row>
     <row r="215" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="B215" s="19" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="E215" s="5" t="s">
         <v>10</v>
@@ -19212,10 +19222,10 @@
     </row>
     <row r="216" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="B216" s="19" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="E216" s="5" t="s">
         <v>10</v>
@@ -19223,10 +19233,10 @@
     </row>
     <row r="217" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="B217" s="19" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="E217" s="5" t="s">
         <v>10</v>
@@ -19239,10 +19249,10 @@
     </row>
     <row r="219" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="B219" s="19" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="E219" s="5" t="s">
         <v>10</v>
@@ -19250,10 +19260,10 @@
     </row>
     <row r="220" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="B220" s="19" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="E220" s="5" t="s">
         <v>10</v>
@@ -19261,10 +19271,10 @@
     </row>
     <row r="221" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="B221" s="19" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="E221" s="5" t="s">
         <v>10</v>
@@ -19272,10 +19282,10 @@
     </row>
     <row r="222" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="B222" s="19" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="E222" s="5" t="s">
         <v>10</v>
@@ -19283,10 +19293,10 @@
     </row>
     <row r="223" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="B223" s="19" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="E223" s="5" t="s">
         <v>10</v>
@@ -19294,10 +19304,10 @@
     </row>
     <row r="224" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="B224" s="19" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="E224" s="5" t="s">
         <v>10</v>
@@ -19305,10 +19315,10 @@
     </row>
     <row r="225" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="B225" s="19" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="E225" s="5" t="s">
         <v>10</v>
@@ -19316,10 +19326,10 @@
     </row>
     <row r="226" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="B226" s="19" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="E226" s="5" t="s">
         <v>10</v>
@@ -19327,10 +19337,10 @@
     </row>
     <row r="227" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="B227" s="19" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="E227" s="5" t="s">
         <v>10</v>
@@ -19338,10 +19348,10 @@
     </row>
     <row r="228" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="B228" s="19" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="E228" s="5" t="s">
         <v>10</v>
@@ -19349,10 +19359,10 @@
     </row>
     <row r="229" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="B229" s="19" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E229" s="5" t="s">
         <v>10</v>
@@ -19360,10 +19370,10 @@
     </row>
     <row r="230" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="B230" s="19" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="E230" s="5" t="s">
         <v>10</v>
@@ -19371,10 +19381,10 @@
     </row>
     <row r="231" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="B231" s="19" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="E231" s="5" t="s">
         <v>10</v>
@@ -19382,17 +19392,17 @@
     </row>
     <row r="232" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="B232" s="19" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="E232" s="5" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -19449,10 +19459,10 @@
     </row>
     <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="C3" s="5">
         <v>44609</v>
@@ -19467,10 +19477,10 @@
     </row>
     <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="C4" s="5">
         <v>44609</v>
@@ -19485,10 +19495,10 @@
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C5" s="5">
         <v>44609</v>
@@ -19503,10 +19513,10 @@
     </row>
     <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="C6" s="5">
         <v>44609</v>
@@ -19521,10 +19531,10 @@
     </row>
     <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="C7" s="5">
         <v>44609</v>
@@ -19539,10 +19549,10 @@
     </row>
     <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="C8" s="5">
         <v>44609</v>
@@ -19557,10 +19567,10 @@
     </row>
     <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="C9" s="5">
         <v>44609</v>
@@ -19575,10 +19585,10 @@
     </row>
     <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="C10" s="5">
         <v>44609</v>
@@ -19593,10 +19603,10 @@
     </row>
     <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="C11" s="5">
         <v>44609</v>
@@ -19611,10 +19621,10 @@
     </row>
     <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="C12" s="5">
         <v>44609</v>
@@ -19629,10 +19639,10 @@
     </row>
     <row r="13" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="C13" s="5">
         <v>44609</v>
@@ -19647,10 +19657,10 @@
     </row>
     <row r="14" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="C14" s="5">
         <v>44609</v>
@@ -19665,10 +19675,10 @@
     </row>
     <row r="15" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="C15" s="5">
         <v>44609</v>
@@ -19683,10 +19693,10 @@
     </row>
     <row r="16" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C16" s="5">
         <v>44609</v>
@@ -19708,10 +19718,10 @@
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="C18" s="5">
         <v>44615</v>
@@ -19726,10 +19736,10 @@
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="C19" s="5">
         <v>44615</v>
@@ -19744,10 +19754,10 @@
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="C20" s="5">
         <v>44615</v>
@@ -19762,10 +19772,10 @@
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="C21" s="5">
         <v>44615</v>
@@ -19780,10 +19790,10 @@
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="C22" s="5">
         <v>44615</v>
@@ -19798,10 +19808,10 @@
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="C23" s="5">
         <v>44615</v>
@@ -19816,10 +19826,10 @@
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="C24" s="5">
         <v>44615</v>
@@ -19834,10 +19844,10 @@
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="C25" s="5">
         <v>44615</v>
@@ -19851,10 +19861,10 @@
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="C26" s="5">
         <v>44615</v>
@@ -19868,10 +19878,10 @@
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="C27" s="5">
         <v>44615</v>
@@ -19885,10 +19895,10 @@
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="C28" s="5">
         <v>44615</v>
@@ -19902,10 +19912,10 @@
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="C29" s="5">
         <v>44615</v>
@@ -19919,10 +19929,10 @@
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="C30" s="5">
         <v>44615</v>
@@ -19936,10 +19946,10 @@
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="C31" s="5">
         <v>44615</v>
@@ -19959,10 +19969,10 @@
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="C33" s="5">
         <v>44609</v>
@@ -19977,10 +19987,10 @@
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="C34" s="5">
         <v>44609</v>
@@ -19995,10 +20005,10 @@
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="C35" s="5">
         <v>44609</v>
@@ -20013,10 +20023,10 @@
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="C36" s="5">
         <v>44609</v>
@@ -20031,10 +20041,10 @@
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="C37" s="5">
         <v>44609</v>
@@ -20049,10 +20059,10 @@
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="C38" s="5">
         <v>44609</v>
@@ -20067,10 +20077,10 @@
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="C39" s="5">
         <v>44609</v>
@@ -20085,10 +20095,10 @@
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="C40" s="5">
         <v>44609</v>
@@ -20102,10 +20112,10 @@
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="C41" s="5">
         <v>44609</v>
@@ -20119,10 +20129,10 @@
     </row>
     <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="C42" s="5">
         <v>44609</v>
@@ -20136,10 +20146,10 @@
     </row>
     <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="C43" s="5">
         <v>44609</v>
@@ -20153,10 +20163,10 @@
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="B44" s="44" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="C44" s="5">
         <v>44609</v>
@@ -20170,10 +20180,10 @@
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="B45" s="44" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="C45" s="5">
         <v>44609</v>
@@ -20187,10 +20197,10 @@
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="B46" s="44" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="C46" s="5">
         <v>44609</v>
@@ -20211,10 +20221,10 @@
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="B48" s="44" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="C48" s="5">
         <v>44616</v>
@@ -20229,10 +20239,10 @@
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="B49" s="44" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="C49" s="5">
         <v>44616</v>
@@ -20247,10 +20257,10 @@
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="B50" s="44" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="C50" s="5">
         <v>44616</v>
@@ -20265,10 +20275,10 @@
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="B51" s="44" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="C51" s="5">
         <v>44616</v>
@@ -20283,10 +20293,10 @@
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="B52" s="44" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="C52" s="5">
         <v>44616</v>
@@ -20301,10 +20311,10 @@
     </row>
     <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="B53" s="44" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="C53" s="5">
         <v>44616</v>
@@ -20319,10 +20329,10 @@
     </row>
     <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="B54" s="44" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="C54" s="5">
         <v>44616</v>
@@ -20337,10 +20347,10 @@
     </row>
     <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="B55" s="44" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="C55" s="5">
         <v>44616</v>
@@ -20354,10 +20364,10 @@
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="B56" s="44" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="C56" s="5">
         <v>44616</v>
@@ -20371,10 +20381,10 @@
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="B57" s="44" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="C57" s="5">
         <v>44616</v>
@@ -20388,10 +20398,10 @@
     </row>
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="B58" s="44" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="C58" s="5">
         <v>44616</v>
@@ -20405,10 +20415,10 @@
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="B59" s="44" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="C59" s="5">
         <v>44616</v>
@@ -20422,10 +20432,10 @@
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="B60" s="44" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="C60" s="5">
         <v>44616</v>
@@ -20439,10 +20449,10 @@
     </row>
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="B61" s="44" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C61" s="5">
         <v>44616</v>
@@ -20463,10 +20473,10 @@
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="B63" s="44" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="C63" s="5">
         <v>44658</v>
@@ -20481,10 +20491,10 @@
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="B64" s="44" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="C64" s="5">
         <v>44658</v>
@@ -20499,10 +20509,10 @@
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="B65" s="44" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="C65" s="5">
         <v>44658</v>
@@ -20517,10 +20527,10 @@
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="B66" s="44" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="C66" s="5">
         <v>44658</v>
@@ -20535,10 +20545,10 @@
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="B67" s="44" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="C67" s="5">
         <v>44658</v>
@@ -20553,10 +20563,10 @@
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="B68" s="44" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="C68" s="5">
         <v>44658</v>
@@ -20571,10 +20581,10 @@
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="B69" s="44" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="C69" s="5">
         <v>44658</v>
@@ -20589,10 +20599,10 @@
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="B70" s="44" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="C70" s="5">
         <v>44658</v>
@@ -20606,10 +20616,10 @@
     </row>
     <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="B71" s="44" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="C71" s="5">
         <v>44658</v>
@@ -20623,10 +20633,10 @@
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="B72" s="44" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="C72" s="5">
         <v>44658</v>
@@ -20640,10 +20650,10 @@
     </row>
     <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="B73" s="44" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="C73" s="5">
         <v>44658</v>
@@ -20657,10 +20667,10 @@
     </row>
     <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="B74" s="44" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="C74" s="5">
         <v>44658</v>
@@ -20674,10 +20684,10 @@
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="B75" s="44" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="C75" s="5">
         <v>44658</v>
@@ -20691,10 +20701,10 @@
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="B76" s="44" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="C76" s="5">
         <v>44658</v>
@@ -20748,7 +20758,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -20765,7 +20775,7 @@
     </row>
     <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -20785,10 +20795,10 @@
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C5" s="5">
         <v>44797</v>
@@ -20804,10 +20814,10 @@
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C6" s="5">
         <v>44819</v>
@@ -20823,10 +20833,10 @@
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C7" s="5">
         <v>44819</v>
@@ -20842,16 +20852,16 @@
     </row>
     <row r="8" spans="1:7" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="43" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C8" s="5">
         <v>44775</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>10</v>
@@ -20861,16 +20871,16 @@
     </row>
     <row r="9" spans="1:7" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="43" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="C9" s="5">
         <v>44777</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>10</v>
@@ -20880,10 +20890,10 @@
     </row>
     <row r="10" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="43" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="C10" s="5">
         <v>44628</v>
@@ -20899,7 +20909,7 @@
     </row>
     <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="43" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="B11" s="40">
         <v>0.3</v>
@@ -20927,7 +20937,7 @@
     </row>
     <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -20947,10 +20957,10 @@
     </row>
     <row r="15" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="C15" s="5">
         <v>44698</v>
@@ -20966,10 +20976,10 @@
     </row>
     <row r="16" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="C16" s="5">
         <v>44698</v>
@@ -20985,10 +20995,10 @@
     </row>
     <row r="17" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="C17" s="5">
         <v>44698</v>
@@ -21013,10 +21023,10 @@
     </row>
     <row r="19" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="C19" s="5">
         <v>44650</v>
@@ -21032,10 +21042,10 @@
     </row>
     <row r="20" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="C20" s="5">
         <v>44650</v>
@@ -21051,10 +21061,10 @@
     </row>
     <row r="21" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="C21" s="5">
         <v>44650</v>
@@ -21070,10 +21080,10 @@
     </row>
     <row r="22" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="C22" s="5">
         <v>44650</v>
@@ -21097,10 +21107,10 @@
     </row>
     <row r="24" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="B24" s="51" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="C24" s="5">
         <v>44883</v>
@@ -21113,15 +21123,15 @@
       </c>
       <c r="F24" s="35"/>
       <c r="G24" s="12" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="C25" s="5">
         <v>44883</v>
@@ -21134,15 +21144,15 @@
       </c>
       <c r="F25" s="35"/>
       <c r="G25" s="12" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="B26" s="51" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="C26" s="5">
         <v>44883</v>
@@ -21155,15 +21165,15 @@
       </c>
       <c r="F26" s="35"/>
       <c r="G26" s="12" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="B27" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="C27" s="5">
         <v>44883</v>
@@ -21176,7 +21186,7 @@
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="12" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -21188,10 +21198,10 @@
     </row>
     <row r="29" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="C29" s="5">
         <v>44650</v>
@@ -21207,10 +21217,10 @@
     </row>
     <row r="30" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="C30" s="5">
         <v>44650</v>
@@ -21226,10 +21236,10 @@
     </row>
     <row r="31" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="B31" s="51" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="C31" s="5">
         <v>44650</v>
@@ -21245,10 +21255,10 @@
     </row>
     <row r="32" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="B32" s="51" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="C32" s="5">
         <v>44650</v>
@@ -21272,10 +21282,10 @@
     </row>
     <row r="34" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="B34" s="51" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="C34" s="5">
         <v>44650</v>
@@ -21291,10 +21301,10 @@
     </row>
     <row r="35" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="B35" s="51" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="C35" s="5">
         <v>44650</v>
@@ -21310,10 +21320,10 @@
     </row>
     <row r="36" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="B36" s="51" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="C36" s="5">
         <v>44650</v>
@@ -21329,10 +21339,10 @@
     </row>
     <row r="37" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="B37" s="51" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="C37" s="5">
         <v>44650</v>
@@ -21356,10 +21366,10 @@
     </row>
     <row r="39" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="B39" s="51" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="C39" s="5">
         <v>44658</v>
@@ -21375,10 +21385,10 @@
     </row>
     <row r="40" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="B40" s="51" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="C40" s="5">
         <v>44658</v>
@@ -21394,10 +21404,10 @@
     </row>
     <row r="41" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="B41" s="51" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="C41" s="5">
         <v>44658</v>
@@ -21413,10 +21423,10 @@
     </row>
     <row r="42" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="B42" s="51" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="C42" s="5">
         <v>44658</v>
@@ -21441,10 +21451,10 @@
     </row>
     <row r="44" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="B44" s="51" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="C44" s="5">
         <v>44650</v>
@@ -21460,10 +21470,10 @@
     </row>
     <row r="45" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="B45" s="51" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="C45" s="5">
         <v>44650</v>
@@ -21479,10 +21489,10 @@
     </row>
     <row r="46" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="B46" s="51" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="C46" s="5">
         <v>44650</v>
@@ -21498,10 +21508,10 @@
     </row>
     <row r="47" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="C47" s="5">
         <v>44650</v>
@@ -21528,10 +21538,10 @@
     </row>
     <row r="49" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="B49" s="51" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="C49" s="5">
         <v>44655</v>
@@ -21544,15 +21554,15 @@
       </c>
       <c r="F49"/>
       <c r="G49" s="12" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="B50" s="51" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="C50" s="5">
         <v>44655</v>
@@ -21568,10 +21578,10 @@
     </row>
     <row r="51" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="B51" s="51" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="C51" s="5">
         <v>44655</v>
@@ -21587,10 +21597,10 @@
     </row>
     <row r="52" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="B52" s="51" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="C52" s="5">
         <v>44655</v>
@@ -21614,10 +21624,10 @@
     </row>
     <row r="54" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="B54" s="51" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="C54" s="5">
         <v>44874</v>
@@ -21630,7 +21640,7 @@
       </c>
       <c r="F54" s="22"/>
       <c r="G54" s="12" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -21644,10 +21654,10 @@
     </row>
     <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C56" s="5">
         <v>44641</v>
@@ -21663,10 +21673,10 @@
     </row>
     <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C57" s="5">
         <v>44641</v>
@@ -21682,10 +21692,10 @@
     </row>
     <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C58" s="5">
         <v>44641</v>
@@ -21708,10 +21718,10 @@
     </row>
     <row r="60" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="B60" s="51" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="C60" s="5">
         <v>44791</v>
@@ -21724,15 +21734,15 @@
       </c>
       <c r="F60" s="34"/>
       <c r="G60" s="12" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="B61" s="51" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="C61" s="5">
         <v>44874</v>
@@ -21745,15 +21755,15 @@
       </c>
       <c r="F61" s="33"/>
       <c r="G61" s="28" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="B62" s="51" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="C62" s="5">
         <v>44791</v>
@@ -21766,15 +21776,15 @@
       </c>
       <c r="F62" s="34"/>
       <c r="G62" s="28" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="B63" s="51" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="C63" s="5">
         <v>44791</v>
@@ -21787,15 +21797,15 @@
       </c>
       <c r="F63" s="34"/>
       <c r="G63" s="28" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="B64" s="51" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="C64" s="5">
         <v>44791</v>
@@ -21808,15 +21818,15 @@
       </c>
       <c r="F64" s="34"/>
       <c r="G64" s="28" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="B65" s="51" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="C65" s="5">
         <v>44791</v>
@@ -21829,15 +21839,15 @@
       </c>
       <c r="F65" s="34"/>
       <c r="G65" s="28" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="B66" s="51" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="C66" s="5">
         <v>44791</v>
@@ -21850,15 +21860,15 @@
       </c>
       <c r="F66" s="34"/>
       <c r="G66" s="28" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="B67" s="51" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="C67" s="5">
         <v>44791</v>
@@ -21871,15 +21881,15 @@
       </c>
       <c r="F67" s="34"/>
       <c r="G67" s="28" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="B68" s="51" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="C68" s="5">
         <v>44791</v>
@@ -21892,15 +21902,15 @@
       </c>
       <c r="F68" s="34"/>
       <c r="G68" s="28" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="B69" s="51" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="C69" s="5">
         <v>44791</v>
@@ -21913,15 +21923,15 @@
       </c>
       <c r="F69" s="34"/>
       <c r="G69" s="28" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="B70" s="51" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="C70" s="5">
         <v>44791</v>
@@ -21934,15 +21944,15 @@
       </c>
       <c r="F70" s="34"/>
       <c r="G70" s="28" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="B71" s="51" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="C71" s="5">
         <v>44791</v>
@@ -21955,15 +21965,15 @@
       </c>
       <c r="F71" s="34"/>
       <c r="G71" s="28" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="B72" s="51" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="C72" s="5">
         <v>44791</v>
@@ -21976,15 +21986,15 @@
       </c>
       <c r="F72" s="34"/>
       <c r="G72" s="28" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="B73" s="51" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="C73" s="5">
         <v>44791</v>
@@ -21997,7 +22007,7 @@
       </c>
       <c r="F73" s="34"/>
       <c r="G73" s="28" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -22010,7 +22020,7 @@
     </row>
     <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="B75" s="52">
         <v>0</v>
@@ -22029,7 +22039,7 @@
     </row>
     <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="27" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="B76" s="52">
         <v>0.1</v>
@@ -22048,7 +22058,7 @@
     </row>
     <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="B77" s="52">
         <v>0.1</v>
@@ -22067,7 +22077,7 @@
     </row>
     <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="27" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="B78" s="52">
         <v>0.1</v>
@@ -22095,7 +22105,7 @@
     </row>
     <row r="80" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -22115,10 +22125,10 @@
     </row>
     <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C82" s="5">
         <v>44631</v>
@@ -22134,10 +22144,10 @@
     </row>
     <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C83" s="5">
         <v>44631</v>
@@ -22153,10 +22163,10 @@
     </row>
     <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C84" s="5">
         <v>44631</v>
@@ -22172,10 +22182,10 @@
     </row>
     <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="C85" s="5">
         <v>44836</v>
@@ -22189,10 +22199,10 @@
     </row>
     <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="C86" s="5">
         <v>44836</v>
@@ -22206,10 +22216,10 @@
     </row>
     <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C87" s="5">
         <v>44631</v>
@@ -22229,10 +22239,10 @@
     </row>
     <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C89" s="5">
         <v>44631</v>
@@ -22248,10 +22258,10 @@
     </row>
     <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C90" s="5">
         <v>44631</v>
@@ -22267,10 +22277,10 @@
     </row>
     <row r="91" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C91" s="5">
         <v>44631</v>
@@ -22286,10 +22296,10 @@
     </row>
     <row r="92" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C92" s="5">
         <v>44631</v>
@@ -22309,10 +22319,10 @@
     </row>
     <row r="94" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="C94" s="5">
         <v>44631</v>
@@ -22328,10 +22338,10 @@
     </row>
     <row r="95" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="C95" s="5">
         <v>44631</v>
@@ -22347,10 +22357,10 @@
     </row>
     <row r="96" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="C96" s="5">
         <v>44631</v>
@@ -22366,10 +22376,10 @@
     </row>
     <row r="97" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="C97" s="5">
         <v>44631</v>
@@ -22389,10 +22399,10 @@
     </row>
     <row r="99" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="C99" s="5">
         <v>44631</v>
@@ -22408,10 +22418,10 @@
     </row>
     <row r="100" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C100" s="5">
         <v>44631</v>
@@ -22427,10 +22437,10 @@
     </row>
     <row r="101" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="C101" s="5">
         <v>44631</v>
@@ -22446,10 +22456,10 @@
     </row>
     <row r="102" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C102" s="5">
         <v>44631</v>
@@ -22469,10 +22479,10 @@
     </row>
     <row r="104" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C104" s="5">
         <v>44631</v>
@@ -22488,10 +22498,10 @@
     </row>
     <row r="105" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C105" s="5">
         <v>44641</v>
@@ -22507,10 +22517,10 @@
     </row>
     <row r="106" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C106" s="5">
         <v>44641</v>
@@ -22533,10 +22543,10 @@
     </row>
     <row r="108" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="B108" s="51" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="C108" s="5">
         <v>44797</v>
@@ -22552,10 +22562,10 @@
     </row>
     <row r="109" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C109" s="5">
         <v>44797</v>
@@ -22571,10 +22581,10 @@
     </row>
     <row r="110" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="C110" s="5">
         <v>44797</v>
@@ -22590,10 +22600,10 @@
     </row>
     <row r="111" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="C111" s="5">
         <v>44797</v>
@@ -22609,10 +22619,10 @@
     </row>
     <row r="112" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="C112" s="5">
         <v>44839</v>
@@ -22628,10 +22638,10 @@
     </row>
     <row r="113" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="C113" s="5">
         <v>44797</v>
@@ -22654,10 +22664,10 @@
     </row>
     <row r="115" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="B115" s="51" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="C115" s="5">
         <v>44797</v>
@@ -22673,10 +22683,10 @@
     </row>
     <row r="116" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="C116" s="5">
         <v>44797</v>
@@ -22692,10 +22702,10 @@
     </row>
     <row r="117" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="B117" s="23" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="C117" s="5">
         <v>44839</v>
@@ -22711,10 +22721,10 @@
     </row>
     <row r="118" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="C118" s="5">
         <v>44797</v>
@@ -22730,10 +22740,10 @@
     </row>
     <row r="119" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="C119" s="5">
         <v>44797</v>
@@ -22749,10 +22759,10 @@
     </row>
     <row r="120" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="C120" s="5">
         <v>44797</v>
@@ -22768,10 +22778,10 @@
     </row>
     <row r="121" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="B121" s="23" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="C121" s="5">
         <v>44797</v>
@@ -22787,10 +22797,10 @@
     </row>
     <row r="122" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="B122" s="23" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="C122" s="5">
         <v>44797</v>
@@ -22806,10 +22816,10 @@
     </row>
     <row r="123" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="B123" s="23" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="C123" s="5">
         <v>44797</v>
@@ -22825,10 +22835,10 @@
     </row>
     <row r="124" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="C124" s="5">
         <v>44797</v>
@@ -22844,10 +22854,10 @@
     </row>
     <row r="125" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="C125" s="5">
         <v>44797</v>
@@ -22863,10 +22873,10 @@
     </row>
     <row r="126" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="B126" s="23" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="C126" s="5">
         <v>44797</v>
@@ -22882,10 +22892,10 @@
     </row>
     <row r="127" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="C127" s="5">
         <v>44797</v>
@@ -22901,10 +22911,10 @@
     </row>
     <row r="128" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="C128" s="5">
         <v>44797</v>
@@ -22927,7 +22937,7 @@
     </row>
     <row r="130" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
@@ -22947,10 +22957,10 @@
     </row>
     <row r="132" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C132" s="5">
         <v>44641</v>
@@ -22966,10 +22976,10 @@
     </row>
     <row r="133" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C133" s="5">
         <v>44641</v>
@@ -22985,10 +22995,10 @@
     </row>
     <row r="134" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C134" s="5">
         <v>44641</v>
@@ -23011,10 +23021,10 @@
     </row>
     <row r="136" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="C136" s="38">
         <v>44830</v>
@@ -23030,10 +23040,10 @@
     </row>
     <row r="137" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C137" s="38">
         <v>44830</v>
@@ -23049,10 +23059,10 @@
     </row>
     <row r="138" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="C138" s="38">
         <v>44830</v>
@@ -23068,10 +23078,10 @@
     </row>
     <row r="139" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="C139" s="38">
         <v>44836</v>
@@ -23085,10 +23095,10 @@
     </row>
     <row r="140" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C140" s="38">
         <v>44836</v>
@@ -23102,10 +23112,10 @@
     </row>
     <row r="141" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C141" s="38">
         <v>44830</v>
@@ -23129,7 +23139,7 @@
       <c r="G144" s="12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -23139,7 +23149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0115C1-5CD4-44DA-9758-A28CABFA2F85}">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
@@ -23205,16 +23215,16 @@
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="43" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C5" s="45">
         <v>44777</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="E5" s="45" t="s">
         <v>10</v>
@@ -23224,7 +23234,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="B6" s="24">
         <v>0.51</v>
@@ -23233,7 +23243,7 @@
         <v>44777</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="E6" s="45" t="s">
         <v>10</v>
@@ -23243,16 +23253,16 @@
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="43" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C7" s="45">
         <v>44777</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="E7" s="45" t="s">
         <v>10</v>
@@ -23262,7 +23272,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="43" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="B8" s="53">
         <v>0.51</v>
@@ -23271,7 +23281,7 @@
         <v>44777</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="E8" s="45" t="s">
         <v>10</v>
@@ -23301,10 +23311,10 @@
     </row>
     <row r="11" spans="1:7" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="43" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C11" s="45">
         <v>44839</v>
@@ -23318,7 +23328,7 @@
     </row>
     <row r="12" spans="1:7" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="43" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="B12" s="54">
         <v>0.1</v>
@@ -23335,10 +23345,10 @@
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="43" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="C13" s="45">
         <v>44839</v>
@@ -23374,10 +23384,10 @@
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="43" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C16" s="45">
         <v>44865</v>
@@ -23392,10 +23402,10 @@
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="43" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="C17" s="45">
         <v>44865</v>
@@ -23430,10 +23440,10 @@
     </row>
     <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="43" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="C20" s="45">
         <v>44879</v>
@@ -23469,10 +23479,10 @@
     </row>
     <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="43" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C23" s="45">
         <v>44901</v>
@@ -23488,7 +23498,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="43" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="B24" s="55">
         <v>0.1</v>
@@ -23527,10 +23537,10 @@
     </row>
     <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="43" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C27" s="45">
         <v>44904</v>
@@ -23546,7 +23556,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="43" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="B28" s="55">
         <v>0.1</v>
@@ -23583,10 +23593,10 @@
     </row>
     <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="43" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C31" s="45">
         <v>44943</v>
@@ -23600,10 +23610,10 @@
     </row>
     <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="43" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="B32" s="44" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="C32" s="45">
         <v>44943</v>
@@ -23617,10 +23627,10 @@
     </row>
     <row r="33" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A33" s="43" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="C33" s="5">
         <v>44943</v>
@@ -23634,10 +23644,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="43" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C34" s="5">
         <v>44943</v>
@@ -23651,10 +23661,10 @@
     </row>
     <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="43" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C35" s="43"/>
       <c r="D35" s="3" t="s">
@@ -23666,7 +23676,7 @@
     </row>
     <row r="36" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -23677,10 +23687,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="43" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C37" s="5">
         <v>44946</v>
@@ -23694,7 +23704,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="43" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="B38" s="55">
         <v>0.95</v>
@@ -24502,7 +24512,7 @@
     </row>
     <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -24513,10 +24523,10 @@
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="C4" s="57">
         <v>44911</v>
@@ -24526,18 +24536,18 @@
       </c>
       <c r="E4" s="44"/>
       <c r="F4" s="41" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="G4" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="43" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="C5" s="57">
         <v>44911</v>
@@ -24550,10 +24560,10 @@
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="C6" s="57">
         <v>44911</v>
@@ -24566,10 +24576,10 @@
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="43" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="C7" s="57">
         <v>44911</v>
@@ -24590,10 +24600,10 @@
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="43" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="C9" s="57">
         <v>44911</v>
@@ -24606,10 +24616,10 @@
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="43" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="C10" s="57">
         <v>44911</v>
@@ -24622,10 +24632,10 @@
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="43" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="C11" s="57">
         <v>44911</v>
@@ -24638,10 +24648,10 @@
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="43" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="C12" s="57">
         <v>44911</v>
@@ -24654,10 +24664,10 @@
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="43" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="C13" s="57">
         <v>44911</v>
@@ -24670,10 +24680,10 @@
     </row>
     <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="43" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C14" s="57">
         <v>44911</v>
@@ -24694,10 +24704,10 @@
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="43" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="C16" s="57">
         <v>44911</v>
@@ -24710,10 +24720,10 @@
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="43" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="C17" s="57">
         <v>44911</v>
@@ -24726,7 +24736,7 @@
     </row>
     <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="43" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="B19" s="44" t="s">
         <v>165</v>
@@ -24738,7 +24748,7 @@
     </row>
     <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="43" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="B20" s="44" t="s">
         <v>107</v>
@@ -24750,7 +24760,7 @@
     </row>
     <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="43" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="B21" s="44" t="s">
         <v>96</v>
@@ -24762,10 +24772,10 @@
     </row>
     <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="43" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="C22" s="44"/>
       <c r="D22" s="44"/>
@@ -24774,7 +24784,7 @@
     </row>
     <row r="23" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="43" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="B23" s="44" t="s">
         <v>29</v>
@@ -24786,7 +24796,7 @@
     </row>
     <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="43" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="B24" s="44" t="s">
         <v>31</v>
@@ -24798,10 +24808,10 @@
     </row>
     <row r="25" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="43" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="C25" s="44"/>
       <c r="D25" s="44"/>
@@ -24810,10 +24820,10 @@
     </row>
     <row r="26" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="43" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="C26" s="44"/>
       <c r="D26" s="44"/>
@@ -24822,10 +24832,10 @@
     </row>
     <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="43" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="C27" s="44"/>
       <c r="D27" s="44"/>
@@ -24834,10 +24844,10 @@
     </row>
     <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="43" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="C28" s="44"/>
       <c r="D28" s="44"/>
@@ -24846,10 +24856,10 @@
     </row>
     <row r="29" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="43" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="C29" s="44"/>
       <c r="D29" s="44"/>
@@ -24858,10 +24868,10 @@
     </row>
     <row r="30" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="43" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="C30" s="44"/>
       <c r="D30" s="44"/>
@@ -24870,10 +24880,10 @@
     </row>
     <row r="31" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="43" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="C31" s="44"/>
       <c r="D31" s="44"/>
@@ -24882,7 +24892,7 @@
     </row>
     <row r="32" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="43" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="B32" s="44" t="s">
         <v>490</v>
@@ -24894,10 +24904,10 @@
     </row>
     <row r="33" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="43" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="C33" s="44"/>
       <c r="D33" s="44"/>
@@ -24906,7 +24916,7 @@
     </row>
     <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="43" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="B35" s="47">
         <v>1.3</v>
@@ -24918,7 +24928,7 @@
     </row>
     <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="43" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="B36" s="47">
         <v>1.5</v>
@@ -24930,7 +24940,7 @@
     </row>
     <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="43" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="B37" s="47" t="s">
         <v>457</v>
@@ -24946,10 +24956,10 @@
     </row>
     <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="43" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="C38" s="57">
         <v>44911</v>
@@ -24970,10 +24980,10 @@
     </row>
     <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="43" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="C40" s="57">
         <v>44911</v>
@@ -24986,7 +24996,7 @@
     </row>
     <row r="42" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -24997,10 +25007,10 @@
     </row>
     <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="43" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="C43" s="57">
         <v>44911</v>
@@ -25010,18 +25020,18 @@
       </c>
       <c r="E43" s="43"/>
       <c r="F43" s="41" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="G43" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="43" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="C44" s="57">
         <v>44911</v>
@@ -25034,10 +25044,10 @@
     </row>
     <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="43" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="C45" s="57">
         <v>44911</v>
@@ -25058,10 +25068,10 @@
     </row>
     <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="43" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="C47" s="57">
         <v>44911</v>
@@ -25074,10 +25084,10 @@
     </row>
     <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="43" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="B48" s="43" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C48" s="57">
         <v>44911</v>
@@ -25091,10 +25101,10 @@
     </row>
     <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="43" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C49" s="57">
         <v>44911</v>
@@ -25108,10 +25118,10 @@
     </row>
     <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="43" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C50" s="57">
         <v>44911</v>
@@ -25124,10 +25134,10 @@
     </row>
     <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="43" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="C51" s="57">
         <v>44911</v>
@@ -25140,10 +25150,10 @@
     </row>
     <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="43" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C52" s="57">
         <v>44911</v>
@@ -25164,10 +25174,10 @@
     </row>
     <row r="54" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="43" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="B54" s="44" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="C54" s="57">
         <v>44911</v>
@@ -25180,10 +25190,10 @@
     </row>
     <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="43" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C55" s="57">
         <v>44911</v>
@@ -25196,10 +25206,10 @@
     </row>
     <row r="56" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="43" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="B56" s="44" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="C56" s="57">
         <v>44911</v>
@@ -25212,10 +25222,10 @@
     </row>
     <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="43" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C57" s="57">
         <v>44911</v>
@@ -25228,10 +25238,10 @@
     </row>
     <row r="58" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="43" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="B58" s="44" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="C58" s="57">
         <v>44911</v>
@@ -25244,10 +25254,10 @@
     </row>
     <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="43" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C59" s="57">
         <v>44911</v>
@@ -25268,10 +25278,10 @@
     </row>
     <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="43" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="B61" s="43" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C61" s="57">
         <v>44911</v>
@@ -25284,10 +25294,10 @@
     </row>
     <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="43" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C62" s="57">
         <v>44911</v>
@@ -25300,10 +25310,10 @@
     </row>
     <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="43" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C63" s="57">
         <v>44911</v>
@@ -25316,10 +25326,10 @@
     </row>
     <row r="64" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="43" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B64" s="43" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C64" s="57">
         <v>44911</v>
@@ -25332,10 +25342,10 @@
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="43" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="B65" s="43" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C65" s="57">
         <v>44911</v>
@@ -25348,10 +25358,10 @@
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="43" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="B66" s="43" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C66" s="57">
         <v>44911</v>
@@ -25372,10 +25382,10 @@
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="43" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="B68" s="43" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="C68" s="57">
         <v>44911</v>
@@ -25388,10 +25398,10 @@
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="43" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="B69" s="43" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C69" s="57">
         <v>44911</v>
@@ -25404,10 +25414,10 @@
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="43" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="B70" s="43" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="C70" s="57">
         <v>44911</v>
@@ -25420,10 +25430,10 @@
     </row>
     <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="43" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="B71" s="43" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C71" s="57">
         <v>44911</v>
@@ -25436,10 +25446,10 @@
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="43" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="B72" s="43" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="C72" s="57">
         <v>44911</v>
@@ -25452,10 +25462,10 @@
     </row>
     <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="43" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C73" s="57">
         <v>44911</v>
@@ -25476,10 +25486,10 @@
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="43" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="B75" s="43" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C75" s="57">
         <v>44911</v>
@@ -25492,10 +25502,10 @@
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="43" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="B76" s="43" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C76" s="57">
         <v>44911</v>
@@ -25508,10 +25518,10 @@
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="43" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C77" s="57">
         <v>44911</v>
@@ -25524,10 +25534,10 @@
     </row>
     <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="43" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="B78" s="43" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C78" s="57">
         <v>44911</v>
@@ -25540,10 +25550,10 @@
     </row>
     <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="43" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C79" s="57">
         <v>44911</v>
@@ -25556,10 +25566,10 @@
     </row>
     <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="43" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="B80" s="43" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C80" s="57">
         <v>44911</v>
@@ -25580,10 +25590,10 @@
     </row>
     <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="43" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B82" s="43" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C82" s="57">
         <v>44911</v>
@@ -25596,10 +25606,10 @@
     </row>
     <row r="83" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="43" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="B83" s="43" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C83" s="57">
         <v>44911</v>
@@ -25612,10 +25622,10 @@
     </row>
     <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="43" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="B84" s="43" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C84" s="57">
         <v>44911</v>
@@ -25628,10 +25638,10 @@
     </row>
     <row r="85" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="43" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="B85" s="43" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C85" s="57">
         <v>44911</v>
@@ -25644,10 +25654,10 @@
     </row>
     <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="43" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="B86" s="43" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C86" s="57">
         <v>44911</v>
@@ -25660,10 +25670,10 @@
     </row>
     <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="43" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="B87" s="43" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C87" s="57">
         <v>44911</v>
@@ -25684,10 +25694,10 @@
     </row>
     <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="43" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="B89" s="43" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="C89" s="57">
         <v>44911</v>
@@ -25700,10 +25710,10 @@
     </row>
     <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="43" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="B90" s="43" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C90" s="57">
         <v>44911</v>
@@ -25716,10 +25726,10 @@
     </row>
     <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="43" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="B91" s="43" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C91" s="57">
         <v>44911</v>
@@ -25732,10 +25742,10 @@
     </row>
     <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="43" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="B92" s="43" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C92" s="57">
         <v>44911</v>
@@ -25748,10 +25758,10 @@
     </row>
     <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="43" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="B93" s="43" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C93" s="57">
         <v>44911</v>
@@ -25764,10 +25774,10 @@
     </row>
     <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="43" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="B94" s="43" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C94" s="57">
         <v>44911</v>
@@ -25788,10 +25798,10 @@
     </row>
     <row r="96" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="43" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="B96" s="44" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="C96" s="57">
         <v>44911</v>
@@ -25804,10 +25814,10 @@
     </row>
     <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="43" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="B97" s="43" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C97" s="57">
         <v>44911</v>
@@ -25820,10 +25830,10 @@
     </row>
     <row r="98" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" s="43" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="B98" s="44" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="C98" s="57">
         <v>44911</v>
@@ -25836,10 +25846,10 @@
     </row>
     <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="43" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="B99" s="43" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C99" s="57">
         <v>44911</v>
@@ -25852,10 +25862,10 @@
     </row>
     <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="B100" s="43" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C100" s="57">
         <v>44911</v>
@@ -25868,10 +25878,10 @@
     </row>
     <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="43" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="B101" s="43" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C101" s="57">
         <v>44911</v>
@@ -25892,10 +25902,10 @@
     </row>
     <row r="103" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="43" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="B103" s="43" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C103" s="57">
         <v>44911</v>
@@ -25908,10 +25918,10 @@
     </row>
     <row r="104" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="43" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="B104" s="43" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C104" s="57">
         <v>44911</v>
@@ -25924,10 +25934,10 @@
     </row>
     <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="43" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="B105" s="43" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C105" s="57">
         <v>44911</v>
@@ -25940,10 +25950,10 @@
     </row>
     <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="43" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="B106" s="43" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C106" s="57">
         <v>44911</v>
@@ -25956,10 +25966,10 @@
     </row>
     <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="43" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="B107" s="43" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C107" s="57">
         <v>44911</v>
@@ -25972,10 +25982,10 @@
     </row>
     <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="43" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="B108" s="43" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C108" s="57">
         <v>44911</v>
@@ -25996,10 +26006,10 @@
     </row>
     <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="43" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="B110" s="43" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="C110" s="57">
         <v>44911</v>
@@ -26012,10 +26022,10 @@
     </row>
     <row r="111" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="43" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="B111" s="43" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C111" s="57">
         <v>44911</v>
@@ -26028,10 +26038,10 @@
     </row>
     <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="43" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="B112" s="43" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="C112" s="57">
         <v>44911</v>
@@ -26044,10 +26054,10 @@
     </row>
     <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="43" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="B113" s="43" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C113" s="57">
         <v>44911</v>
@@ -26060,10 +26070,10 @@
     </row>
     <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="43" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="B114" s="43" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="C114" s="57">
         <v>44911</v>
@@ -26076,10 +26086,10 @@
     </row>
     <row r="115" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="43" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="B115" s="43" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C115" s="57">
         <v>44911</v>
@@ -26100,10 +26110,10 @@
     </row>
     <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="43" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="B117" s="43" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C117" s="57">
         <v>44911</v>
@@ -26116,10 +26126,10 @@
     </row>
     <row r="118" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="43" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="B118" s="43" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C118" s="57">
         <v>44911</v>
@@ -26132,10 +26142,10 @@
     </row>
     <row r="119" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="43" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="B119" s="43" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C119" s="57">
         <v>44911</v>
@@ -26148,10 +26158,10 @@
     </row>
     <row r="120" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="43" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="B120" s="43" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C120" s="57">
         <v>44911</v>
@@ -26164,10 +26174,10 @@
     </row>
     <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="43" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="B121" s="43" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C121" s="57">
         <v>44911</v>
@@ -26180,10 +26190,10 @@
     </row>
     <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="43" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="B122" s="43" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C122" s="57">
         <v>44911</v>
@@ -26204,10 +26214,10 @@
     </row>
     <row r="124" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="43" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="B124" s="43" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C124" s="57">
         <v>44911</v>
@@ -26220,10 +26230,10 @@
     </row>
     <row r="125" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="43" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="B125" s="43" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C125" s="57">
         <v>44911</v>
@@ -26236,10 +26246,10 @@
     </row>
     <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="43" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="B126" s="43" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C126" s="57">
         <v>44911</v>
@@ -26252,10 +26262,10 @@
     </row>
     <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="43" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="B127" s="43" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C127" s="57">
         <v>44911</v>
@@ -26268,10 +26278,10 @@
     </row>
     <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="43" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="B128" s="43" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C128" s="57">
         <v>44911</v>
@@ -26284,10 +26294,10 @@
     </row>
     <row r="129" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="43" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="B129" s="43" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C129" s="57">
         <v>44911</v>
@@ -26308,10 +26318,10 @@
     </row>
     <row r="131" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="43" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="B131" s="43" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="C131" s="43"/>
       <c r="D131" s="43"/>
@@ -26320,10 +26330,10 @@
     </row>
     <row r="132" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="43" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="B132" s="43" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="C132" s="43"/>
       <c r="D132" s="43"/>
@@ -26332,10 +26342,10 @@
     </row>
     <row r="133" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="43" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="B133" s="43" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C133" s="43"/>
       <c r="D133" s="43"/>
@@ -26344,10 +26354,10 @@
     </row>
     <row r="134" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="43" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="B134" s="43" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="C134" s="43"/>
       <c r="D134" s="43"/>
@@ -26356,10 +26366,10 @@
     </row>
     <row r="135" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="43" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="B135" s="43" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="C135" s="43"/>
       <c r="D135" s="43"/>
@@ -26368,10 +26378,10 @@
     </row>
     <row r="136" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="43" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="B136" s="43" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="C136" s="43"/>
       <c r="D136" s="43"/>
@@ -26381,10 +26391,10 @@
     </row>
     <row r="137" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="43" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="B137" s="43" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="C137" s="43"/>
       <c r="D137" s="43"/>
@@ -26394,10 +26404,10 @@
     </row>
     <row r="138" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="43" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="B138" s="43" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="C138" s="43"/>
       <c r="D138" s="43"/>
@@ -26416,10 +26426,10 @@
     </row>
     <row r="140" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="43" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="B140" s="43" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="C140" s="57">
         <v>44911</v>
@@ -26432,15 +26442,15 @@
       </c>
       <c r="F140" s="43"/>
       <c r="G140" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="43" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="B141" s="43" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C141" s="57">
         <v>44911</v>
@@ -26455,10 +26465,10 @@
     </row>
     <row r="142" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="43" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="B142" s="43" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="C142" s="57">
         <v>44911</v>
@@ -26473,10 +26483,10 @@
     </row>
     <row r="143" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="43" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="B143" s="43" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="C143" s="57">
         <v>44911</v>
@@ -26491,10 +26501,10 @@
     </row>
     <row r="144" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="43" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="B144" s="43" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C144" s="57">
         <v>44911</v>
@@ -26509,10 +26519,10 @@
     </row>
     <row r="145" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="43" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B145" s="43" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="C145" s="57">
         <v>44911</v>
@@ -26528,10 +26538,10 @@
     </row>
     <row r="146" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="43" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="B146" s="43" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="C146" s="57">
         <v>44911</v>
@@ -26547,10 +26557,10 @@
     </row>
     <row r="147" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="43" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="B147" s="43" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="C147" s="57">
         <v>44911</v>
@@ -26575,10 +26585,10 @@
     </row>
     <row r="149" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="43" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="B149" s="43" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="C149" s="43"/>
       <c r="D149" s="43"/>
@@ -26588,10 +26598,10 @@
     </row>
     <row r="150" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="43" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="B150" s="43" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="C150" s="57">
         <v>44911</v>
@@ -26602,7 +26612,7 @@
       <c r="E150" s="43"/>
       <c r="F150" s="43"/>
       <c r="G150" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -26616,37 +26626,37 @@
     </row>
     <row r="152" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="43" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="B152" s="47" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="C152" s="47"/>
       <c r="D152" s="47"/>
       <c r="E152" s="47"/>
       <c r="F152" s="47"/>
       <c r="G152" s="43" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="43" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="B153" s="47" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="C153" s="47"/>
       <c r="D153" s="47"/>
       <c r="E153" s="47"/>
       <c r="F153" s="47"/>
       <c r="G153" s="43" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A154" s="10" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
@@ -26657,10 +26667,10 @@
     </row>
     <row r="155" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="58" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="B155" s="43" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="C155" s="57">
         <v>44911</v>
@@ -26670,18 +26680,18 @@
       </c>
       <c r="E155" s="43"/>
       <c r="F155" s="41" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="G155" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="58" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="B156" s="43" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="C156" s="57">
         <v>44911</v>
@@ -26694,10 +26704,10 @@
     </row>
     <row r="157" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="58" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="B157" s="43" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="C157" s="57">
         <v>44911</v>
@@ -26718,10 +26728,10 @@
     </row>
     <row r="159" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="58" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="B159" s="58" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C159" s="57">
         <v>44911</v>
@@ -26734,10 +26744,10 @@
     </row>
     <row r="160" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="58" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="B160" s="58" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C160" s="57">
         <v>44911</v>
@@ -26750,10 +26760,10 @@
     </row>
     <row r="161" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="58" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="B161" s="58" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C161" s="57">
         <v>44911</v>
@@ -26766,10 +26776,10 @@
     </row>
     <row r="162" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="58" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="B162" s="58" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C162" s="57">
         <v>44911</v>
@@ -26782,10 +26792,10 @@
     </row>
     <row r="163" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="58" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="B163" s="58" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C163" s="57">
         <v>44911</v>
@@ -26798,10 +26808,10 @@
     </row>
     <row r="164" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="58" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="B164" s="58" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C164" s="57">
         <v>44911</v>
@@ -26822,10 +26832,10 @@
     </row>
     <row r="166" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="58" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="B166" s="58" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="C166" s="57">
         <v>44911</v>
@@ -26838,10 +26848,10 @@
     </row>
     <row r="167" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="58" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="B167" s="58" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C167" s="57">
         <v>44911</v>
@@ -26854,10 +26864,10 @@
     </row>
     <row r="168" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="58" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="B168" s="58" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="C168" s="57">
         <v>44911</v>
@@ -26870,10 +26880,10 @@
     </row>
     <row r="169" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="58" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="B169" s="58" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C169" s="57">
         <v>44911</v>
@@ -26886,10 +26896,10 @@
     </row>
     <row r="170" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="58" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="B170" s="58" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C170" s="57">
         <v>44911</v>
@@ -26902,10 +26912,10 @@
     </row>
     <row r="171" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="58" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="B171" s="58" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C171" s="57">
         <v>44911</v>
@@ -26926,10 +26936,10 @@
     </row>
     <row r="173" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="58" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="B173" s="58" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C173" s="57">
         <v>44911</v>
@@ -26942,10 +26952,10 @@
     </row>
     <row r="174" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="58" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="B174" s="58" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C174" s="57">
         <v>44911</v>
@@ -26958,10 +26968,10 @@
     </row>
     <row r="175" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="58" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="B175" s="58" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C175" s="57">
         <v>44911</v>
@@ -26974,10 +26984,10 @@
     </row>
     <row r="176" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="58" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="B176" s="58" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C176" s="57">
         <v>44911</v>
@@ -26990,10 +27000,10 @@
     </row>
     <row r="177" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="58" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="B177" s="58" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="C177" s="57">
         <v>44911</v>
@@ -27006,10 +27016,10 @@
     </row>
     <row r="178" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="58" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="B178" s="58" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C178" s="57">
         <v>44911</v>
@@ -27030,10 +27040,10 @@
     </row>
     <row r="180" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="58" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="B180" s="58" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="C180" s="57">
         <v>44911</v>
@@ -27046,10 +27056,10 @@
     </row>
     <row r="181" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="58" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="B181" s="58" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C181" s="57">
         <v>44911</v>
@@ -27062,10 +27072,10 @@
     </row>
     <row r="182" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="58" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="B182" s="58" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="C182" s="57">
         <v>44911</v>
@@ -27078,10 +27088,10 @@
     </row>
     <row r="183" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="58" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="B183" s="58" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C183" s="57">
         <v>44911</v>
@@ -27094,10 +27104,10 @@
     </row>
     <row r="184" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="58" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="B184" s="58" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C184" s="57">
         <v>44911</v>
@@ -27110,10 +27120,10 @@
     </row>
     <row r="185" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="58" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="B185" s="58" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C185" s="57">
         <v>44911</v>
@@ -27134,10 +27144,10 @@
     </row>
     <row r="187" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="43" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="B187" s="43" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="C187" s="43"/>
       <c r="D187" s="43"/>
@@ -27146,10 +27156,10 @@
     </row>
     <row r="188" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="43" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="B188" s="43" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="C188" s="43"/>
       <c r="D188" s="43"/>
@@ -27158,10 +27168,10 @@
     </row>
     <row r="189" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="43" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="B189" s="43" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C189" s="43"/>
       <c r="D189" s="43"/>
@@ -27170,10 +27180,10 @@
     </row>
     <row r="190" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="43" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="B190" s="43" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="C190" s="43"/>
       <c r="D190" s="43"/>
@@ -27182,10 +27192,10 @@
     </row>
     <row r="191" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="43" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="B191" s="43" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="C191" s="43"/>
       <c r="D191" s="43"/>
@@ -27194,10 +27204,10 @@
     </row>
     <row r="192" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="43" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="B192" s="43" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="C192" s="43"/>
       <c r="D192" s="43"/>
@@ -27206,10 +27216,10 @@
     </row>
     <row r="193" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="43" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="B193" s="43" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="C193" s="43"/>
       <c r="D193" s="43"/>
@@ -27226,10 +27236,10 @@
     </row>
     <row r="195" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="43" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="B195" s="43" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="C195" s="43"/>
       <c r="D195" s="43"/>
@@ -27238,10 +27248,10 @@
     </row>
     <row r="196" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="58" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="B196" s="43" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="C196" s="57">
         <v>44911</v>
@@ -27252,7 +27262,7 @@
       <c r="E196" s="43"/>
       <c r="F196" s="43"/>
       <c r="G196" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -27265,22 +27275,22 @@
     </row>
     <row r="198" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="43" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="B198" s="47" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="C198" s="47"/>
       <c r="D198" s="47"/>
       <c r="E198" s="47"/>
       <c r="F198" s="47"/>
       <c r="G198" s="43" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A200" s="10" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
@@ -27291,10 +27301,10 @@
     </row>
     <row r="201" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="58" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="B201" s="58" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="C201" s="57">
         <v>44911</v>
@@ -27304,18 +27314,18 @@
       </c>
       <c r="E201" s="58"/>
       <c r="F201" s="41" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="G201" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="58" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="B202" s="58" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="C202" s="57">
         <v>44911</v>
@@ -27328,10 +27338,10 @@
     </row>
     <row r="203" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="58" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="B203" s="43" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="C203" s="57">
         <v>44911</v>
@@ -27352,10 +27362,10 @@
     </row>
     <row r="205" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="58" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="B205" s="58" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="C205" s="57">
         <v>44911</v>
@@ -27368,10 +27378,10 @@
     </row>
     <row r="206" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" s="58" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="B206" s="58" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C206" s="57">
         <v>44911</v>
@@ -27384,10 +27394,10 @@
     </row>
     <row r="207" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" s="58" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="B207" s="58" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="C207" s="57">
         <v>44911</v>
@@ -27400,10 +27410,10 @@
     </row>
     <row r="208" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" s="58" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="B208" s="58" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C208" s="57">
         <v>44911</v>
@@ -27416,10 +27426,10 @@
     </row>
     <row r="209" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" s="58" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="B209" s="58" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="C209" s="57">
         <v>44911</v>
@@ -27432,10 +27442,10 @@
     </row>
     <row r="210" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" s="58" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="B210" s="58" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C210" s="57">
         <v>44911</v>
@@ -27456,10 +27466,10 @@
     </row>
     <row r="212" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" s="58" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="B212" s="58" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C212" s="57">
         <v>44911</v>
@@ -27472,10 +27482,10 @@
     </row>
     <row r="213" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" s="58" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="B213" s="58" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C213" s="57">
         <v>44911</v>
@@ -27488,10 +27498,10 @@
     </row>
     <row r="214" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" s="58" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="B214" s="58" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C214" s="57">
         <v>44911</v>
@@ -27504,10 +27514,10 @@
     </row>
     <row r="215" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" s="58" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="B215" s="58" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C215" s="57">
         <v>44911</v>
@@ -27520,10 +27530,10 @@
     </row>
     <row r="216" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" s="58" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="B216" s="58" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="C216" s="57">
         <v>44911</v>
@@ -27536,10 +27546,10 @@
     </row>
     <row r="217" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" s="58" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="B217" s="58" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C217" s="57">
         <v>44911</v>
@@ -27560,10 +27570,10 @@
     </row>
     <row r="219" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A219" s="58" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="B219" s="58" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="C219" s="57">
         <v>44911</v>
@@ -27576,10 +27586,10 @@
     </row>
     <row r="220" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A220" s="58" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="B220" s="58" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C220" s="57">
         <v>44911</v>
@@ -27592,10 +27602,10 @@
     </row>
     <row r="221" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" s="58" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="B221" s="58" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="C221" s="57">
         <v>44911</v>
@@ -27608,10 +27618,10 @@
     </row>
     <row r="222" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" s="58" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="B222" s="58" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C222" s="57">
         <v>44911</v>
@@ -27624,10 +27634,10 @@
     </row>
     <row r="223" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" s="58" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="B223" s="58" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C223" s="57">
         <v>44911</v>
@@ -27640,10 +27650,10 @@
     </row>
     <row r="224" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" s="58" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="B224" s="58" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C224" s="57">
         <v>44911</v>
@@ -27664,10 +27674,10 @@
     </row>
     <row r="226" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A226" s="58" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="B226" s="58" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C226" s="57">
         <v>44911</v>
@@ -27680,10 +27690,10 @@
     </row>
     <row r="227" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" s="58" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="B227" s="58" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C227" s="57">
         <v>44911</v>
@@ -27696,10 +27706,10 @@
     </row>
     <row r="228" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A228" s="58" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="B228" s="58" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C228" s="57">
         <v>44911</v>
@@ -27712,10 +27722,10 @@
     </row>
     <row r="229" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" s="58" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="B229" s="58" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C229" s="57">
         <v>44911</v>
@@ -27728,10 +27738,10 @@
     </row>
     <row r="230" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" s="58" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="B230" s="58" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="C230" s="57">
         <v>44911</v>
@@ -27744,10 +27754,10 @@
     </row>
     <row r="231" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" s="58" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="B231" s="58" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C231" s="57">
         <v>44911</v>
@@ -27768,10 +27778,10 @@
     </row>
     <row r="233" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" s="58" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="B233" s="58" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="C233" s="57">
         <v>44911</v>
@@ -27784,10 +27794,10 @@
     </row>
     <row r="234" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" s="58" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="B234" s="58" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C234" s="57">
         <v>44911</v>
@@ -27800,10 +27810,10 @@
     </row>
     <row r="235" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A235" s="58" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="B235" s="58" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="C235" s="57">
         <v>44911</v>
@@ -27816,10 +27826,10 @@
     </row>
     <row r="236" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A236" s="58" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="B236" s="58" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C236" s="57">
         <v>44911</v>
@@ -27832,10 +27842,10 @@
     </row>
     <row r="237" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A237" s="58" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="B237" s="58" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C237" s="57">
         <v>44911</v>
@@ -27848,10 +27858,10 @@
     </row>
     <row r="238" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" s="58" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="B238" s="58" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C238" s="57">
         <v>44911</v>
@@ -27872,10 +27882,10 @@
     </row>
     <row r="240" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" s="58" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="B240" s="58" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C240" s="57">
         <v>44911</v>
@@ -27888,10 +27898,10 @@
     </row>
     <row r="241" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A241" s="58" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="B241" s="58" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C241" s="57">
         <v>44911</v>
@@ -27904,10 +27914,10 @@
     </row>
     <row r="242" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A242" s="58" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="B242" s="58" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C242" s="57">
         <v>44911</v>
@@ -27920,10 +27930,10 @@
     </row>
     <row r="243" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A243" s="58" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="B243" s="58" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C243" s="57">
         <v>44911</v>
@@ -27936,10 +27946,10 @@
     </row>
     <row r="244" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A244" s="58" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="B244" s="58" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C244" s="57">
         <v>44911</v>
@@ -27952,10 +27962,10 @@
     </row>
     <row r="245" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A245" s="58" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="B245" s="58" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C245" s="57">
         <v>44911</v>
@@ -27976,10 +27986,10 @@
     </row>
     <row r="247" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A247" s="58" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="B247" s="58" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="C247" s="57">
         <v>44911</v>
@@ -27992,10 +28002,10 @@
     </row>
     <row r="248" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" s="58" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="B248" s="58" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C248" s="57">
         <v>44911</v>
@@ -28008,10 +28018,10 @@
     </row>
     <row r="249" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A249" s="58" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="B249" s="58" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="C249" s="57">
         <v>44911</v>
@@ -28024,10 +28034,10 @@
     </row>
     <row r="250" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A250" s="58" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="B250" s="58" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C250" s="57">
         <v>44911</v>
@@ -28040,10 +28050,10 @@
     </row>
     <row r="251" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A251" s="58" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="B251" s="58" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C251" s="57">
         <v>44911</v>
@@ -28056,10 +28066,10 @@
     </row>
     <row r="252" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A252" s="58" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="B252" s="58" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C252" s="57">
         <v>44911</v>
@@ -28080,10 +28090,10 @@
     </row>
     <row r="254" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" s="58" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="B254" s="58" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C254" s="57">
         <v>44911</v>
@@ -28096,10 +28106,10 @@
     </row>
     <row r="255" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A255" s="58" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="B255" s="58" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C255" s="57">
         <v>44911</v>
@@ -28112,10 +28122,10 @@
     </row>
     <row r="256" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A256" s="58" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="B256" s="58" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C256" s="57">
         <v>44911</v>
@@ -28128,10 +28138,10 @@
     </row>
     <row r="257" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A257" s="58" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="B257" s="58" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C257" s="57">
         <v>44911</v>
@@ -28144,10 +28154,10 @@
     </row>
     <row r="258" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A258" s="58" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="B258" s="58" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="C258" s="57">
         <v>44911</v>
@@ -28160,10 +28170,10 @@
     </row>
     <row r="259" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A259" s="58" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="B259" s="58" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C259" s="57">
         <v>44911</v>
@@ -28184,10 +28194,10 @@
     </row>
     <row r="261" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="43" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="B261" s="43" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="C261" s="43"/>
       <c r="D261" s="43"/>
@@ -28196,10 +28206,10 @@
     </row>
     <row r="262" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="43" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="B262" s="43" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="C262" s="43"/>
       <c r="D262" s="43"/>
@@ -28208,10 +28218,10 @@
     </row>
     <row r="263" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="43" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="B263" s="43" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="C263" s="43"/>
       <c r="D263" s="43"/>
@@ -28220,10 +28230,10 @@
     </row>
     <row r="264" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="43" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="B264" s="43" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="C264" s="43"/>
       <c r="D264" s="43"/>
@@ -28240,10 +28250,10 @@
     </row>
     <row r="266" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="43" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="B266" s="43" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="C266" s="43"/>
       <c r="D266" s="43"/>
@@ -28252,10 +28262,10 @@
     </row>
     <row r="267" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A267" s="58" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="B267" s="43" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="C267" s="57">
         <v>44911</v>
@@ -28266,7 +28276,7 @@
       <c r="E267" s="43"/>
       <c r="F267" s="43"/>
       <c r="G267" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -28279,32 +28289,32 @@
     </row>
     <row r="269" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="43" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="B269" s="47" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="C269" s="47"/>
       <c r="D269" s="47"/>
       <c r="E269" s="47"/>
       <c r="F269" s="47"/>
       <c r="G269" s="43" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="43" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="B270" s="47" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="C270" s="47"/>
       <c r="D270" s="47"/>
       <c r="E270" s="47"/>
       <c r="F270" s="47"/>
       <c r="G270" s="43" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -28317,10 +28327,10 @@
     </row>
     <row r="272" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="43" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="B272" s="43" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="C272" s="43"/>
       <c r="D272" s="43"/>
@@ -28329,7 +28339,7 @@
     </row>
     <row r="274" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A274" s="10" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="B274" s="10"/>
       <c r="C274" s="10"/>
@@ -28340,10 +28350,10 @@
     </row>
     <row r="275" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A275" s="58" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="B275" s="43" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="C275" s="57">
         <v>44911</v>
@@ -28353,18 +28363,18 @@
       </c>
       <c r="E275" s="43"/>
       <c r="F275" s="41" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="G275" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A276" s="58" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="B276" s="43" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="C276" s="57">
         <v>44911</v>
@@ -28385,10 +28395,10 @@
     </row>
     <row r="278" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A278" s="58" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="B278" s="58" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C278" s="57">
         <v>44911</v>
@@ -28401,10 +28411,10 @@
     </row>
     <row r="279" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A279" s="58" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="B279" s="58" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C279" s="57">
         <v>44911</v>
@@ -28417,10 +28427,10 @@
     </row>
     <row r="280" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A280" s="58" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="B280" s="58" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C280" s="57">
         <v>44911</v>
@@ -28433,10 +28443,10 @@
     </row>
     <row r="281" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A281" s="58" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="B281" s="58" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C281" s="57">
         <v>44911</v>
@@ -28457,10 +28467,10 @@
     </row>
     <row r="283" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A283" s="58" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="B283" s="58" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="C283" s="57">
         <v>44911</v>
@@ -28473,10 +28483,10 @@
     </row>
     <row r="284" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A284" s="58" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="B284" s="58" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C284" s="57">
         <v>44911</v>
@@ -28489,10 +28499,10 @@
     </row>
     <row r="285" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A285" s="58" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="B285" s="58" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C285" s="57">
         <v>44911</v>
@@ -28505,10 +28515,10 @@
     </row>
     <row r="286" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A286" s="58" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="B286" s="58" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C286" s="57">
         <v>44911</v>
@@ -28529,10 +28539,10 @@
     </row>
     <row r="288" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A288" s="58" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="B288" s="58" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C288" s="57">
         <v>44911</v>
@@ -28545,10 +28555,10 @@
     </row>
     <row r="289" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A289" s="58" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="B289" s="58" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C289" s="57">
         <v>44911</v>
@@ -28561,10 +28571,10 @@
     </row>
     <row r="290" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A290" s="58" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="B290" s="58" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="C290" s="57">
         <v>44911</v>
@@ -28577,10 +28587,10 @@
     </row>
     <row r="291" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A291" s="58" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="B291" s="58" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C291" s="57">
         <v>44911</v>
@@ -28601,10 +28611,10 @@
     </row>
     <row r="293" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A293" s="58" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="B293" s="58" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="C293" s="57">
         <v>44911</v>
@@ -28617,10 +28627,10 @@
     </row>
     <row r="294" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A294" s="58" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="B294" s="58" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C294" s="57">
         <v>44911</v>
@@ -28633,10 +28643,10 @@
     </row>
     <row r="295" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A295" s="58" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="B295" s="58" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C295" s="57">
         <v>44911</v>
@@ -28649,10 +28659,10 @@
     </row>
     <row r="296" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A296" s="58" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="B296" s="58" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C296" s="57">
         <v>44911</v>
@@ -28673,10 +28683,10 @@
     </row>
     <row r="298" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="43" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="B298" s="43" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C298" s="43"/>
       <c r="D298" s="43"/>
@@ -28685,10 +28695,10 @@
     </row>
     <row r="299" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="43" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="B299" s="43" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="C299" s="43"/>
       <c r="D299" s="43"/>
@@ -28697,10 +28707,10 @@
     </row>
     <row r="300" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="43" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="B300" s="43" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="C300" s="43"/>
       <c r="D300" s="43"/>
@@ -28709,10 +28719,10 @@
     </row>
     <row r="301" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="43" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="B301" s="43" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="C301" s="43"/>
       <c r="D301" s="43"/>
@@ -28721,10 +28731,10 @@
     </row>
     <row r="302" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="43" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="B302" s="43" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="C302" s="43"/>
       <c r="D302" s="43"/>
@@ -28741,10 +28751,10 @@
     </row>
     <row r="304" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="43" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="B304" s="43" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="C304" s="43"/>
       <c r="D304" s="43"/>
@@ -28753,10 +28763,10 @@
     </row>
     <row r="305" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A305" s="58" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="B305" s="58" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="C305" s="57">
         <v>44911</v>
@@ -28767,7 +28777,7 @@
       <c r="E305" s="58"/>
       <c r="F305" s="58"/>
       <c r="G305" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
     </row>
   </sheetData>
@@ -29019,16 +29029,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{905EC822-C85D-4815-A526-0083FD207757}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="8ee4a0ce-e9c8-448f-95e8-0be97c8ae141"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="8ee4a0ce-e9c8-448f-95e8-0be97c8ae141"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="52308ad5-aa2d-4701-bd11-5edd481a7970"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/spec-tokens.xlsx
+++ b/spec-tokens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garthdb/Spectrum/spectrum-tokens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69660F6B-6B26-B449-A15E-2BD1B3EA8305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5570A42F-EE46-8246-8370-617943A6A247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8020" yWindow="500" windowWidth="39100" windowHeight="28300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8020" yWindow="500" windowWidth="39100" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Layout" sheetId="1" r:id="rId1"/>
@@ -2045,34 +2045,16 @@
     <t>color-loupe-height</t>
   </si>
   <si>
-    <t>64 px (Spectrum / desktop and mobile)
-40 px (Express / desktop)
-50 px (Express / mobile)</t>
-  </si>
-  <si>
     <t>color-loupe-width</t>
   </si>
   <si>
-    <t>48 px (Spectrum / desktop and mobile)
-32 px (Express / desktop)
-40 px (Express/ mobile)</t>
-  </si>
-  <si>
     <t>color-loupe-bottom-to-color-handle</t>
   </si>
   <si>
-    <t>12 px (Spectrum)
-6 px (Express)</t>
-  </si>
-  <si>
     <t>color-loupe-outer-border-width</t>
   </si>
   <si>
     <t>color-loupe-inner-border-width</t>
-  </si>
-  <si>
-    <t>border-width-200 (Spectrum)
-3 px (Express)</t>
   </si>
   <si>
     <t>Cards</t>
@@ -6134,15 +6116,54 @@
   </si>
   <si>
     <t>code-color</t>
+  </si>
+  <si>
+    <t>64 px (Spectrum)
+40 px (Spectrum Express / desktop)
+50 px (Spectrum Express / mobile)</t>
+  </si>
+  <si>
+    <t>12 px (Spectrum)
+6 px (Spectrum Express)</t>
+  </si>
+  <si>
+    <t>border-width-200 (Spectrum)
+3 px (Spectrum Express)</t>
+  </si>
+  <si>
+    <t>48 px (Spectrum)
+32 px (Spectrum Express / desktop)
+40 px (Spectrum Express / mobile)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -6390,15 +6411,137 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -6409,176 +6552,63 @@
     <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10440,7 +10470,7 @@
       <c r="I185" s="45"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F159" r:id="rId1" xr:uid="{E0B74BCF-941C-4091-92A3-D60AD28A5E37}"/>
   </hyperlinks>
@@ -10453,9 +10483,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2BE219-7E9B-451A-BD2E-F86DF4EBA445}">
   <dimension ref="A1:I373"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A356" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F379" sqref="F379"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B357" sqref="B357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13802,7 +13832,7 @@
       <c r="A203" s="45" t="s">
         <v>419</v>
       </c>
-      <c r="B203" s="46" t="s">
+      <c r="B203" s="67" t="s">
         <v>420</v>
       </c>
       <c r="C203" s="47">
@@ -16434,8 +16464,8 @@
       <c r="A356" s="45" t="s">
         <v>599</v>
       </c>
-      <c r="B356" s="46" t="s">
-        <v>600</v>
+      <c r="B356" s="66" t="s">
+        <v>1696</v>
       </c>
       <c r="C356" s="47">
         <v>44943</v>
@@ -16451,10 +16481,10 @@
     </row>
     <row r="357" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A357" s="45" t="s">
-        <v>601</v>
-      </c>
-      <c r="B357" s="46" t="s">
-        <v>602</v>
+        <v>600</v>
+      </c>
+      <c r="B357" s="68" t="s">
+        <v>1699</v>
       </c>
       <c r="C357" s="47">
         <v>44943</v>
@@ -16470,10 +16500,10 @@
     </row>
     <row r="358" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A358" s="45" t="s">
-        <v>603</v>
-      </c>
-      <c r="B358" s="46" t="s">
-        <v>604</v>
+        <v>601</v>
+      </c>
+      <c r="B358" s="66" t="s">
+        <v>1697</v>
       </c>
       <c r="C358" s="47">
         <v>44943</v>
@@ -16489,7 +16519,7 @@
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A359" s="45" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B359" s="45" t="s">
         <v>90</v>
@@ -16508,10 +16538,10 @@
     </row>
     <row r="360" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A360" s="45" t="s">
-        <v>606</v>
-      </c>
-      <c r="B360" s="46" t="s">
-        <v>607</v>
+        <v>603</v>
+      </c>
+      <c r="B360" s="66" t="s">
+        <v>1698</v>
       </c>
       <c r="C360" s="47">
         <v>44943</v>
@@ -16527,7 +16557,7 @@
     </row>
     <row r="361" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A361" s="10" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B361" s="10"/>
       <c r="C361" s="10"/>
@@ -16540,10 +16570,10 @@
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A362" s="45" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B362" s="45" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C362" s="5">
         <v>44946</v>
@@ -16559,10 +16589,10 @@
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A363" s="45" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B363" s="45" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C363" s="5">
         <v>44946</v>
@@ -16578,7 +16608,7 @@
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A364" s="45" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B364" s="45" t="s">
         <v>50</v>
@@ -16608,7 +16638,7 @@
     </row>
     <row r="366" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A366" s="10" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B366" s="10"/>
       <c r="C366" s="10"/>
@@ -16621,10 +16651,10 @@
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A367" s="45" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B367" s="45" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C367" s="47">
         <v>44964</v>
@@ -16640,7 +16670,7 @@
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A368" s="45" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B368" s="45" t="s">
         <v>588</v>
@@ -16659,10 +16689,10 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="45" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B369" s="45" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C369" s="47">
         <v>44964</v>
@@ -16673,7 +16703,7 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="45" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B370" s="45" t="s">
         <v>92</v>
@@ -16687,7 +16717,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="45" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B371" s="45" t="s">
         <v>591</v>
@@ -16701,7 +16731,7 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="45" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B372" s="45" t="s">
         <v>593</v>
@@ -16715,7 +16745,7 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="45" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B373" s="45" t="s">
         <v>595</v>
@@ -16785,10 +16815,10 @@
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C3" s="5">
         <v>44635</v>
@@ -16811,10 +16841,10 @@
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C5" s="5">
         <v>44770</v>
@@ -16829,10 +16859,10 @@
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C6" s="5">
         <v>44635</v>
@@ -16847,10 +16877,10 @@
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C7" s="5">
         <v>44635</v>
@@ -16865,10 +16895,10 @@
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C8" s="5">
         <v>44635</v>
@@ -16883,10 +16913,10 @@
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C9" s="5">
         <v>44635</v>
@@ -16901,10 +16931,10 @@
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C10" s="5">
         <v>44635</v>
@@ -16919,10 +16949,10 @@
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C11" s="5">
         <v>44635</v>
@@ -16937,10 +16967,10 @@
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C12" s="5">
         <v>44635</v>
@@ -16955,10 +16985,10 @@
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C13" s="5">
         <v>44635</v>
@@ -16977,10 +17007,10 @@
     </row>
     <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C15" s="5">
         <v>44635</v>
@@ -17003,10 +17033,10 @@
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C17" s="5">
         <v>44770</v>
@@ -17021,10 +17051,10 @@
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C18" s="5">
         <v>44635</v>
@@ -17039,10 +17069,10 @@
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C19" s="5">
         <v>44635</v>
@@ -17057,10 +17087,10 @@
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C20" s="5">
         <v>44635</v>
@@ -17075,10 +17105,10 @@
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C21" s="5">
         <v>44635</v>
@@ -17093,10 +17123,10 @@
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C22" s="5">
         <v>44635</v>
@@ -17111,10 +17141,10 @@
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C23" s="5">
         <v>44635</v>
@@ -17129,10 +17159,10 @@
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C24" s="5">
         <v>44635</v>
@@ -17147,10 +17177,10 @@
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C25" s="5">
         <v>44635</v>
@@ -17169,10 +17199,10 @@
     </row>
     <row r="27" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C27" s="5">
         <v>44648</v>
@@ -17184,15 +17214,15 @@
         <v>10</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C28" s="5">
         <v>44648</v>
@@ -17204,15 +17234,15 @@
         <v>10</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C29" s="5">
         <v>44648</v>
@@ -17224,15 +17254,15 @@
         <v>10</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C30" s="5">
         <v>44648</v>
@@ -17244,15 +17274,15 @@
         <v>10</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C31" s="5">
         <v>44648</v>
@@ -17264,15 +17294,15 @@
         <v>10</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C32" s="5">
         <v>44648</v>
@@ -17284,15 +17314,15 @@
         <v>10</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C33" s="5">
         <v>44648</v>
@@ -17304,15 +17334,15 @@
         <v>10</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C34" s="5">
         <v>44648</v>
@@ -17324,15 +17354,15 @@
         <v>10</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C35" s="5">
         <v>44648</v>
@@ -17344,15 +17374,15 @@
         <v>10</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C36" s="5">
         <v>44648</v>
@@ -17364,15 +17394,15 @@
         <v>10</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C37" s="5">
         <v>44648</v>
@@ -17384,7 +17414,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -17395,10 +17425,10 @@
     </row>
     <row r="39" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C39" s="18">
         <v>44648</v>
@@ -17410,15 +17440,15 @@
         <v>10</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C40" s="18">
         <v>44648</v>
@@ -17430,15 +17460,15 @@
         <v>10</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C41" s="18">
         <v>44648</v>
@@ -17450,15 +17480,15 @@
         <v>10</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C42" s="18">
         <v>44648</v>
@@ -17470,15 +17500,15 @@
         <v>10</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C43" s="18">
         <v>44648</v>
@@ -17490,15 +17520,15 @@
         <v>10</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C44" s="18">
         <v>44648</v>
@@ -17510,15 +17540,15 @@
         <v>10</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C45" s="18">
         <v>44648</v>
@@ -17530,15 +17560,15 @@
         <v>10</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C46" s="18">
         <v>44648</v>
@@ -17550,15 +17580,15 @@
         <v>10</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C47" s="18">
         <v>44648</v>
@@ -17570,15 +17600,15 @@
         <v>10</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C48" s="18">
         <v>44648</v>
@@ -17590,15 +17620,15 @@
         <v>10</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C49" s="18">
         <v>44648</v>
@@ -17610,15 +17640,15 @@
         <v>10</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C50" s="18">
         <v>44648</v>
@@ -17630,15 +17660,15 @@
         <v>10</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C51" s="18">
         <v>44648</v>
@@ -17650,15 +17680,15 @@
         <v>10</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C52" s="18">
         <v>44648</v>
@@ -17670,7 +17700,7 @@
         <v>10</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -17681,10 +17711,10 @@
     </row>
     <row r="54" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="3"/>
@@ -17695,10 +17725,10 @@
     </row>
     <row r="55" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="3"/>
@@ -17709,10 +17739,10 @@
     </row>
     <row r="56" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="3"/>
@@ -17723,10 +17753,10 @@
     </row>
     <row r="57" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="3"/>
@@ -17737,10 +17767,10 @@
     </row>
     <row r="58" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="3"/>
@@ -17751,10 +17781,10 @@
     </row>
     <row r="59" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="3"/>
@@ -17764,10 +17794,10 @@
     </row>
     <row r="60" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="3"/>
@@ -17778,10 +17808,10 @@
     </row>
     <row r="61" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="3"/>
@@ -17792,10 +17822,10 @@
     </row>
     <row r="62" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="3"/>
@@ -17806,10 +17836,10 @@
     </row>
     <row r="63" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="3"/>
@@ -17820,10 +17850,10 @@
     </row>
     <row r="64" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="3"/>
@@ -17834,10 +17864,10 @@
     </row>
     <row r="65" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="3"/>
@@ -17848,10 +17878,10 @@
     </row>
     <row r="66" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="3"/>
@@ -17862,10 +17892,10 @@
     </row>
     <row r="67" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>10</v>
@@ -17882,10 +17912,10 @@
     </row>
     <row r="69" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="3"/>
@@ -17896,10 +17926,10 @@
     </row>
     <row r="70" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="3"/>
@@ -17910,10 +17940,10 @@
     </row>
     <row r="71" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="3"/>
@@ -17924,10 +17954,10 @@
     </row>
     <row r="72" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="3"/>
@@ -17938,10 +17968,10 @@
     </row>
     <row r="73" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="3"/>
@@ -17952,10 +17982,10 @@
     </row>
     <row r="74" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="3"/>
@@ -17966,10 +17996,10 @@
     </row>
     <row r="75" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="3"/>
@@ -17980,10 +18010,10 @@
     </row>
     <row r="76" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="3"/>
@@ -17994,10 +18024,10 @@
     </row>
     <row r="77" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="3"/>
@@ -18008,10 +18038,10 @@
     </row>
     <row r="78" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="3"/>
@@ -18022,10 +18052,10 @@
     </row>
     <row r="79" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="3"/>
@@ -18036,10 +18066,10 @@
     </row>
     <row r="80" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="3"/>
@@ -18050,10 +18080,10 @@
     </row>
     <row r="81" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="3"/>
@@ -18064,10 +18094,10 @@
     </row>
     <row r="82" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>10</v>
@@ -18084,10 +18114,10 @@
     </row>
     <row r="84" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="3"/>
@@ -18098,10 +18128,10 @@
     </row>
     <row r="85" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="3"/>
@@ -18112,10 +18142,10 @@
     </row>
     <row r="86" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="3"/>
@@ -18126,10 +18156,10 @@
     </row>
     <row r="87" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="3"/>
@@ -18140,10 +18170,10 @@
     </row>
     <row r="88" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="3"/>
@@ -18154,10 +18184,10 @@
     </row>
     <row r="89" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="3"/>
@@ -18167,10 +18197,10 @@
     </row>
     <row r="90" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="3"/>
@@ -18181,10 +18211,10 @@
     </row>
     <row r="91" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="3"/>
@@ -18195,10 +18225,10 @@
     </row>
     <row r="92" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="3"/>
@@ -18209,10 +18239,10 @@
     </row>
     <row r="93" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="3"/>
@@ -18223,10 +18253,10 @@
     </row>
     <row r="94" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="3"/>
@@ -18237,10 +18267,10 @@
     </row>
     <row r="95" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="3"/>
@@ -18251,10 +18281,10 @@
     </row>
     <row r="96" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="3"/>
@@ -18265,10 +18295,10 @@
     </row>
     <row r="97" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>10</v>
@@ -18285,10 +18315,10 @@
     </row>
     <row r="99" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="3"/>
@@ -18299,10 +18329,10 @@
     </row>
     <row r="100" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="3"/>
@@ -18313,10 +18343,10 @@
     </row>
     <row r="101" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="3"/>
@@ -18327,10 +18357,10 @@
     </row>
     <row r="102" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="3"/>
@@ -18341,10 +18371,10 @@
     </row>
     <row r="103" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="3"/>
@@ -18355,10 +18385,10 @@
     </row>
     <row r="104" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="3"/>
@@ -18369,10 +18399,10 @@
     </row>
     <row r="105" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="3"/>
@@ -18383,10 +18413,10 @@
     </row>
     <row r="106" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="3"/>
@@ -18397,10 +18427,10 @@
     </row>
     <row r="107" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="3"/>
@@ -18411,10 +18441,10 @@
     </row>
     <row r="108" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="3"/>
@@ -18425,10 +18455,10 @@
     </row>
     <row r="109" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="3"/>
@@ -18439,10 +18469,10 @@
     </row>
     <row r="110" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="3"/>
@@ -18453,10 +18483,10 @@
     </row>
     <row r="111" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="3"/>
@@ -18467,10 +18497,10 @@
     </row>
     <row r="112" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>10</v>
@@ -18485,10 +18515,10 @@
     </row>
     <row r="114" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>10</v>
@@ -18497,10 +18527,10 @@
     </row>
     <row r="115" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>10</v>
@@ -18509,10 +18539,10 @@
     </row>
     <row r="116" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>10</v>
@@ -18521,10 +18551,10 @@
     </row>
     <row r="117" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>10</v>
@@ -18533,10 +18563,10 @@
     </row>
     <row r="118" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>10</v>
@@ -18545,10 +18575,10 @@
     </row>
     <row r="119" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>10</v>
@@ -18557,10 +18587,10 @@
     </row>
     <row r="120" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>10</v>
@@ -18569,10 +18599,10 @@
     </row>
     <row r="121" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>10</v>
@@ -18581,10 +18611,10 @@
     </row>
     <row r="122" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>10</v>
@@ -18593,10 +18623,10 @@
     </row>
     <row r="123" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="E123" s="5" t="s">
         <v>10</v>
@@ -18605,10 +18635,10 @@
     </row>
     <row r="124" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>10</v>
@@ -18617,10 +18647,10 @@
     </row>
     <row r="125" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>10</v>
@@ -18629,10 +18659,10 @@
     </row>
     <row r="126" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>10</v>
@@ -18641,10 +18671,10 @@
     </row>
     <row r="127" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>10</v>
@@ -18659,10 +18689,10 @@
     </row>
     <row r="129" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>10</v>
@@ -18671,10 +18701,10 @@
     </row>
     <row r="130" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="E130" s="5" t="s">
         <v>10</v>
@@ -18683,10 +18713,10 @@
     </row>
     <row r="131" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="E131" s="5" t="s">
         <v>10</v>
@@ -18695,10 +18725,10 @@
     </row>
     <row r="132" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>10</v>
@@ -18707,10 +18737,10 @@
     </row>
     <row r="133" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>10</v>
@@ -18719,10 +18749,10 @@
     </row>
     <row r="134" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>10</v>
@@ -18731,10 +18761,10 @@
     </row>
     <row r="135" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="E135" s="5" t="s">
         <v>10</v>
@@ -18743,10 +18773,10 @@
     </row>
     <row r="136" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="E136" s="5" t="s">
         <v>10</v>
@@ -18755,10 +18785,10 @@
     </row>
     <row r="137" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>10</v>
@@ -18767,10 +18797,10 @@
     </row>
     <row r="138" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>10</v>
@@ -18779,10 +18809,10 @@
     </row>
     <row r="139" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>10</v>
@@ -18791,10 +18821,10 @@
     </row>
     <row r="140" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>10</v>
@@ -18803,10 +18833,10 @@
     </row>
     <row r="141" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>10</v>
@@ -18815,10 +18845,10 @@
     </row>
     <row r="142" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>10</v>
@@ -18833,10 +18863,10 @@
     </row>
     <row r="144" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>10</v>
@@ -18844,10 +18874,10 @@
     </row>
     <row r="145" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>10</v>
@@ -18855,10 +18885,10 @@
     </row>
     <row r="146" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>10</v>
@@ -18866,10 +18896,10 @@
     </row>
     <row r="147" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>10</v>
@@ -18877,10 +18907,10 @@
     </row>
     <row r="148" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>10</v>
@@ -18888,10 +18918,10 @@
     </row>
     <row r="149" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>10</v>
@@ -18899,10 +18929,10 @@
     </row>
     <row r="150" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="E150" s="5" t="s">
         <v>10</v>
@@ -18910,10 +18940,10 @@
     </row>
     <row r="151" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>10</v>
@@ -18921,10 +18951,10 @@
     </row>
     <row r="152" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="E152" s="5" t="s">
         <v>10</v>
@@ -18932,10 +18962,10 @@
     </row>
     <row r="153" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>10</v>
@@ -18943,10 +18973,10 @@
     </row>
     <row r="154" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>10</v>
@@ -18954,10 +18984,10 @@
     </row>
     <row r="155" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>10</v>
@@ -18965,10 +18995,10 @@
     </row>
     <row r="156" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>10</v>
@@ -18976,10 +19006,10 @@
     </row>
     <row r="157" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="E157" s="5" t="s">
         <v>10</v>
@@ -18992,10 +19022,10 @@
     </row>
     <row r="159" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>10</v>
@@ -19003,10 +19033,10 @@
     </row>
     <row r="160" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>10</v>
@@ -19014,10 +19044,10 @@
     </row>
     <row r="161" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="E161" s="5" t="s">
         <v>10</v>
@@ -19025,10 +19055,10 @@
     </row>
     <row r="162" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>10</v>
@@ -19036,10 +19066,10 @@
     </row>
     <row r="163" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>10</v>
@@ -19047,10 +19077,10 @@
     </row>
     <row r="164" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>10</v>
@@ -19058,10 +19088,10 @@
     </row>
     <row r="165" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="E165" s="5" t="s">
         <v>10</v>
@@ -19069,10 +19099,10 @@
     </row>
     <row r="166" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="E166" s="5" t="s">
         <v>10</v>
@@ -19080,10 +19110,10 @@
     </row>
     <row r="167" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="E167" s="5" t="s">
         <v>10</v>
@@ -19091,10 +19121,10 @@
     </row>
     <row r="168" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="E168" s="5" t="s">
         <v>10</v>
@@ -19102,10 +19132,10 @@
     </row>
     <row r="169" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="E169" s="5" t="s">
         <v>10</v>
@@ -19113,10 +19143,10 @@
     </row>
     <row r="170" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>10</v>
@@ -19124,10 +19154,10 @@
     </row>
     <row r="171" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="E171" s="5" t="s">
         <v>10</v>
@@ -19135,10 +19165,10 @@
     </row>
     <row r="172" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="E172" s="5" t="s">
         <v>10</v>
@@ -19151,10 +19181,10 @@
     </row>
     <row r="174" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="E174" s="5" t="s">
         <v>10</v>
@@ -19162,10 +19192,10 @@
     </row>
     <row r="175" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="E175" s="5" t="s">
         <v>10</v>
@@ -19173,10 +19203,10 @@
     </row>
     <row r="176" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="B176" s="19" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="E176" s="5" t="s">
         <v>10</v>
@@ -19184,10 +19214,10 @@
     </row>
     <row r="177" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="B177" s="19" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="E177" s="5" t="s">
         <v>10</v>
@@ -19195,10 +19225,10 @@
     </row>
     <row r="178" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="B178" s="19" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="E178" s="5" t="s">
         <v>10</v>
@@ -19206,10 +19236,10 @@
     </row>
     <row r="179" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="B179" s="19" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="E179" s="5" t="s">
         <v>10</v>
@@ -19217,10 +19247,10 @@
     </row>
     <row r="180" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="B180" s="19" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="E180" s="5" t="s">
         <v>10</v>
@@ -19228,10 +19258,10 @@
     </row>
     <row r="181" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="B181" s="19" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="E181" s="5" t="s">
         <v>10</v>
@@ -19239,10 +19269,10 @@
     </row>
     <row r="182" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="B182" s="19" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="E182" s="5" t="s">
         <v>10</v>
@@ -19250,10 +19280,10 @@
     </row>
     <row r="183" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="E183" s="5" t="s">
         <v>10</v>
@@ -19261,10 +19291,10 @@
     </row>
     <row r="184" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="E184" s="5" t="s">
         <v>10</v>
@@ -19272,10 +19302,10 @@
     </row>
     <row r="185" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="E185" s="5" t="s">
         <v>10</v>
@@ -19283,10 +19313,10 @@
     </row>
     <row r="186" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="B186" s="19" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="E186" s="5" t="s">
         <v>10</v>
@@ -19294,10 +19324,10 @@
     </row>
     <row r="187" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="E187" s="5" t="s">
         <v>10</v>
@@ -19310,10 +19340,10 @@
     </row>
     <row r="189" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="E189" s="5" t="s">
         <v>10</v>
@@ -19321,10 +19351,10 @@
     </row>
     <row r="190" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="E190" s="5" t="s">
         <v>10</v>
@@ -19332,10 +19362,10 @@
     </row>
     <row r="191" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="B191" s="19" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="E191" s="5" t="s">
         <v>10</v>
@@ -19343,10 +19373,10 @@
     </row>
     <row r="192" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="B192" s="19" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="E192" s="5" t="s">
         <v>10</v>
@@ -19354,10 +19384,10 @@
     </row>
     <row r="193" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="B193" s="19" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="E193" s="5" t="s">
         <v>10</v>
@@ -19365,10 +19395,10 @@
     </row>
     <row r="194" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="B194" s="19" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="E194" s="5" t="s">
         <v>10</v>
@@ -19376,10 +19406,10 @@
     </row>
     <row r="195" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="B195" s="19" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="E195" s="5" t="s">
         <v>10</v>
@@ -19387,10 +19417,10 @@
     </row>
     <row r="196" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="E196" s="5" t="s">
         <v>10</v>
@@ -19398,10 +19428,10 @@
     </row>
     <row r="197" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="E197" s="5" t="s">
         <v>10</v>
@@ -19409,10 +19439,10 @@
     </row>
     <row r="198" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="E198" s="5" t="s">
         <v>10</v>
@@ -19420,10 +19450,10 @@
     </row>
     <row r="199" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="E199" s="5" t="s">
         <v>10</v>
@@ -19431,10 +19461,10 @@
     </row>
     <row r="200" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="B200" s="19" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="E200" s="5" t="s">
         <v>10</v>
@@ -19442,10 +19472,10 @@
     </row>
     <row r="201" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="B201" s="19" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="E201" s="5" t="s">
         <v>10</v>
@@ -19453,10 +19483,10 @@
     </row>
     <row r="202" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="B202" s="19" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="E202" s="5" t="s">
         <v>10</v>
@@ -19469,10 +19499,10 @@
     </row>
     <row r="204" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="B204" s="19" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>10</v>
@@ -19480,10 +19510,10 @@
     </row>
     <row r="205" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="B205" s="19" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="E205" s="5" t="s">
         <v>10</v>
@@ -19491,10 +19521,10 @@
     </row>
     <row r="206" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="B206" s="19" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="E206" s="5" t="s">
         <v>10</v>
@@ -19502,10 +19532,10 @@
     </row>
     <row r="207" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B207" s="19" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="E207" s="5" t="s">
         <v>10</v>
@@ -19513,10 +19543,10 @@
     </row>
     <row r="208" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="B208" s="19" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="E208" s="5" t="s">
         <v>10</v>
@@ -19524,10 +19554,10 @@
     </row>
     <row r="209" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="B209" s="19" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="E209" s="5" t="s">
         <v>10</v>
@@ -19535,10 +19565,10 @@
     </row>
     <row r="210" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="B210" s="19" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="E210" s="5" t="s">
         <v>10</v>
@@ -19546,10 +19576,10 @@
     </row>
     <row r="211" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="B211" s="19" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="E211" s="5" t="s">
         <v>10</v>
@@ -19557,10 +19587,10 @@
     </row>
     <row r="212" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="B212" s="19" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="E212" s="5" t="s">
         <v>10</v>
@@ -19568,10 +19598,10 @@
     </row>
     <row r="213" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="B213" s="19" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E213" s="5" t="s">
         <v>10</v>
@@ -19579,10 +19609,10 @@
     </row>
     <row r="214" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="B214" s="19" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="E214" s="5" t="s">
         <v>10</v>
@@ -19590,10 +19620,10 @@
     </row>
     <row r="215" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B215" s="19" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="E215" s="5" t="s">
         <v>10</v>
@@ -19601,10 +19631,10 @@
     </row>
     <row r="216" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="B216" s="19" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="E216" s="5" t="s">
         <v>10</v>
@@ -19612,10 +19642,10 @@
     </row>
     <row r="217" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="B217" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="E217" s="5" t="s">
         <v>10</v>
@@ -19628,10 +19658,10 @@
     </row>
     <row r="219" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="B219" s="19" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="E219" s="5" t="s">
         <v>10</v>
@@ -19639,10 +19669,10 @@
     </row>
     <row r="220" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="B220" s="19" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="E220" s="5" t="s">
         <v>10</v>
@@ -19650,10 +19680,10 @@
     </row>
     <row r="221" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="B221" s="19" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="E221" s="5" t="s">
         <v>10</v>
@@ -19661,10 +19691,10 @@
     </row>
     <row r="222" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="B222" s="19" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="E222" s="5" t="s">
         <v>10</v>
@@ -19672,10 +19702,10 @@
     </row>
     <row r="223" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="B223" s="19" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="E223" s="5" t="s">
         <v>10</v>
@@ -19683,10 +19713,10 @@
     </row>
     <row r="224" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="B224" s="19" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="E224" s="5" t="s">
         <v>10</v>
@@ -19694,10 +19724,10 @@
     </row>
     <row r="225" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="B225" s="19" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="E225" s="5" t="s">
         <v>10</v>
@@ -19705,10 +19735,10 @@
     </row>
     <row r="226" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="B226" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="E226" s="5" t="s">
         <v>10</v>
@@ -19716,10 +19746,10 @@
     </row>
     <row r="227" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="B227" s="19" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="E227" s="5" t="s">
         <v>10</v>
@@ -19727,10 +19757,10 @@
     </row>
     <row r="228" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="B228" s="19" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="E228" s="5" t="s">
         <v>10</v>
@@ -19738,10 +19768,10 @@
     </row>
     <row r="229" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="B229" s="19" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="E229" s="5" t="s">
         <v>10</v>
@@ -19749,10 +19779,10 @@
     </row>
     <row r="230" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="B230" s="19" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="E230" s="5" t="s">
         <v>10</v>
@@ -19760,10 +19790,10 @@
     </row>
     <row r="231" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B231" s="19" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="E231" s="5" t="s">
         <v>10</v>
@@ -19771,17 +19801,17 @@
     </row>
     <row r="232" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="B232" s="19" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="E232" s="5" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -19838,10 +19868,10 @@
     </row>
     <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="C3" s="5">
         <v>44609</v>
@@ -19856,10 +19886,10 @@
     </row>
     <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="C4" s="5">
         <v>44609</v>
@@ -19874,10 +19904,10 @@
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="C5" s="5">
         <v>44609</v>
@@ -19892,10 +19922,10 @@
     </row>
     <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="C6" s="5">
         <v>44609</v>
@@ -19910,10 +19940,10 @@
     </row>
     <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="C7" s="5">
         <v>44609</v>
@@ -19928,10 +19958,10 @@
     </row>
     <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C8" s="5">
         <v>44609</v>
@@ -19946,10 +19976,10 @@
     </row>
     <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="C9" s="5">
         <v>44609</v>
@@ -19964,10 +19994,10 @@
     </row>
     <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="C10" s="5">
         <v>44609</v>
@@ -19982,10 +20012,10 @@
     </row>
     <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="C11" s="5">
         <v>44609</v>
@@ -20000,10 +20030,10 @@
     </row>
     <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="C12" s="5">
         <v>44609</v>
@@ -20018,10 +20048,10 @@
     </row>
     <row r="13" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="C13" s="5">
         <v>44609</v>
@@ -20036,10 +20066,10 @@
     </row>
     <row r="14" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="C14" s="5">
         <v>44609</v>
@@ -20054,10 +20084,10 @@
     </row>
     <row r="15" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="C15" s="5">
         <v>44609</v>
@@ -20072,10 +20102,10 @@
     </row>
     <row r="16" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="C16" s="5">
         <v>44609</v>
@@ -20097,10 +20127,10 @@
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="C18" s="5">
         <v>44615</v>
@@ -20115,10 +20145,10 @@
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="C19" s="5">
         <v>44615</v>
@@ -20133,10 +20163,10 @@
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="C20" s="5">
         <v>44615</v>
@@ -20151,10 +20181,10 @@
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="C21" s="5">
         <v>44615</v>
@@ -20169,10 +20199,10 @@
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="C22" s="5">
         <v>44615</v>
@@ -20187,10 +20217,10 @@
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="C23" s="5">
         <v>44615</v>
@@ -20205,10 +20235,10 @@
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="C24" s="5">
         <v>44615</v>
@@ -20223,10 +20253,10 @@
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="C25" s="5">
         <v>44615</v>
@@ -20240,10 +20270,10 @@
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="C26" s="5">
         <v>44615</v>
@@ -20257,10 +20287,10 @@
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="C27" s="5">
         <v>44615</v>
@@ -20274,10 +20304,10 @@
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="C28" s="5">
         <v>44615</v>
@@ -20291,10 +20321,10 @@
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="C29" s="5">
         <v>44615</v>
@@ -20308,10 +20338,10 @@
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="C30" s="5">
         <v>44615</v>
@@ -20325,10 +20355,10 @@
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="C31" s="5">
         <v>44615</v>
@@ -20348,10 +20378,10 @@
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C33" s="5">
         <v>44609</v>
@@ -20366,10 +20396,10 @@
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="C34" s="5">
         <v>44609</v>
@@ -20384,10 +20414,10 @@
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="C35" s="5">
         <v>44609</v>
@@ -20402,10 +20432,10 @@
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="B36" s="46" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="C36" s="5">
         <v>44609</v>
@@ -20420,10 +20450,10 @@
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="C37" s="5">
         <v>44609</v>
@@ -20438,10 +20468,10 @@
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="B38" s="46" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="C38" s="5">
         <v>44609</v>
@@ -20456,10 +20486,10 @@
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="B39" s="46" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="C39" s="5">
         <v>44609</v>
@@ -20474,10 +20504,10 @@
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="C40" s="5">
         <v>44609</v>
@@ -20491,10 +20521,10 @@
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="C41" s="5">
         <v>44609</v>
@@ -20508,10 +20538,10 @@
     </row>
     <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="B42" s="46" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="C42" s="5">
         <v>44609</v>
@@ -20525,10 +20555,10 @@
     </row>
     <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="B43" s="46" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C43" s="5">
         <v>44609</v>
@@ -20542,10 +20572,10 @@
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="B44" s="46" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="C44" s="5">
         <v>44609</v>
@@ -20559,10 +20589,10 @@
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="B45" s="46" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="C45" s="5">
         <v>44609</v>
@@ -20576,10 +20606,10 @@
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="B46" s="46" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="C46" s="5">
         <v>44609</v>
@@ -20600,10 +20630,10 @@
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="B48" s="46" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="C48" s="5">
         <v>44616</v>
@@ -20618,10 +20648,10 @@
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="B49" s="46" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C49" s="5">
         <v>44616</v>
@@ -20636,10 +20666,10 @@
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="B50" s="46" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="C50" s="5">
         <v>44616</v>
@@ -20654,10 +20684,10 @@
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="B51" s="46" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="C51" s="5">
         <v>44616</v>
@@ -20672,10 +20702,10 @@
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="B52" s="46" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="C52" s="5">
         <v>44616</v>
@@ -20690,10 +20720,10 @@
     </row>
     <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="B53" s="46" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="C53" s="5">
         <v>44616</v>
@@ -20708,10 +20738,10 @@
     </row>
     <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="B54" s="46" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="C54" s="5">
         <v>44616</v>
@@ -20726,10 +20756,10 @@
     </row>
     <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="B55" s="46" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="C55" s="5">
         <v>44616</v>
@@ -20743,10 +20773,10 @@
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="B56" s="46" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C56" s="5">
         <v>44616</v>
@@ -20760,10 +20790,10 @@
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="B57" s="46" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="C57" s="5">
         <v>44616</v>
@@ -20777,10 +20807,10 @@
     </row>
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="B58" s="46" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="C58" s="5">
         <v>44616</v>
@@ -20794,10 +20824,10 @@
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="B59" s="46" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="C59" s="5">
         <v>44616</v>
@@ -20811,10 +20841,10 @@
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="B60" s="46" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="C60" s="5">
         <v>44616</v>
@@ -20828,10 +20858,10 @@
     </row>
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="B61" s="46" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="C61" s="5">
         <v>44616</v>
@@ -20852,10 +20882,10 @@
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="B63" s="46" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C63" s="5">
         <v>44658</v>
@@ -20870,10 +20900,10 @@
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="B64" s="46" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="C64" s="5">
         <v>44658</v>
@@ -20888,10 +20918,10 @@
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="B65" s="46" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="C65" s="5">
         <v>44658</v>
@@ -20906,10 +20936,10 @@
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="B66" s="46" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="C66" s="5">
         <v>44658</v>
@@ -20924,10 +20954,10 @@
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="B67" s="46" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="C67" s="5">
         <v>44658</v>
@@ -20942,10 +20972,10 @@
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="B68" s="46" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="C68" s="5">
         <v>44658</v>
@@ -20960,10 +20990,10 @@
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="B69" s="46" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="C69" s="5">
         <v>44658</v>
@@ -20978,10 +21008,10 @@
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="B70" s="46" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="C70" s="5">
         <v>44658</v>
@@ -20995,10 +21025,10 @@
     </row>
     <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="B71" s="46" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="C71" s="5">
         <v>44658</v>
@@ -21012,10 +21042,10 @@
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="B72" s="46" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="C72" s="5">
         <v>44658</v>
@@ -21029,10 +21059,10 @@
     </row>
     <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="B73" s="46" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="C73" s="5">
         <v>44658</v>
@@ -21046,10 +21076,10 @@
     </row>
     <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="B74" s="46" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="C74" s="5">
         <v>44658</v>
@@ -21063,10 +21093,10 @@
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="B75" s="46" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="C75" s="5">
         <v>44658</v>
@@ -21080,10 +21110,10 @@
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="B76" s="46" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="C76" s="5">
         <v>44658</v>
@@ -21137,7 +21167,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -21154,7 +21184,7 @@
     </row>
     <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -21174,10 +21204,10 @@
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C5" s="5">
         <v>44797</v>
@@ -21193,10 +21223,10 @@
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C6" s="5">
         <v>44819</v>
@@ -21212,10 +21242,10 @@
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C7" s="5">
         <v>44819</v>
@@ -21231,16 +21261,16 @@
     </row>
     <row r="8" spans="1:7" s="25" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="45" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C8" s="5">
         <v>44775</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>10</v>
@@ -21250,16 +21280,16 @@
     </row>
     <row r="9" spans="1:7" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="45" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="C9" s="5">
         <v>44777</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>10</v>
@@ -21269,10 +21299,10 @@
     </row>
     <row r="10" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="45" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="C10" s="5">
         <v>44628</v>
@@ -21288,7 +21318,7 @@
     </row>
     <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="45" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="B11" s="40">
         <v>0.3</v>
@@ -21316,7 +21346,7 @@
     </row>
     <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -21336,10 +21366,10 @@
     </row>
     <row r="15" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="C15" s="5">
         <v>44698</v>
@@ -21355,10 +21385,10 @@
     </row>
     <row r="16" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="C16" s="5">
         <v>44698</v>
@@ -21374,10 +21404,10 @@
     </row>
     <row r="17" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="C17" s="5">
         <v>44698</v>
@@ -21402,10 +21432,10 @@
     </row>
     <row r="19" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="C19" s="5">
         <v>44650</v>
@@ -21421,10 +21451,10 @@
     </row>
     <row r="20" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="C20" s="5">
         <v>44650</v>
@@ -21440,10 +21470,10 @@
     </row>
     <row r="21" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="C21" s="5">
         <v>44650</v>
@@ -21459,10 +21489,10 @@
     </row>
     <row r="22" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="C22" s="5">
         <v>44650</v>
@@ -21486,10 +21516,10 @@
     </row>
     <row r="24" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="C24" s="5">
         <v>44883</v>
@@ -21502,15 +21532,15 @@
       </c>
       <c r="F24" s="35"/>
       <c r="G24" s="12" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="C25" s="5">
         <v>44883</v>
@@ -21523,15 +21553,15 @@
       </c>
       <c r="F25" s="35"/>
       <c r="G25" s="12" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="C26" s="5">
         <v>44883</v>
@@ -21544,15 +21574,15 @@
       </c>
       <c r="F26" s="35"/>
       <c r="G26" s="12" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="C27" s="5">
         <v>44883</v>
@@ -21565,7 +21595,7 @@
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="12" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -21577,10 +21607,10 @@
     </row>
     <row r="29" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="C29" s="5">
         <v>44650</v>
@@ -21596,10 +21626,10 @@
     </row>
     <row r="30" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="C30" s="5">
         <v>44650</v>
@@ -21615,10 +21645,10 @@
     </row>
     <row r="31" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="C31" s="5">
         <v>44650</v>
@@ -21634,10 +21664,10 @@
     </row>
     <row r="32" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="C32" s="5">
         <v>44650</v>
@@ -21661,10 +21691,10 @@
     </row>
     <row r="34" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="C34" s="5">
         <v>44650</v>
@@ -21680,10 +21710,10 @@
     </row>
     <row r="35" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="C35" s="5">
         <v>44650</v>
@@ -21699,10 +21729,10 @@
     </row>
     <row r="36" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="C36" s="5">
         <v>44650</v>
@@ -21718,10 +21748,10 @@
     </row>
     <row r="37" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="C37" s="5">
         <v>44650</v>
@@ -21745,10 +21775,10 @@
     </row>
     <row r="39" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="C39" s="5">
         <v>44658</v>
@@ -21764,10 +21794,10 @@
     </row>
     <row r="40" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="C40" s="5">
         <v>44658</v>
@@ -21783,10 +21813,10 @@
     </row>
     <row r="41" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="C41" s="5">
         <v>44658</v>
@@ -21802,10 +21832,10 @@
     </row>
     <row r="42" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="C42" s="5">
         <v>44658</v>
@@ -21830,10 +21860,10 @@
     </row>
     <row r="44" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="C44" s="5">
         <v>44650</v>
@@ -21849,10 +21879,10 @@
     </row>
     <row r="45" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="C45" s="5">
         <v>44650</v>
@@ -21868,10 +21898,10 @@
     </row>
     <row r="46" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="C46" s="5">
         <v>44650</v>
@@ -21887,10 +21917,10 @@
     </row>
     <row r="47" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="C47" s="5">
         <v>44650</v>
@@ -21917,10 +21947,10 @@
     </row>
     <row r="49" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="C49" s="5">
         <v>44655</v>
@@ -21933,15 +21963,15 @@
       </c>
       <c r="F49"/>
       <c r="G49" s="12" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="C50" s="5">
         <v>44655</v>
@@ -21957,10 +21987,10 @@
     </row>
     <row r="51" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="C51" s="5">
         <v>44655</v>
@@ -21976,10 +22006,10 @@
     </row>
     <row r="52" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="C52" s="5">
         <v>44655</v>
@@ -22003,10 +22033,10 @@
     </row>
     <row r="54" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="C54" s="5">
         <v>44874</v>
@@ -22019,7 +22049,7 @@
       </c>
       <c r="F54" s="22"/>
       <c r="G54" s="12" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -22033,10 +22063,10 @@
     </row>
     <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C56" s="5">
         <v>44641</v>
@@ -22052,10 +22082,10 @@
     </row>
     <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C57" s="5">
         <v>44641</v>
@@ -22071,10 +22101,10 @@
     </row>
     <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C58" s="5">
         <v>44641</v>
@@ -22097,10 +22127,10 @@
     </row>
     <row r="60" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="B60" s="43" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="C60" s="5">
         <v>44791</v>
@@ -22113,15 +22143,15 @@
       </c>
       <c r="F60" s="34"/>
       <c r="G60" s="12" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="B61" s="43" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="C61" s="5">
         <v>44874</v>
@@ -22134,15 +22164,15 @@
       </c>
       <c r="F61" s="33"/>
       <c r="G61" s="28" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="C62" s="5">
         <v>44791</v>
@@ -22155,15 +22185,15 @@
       </c>
       <c r="F62" s="34"/>
       <c r="G62" s="28" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="C63" s="5">
         <v>44791</v>
@@ -22176,15 +22206,15 @@
       </c>
       <c r="F63" s="34"/>
       <c r="G63" s="28" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="B64" s="43" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="C64" s="5">
         <v>44791</v>
@@ -22197,15 +22227,15 @@
       </c>
       <c r="F64" s="34"/>
       <c r="G64" s="28" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="B65" s="43" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="C65" s="5">
         <v>44791</v>
@@ -22218,15 +22248,15 @@
       </c>
       <c r="F65" s="34"/>
       <c r="G65" s="28" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="B66" s="43" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="C66" s="5">
         <v>44791</v>
@@ -22239,15 +22269,15 @@
       </c>
       <c r="F66" s="34"/>
       <c r="G66" s="28" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="B67" s="43" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="C67" s="5">
         <v>44791</v>
@@ -22260,15 +22290,15 @@
       </c>
       <c r="F67" s="34"/>
       <c r="G67" s="28" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="B68" s="43" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="C68" s="5">
         <v>44791</v>
@@ -22281,15 +22311,15 @@
       </c>
       <c r="F68" s="34"/>
       <c r="G68" s="28" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="B69" s="43" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="C69" s="5">
         <v>44791</v>
@@ -22302,15 +22332,15 @@
       </c>
       <c r="F69" s="34"/>
       <c r="G69" s="28" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="B70" s="43" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="C70" s="5">
         <v>44791</v>
@@ -22323,15 +22353,15 @@
       </c>
       <c r="F70" s="34"/>
       <c r="G70" s="28" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="B71" s="43" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="C71" s="5">
         <v>44791</v>
@@ -22344,15 +22374,15 @@
       </c>
       <c r="F71" s="34"/>
       <c r="G71" s="28" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="B72" s="43" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="C72" s="5">
         <v>44791</v>
@@ -22365,15 +22395,15 @@
       </c>
       <c r="F72" s="34"/>
       <c r="G72" s="28" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="C73" s="5">
         <v>44791</v>
@@ -22386,7 +22416,7 @@
       </c>
       <c r="F73" s="34"/>
       <c r="G73" s="28" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -22399,7 +22429,7 @@
     </row>
     <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="B75" s="44">
         <v>0</v>
@@ -22418,7 +22448,7 @@
     </row>
     <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="27" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="B76" s="44">
         <v>0.1</v>
@@ -22437,7 +22467,7 @@
     </row>
     <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="B77" s="44">
         <v>0.1</v>
@@ -22456,7 +22486,7 @@
     </row>
     <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="27" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="B78" s="44">
         <v>0.1</v>
@@ -22484,7 +22514,7 @@
     </row>
     <row r="80" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -22504,10 +22534,10 @@
     </row>
     <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C82" s="5">
         <v>44631</v>
@@ -22523,10 +22553,10 @@
     </row>
     <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C83" s="5">
         <v>44631</v>
@@ -22542,10 +22572,10 @@
     </row>
     <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C84" s="5">
         <v>44631</v>
@@ -22561,10 +22591,10 @@
     </row>
     <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="C85" s="5">
         <v>44836</v>
@@ -22578,10 +22608,10 @@
     </row>
     <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="C86" s="5">
         <v>44836</v>
@@ -22595,10 +22625,10 @@
     </row>
     <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C87" s="5">
         <v>44631</v>
@@ -22618,10 +22648,10 @@
     </row>
     <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C89" s="5">
         <v>44631</v>
@@ -22637,10 +22667,10 @@
     </row>
     <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C90" s="5">
         <v>44631</v>
@@ -22656,10 +22686,10 @@
     </row>
     <row r="91" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C91" s="5">
         <v>44631</v>
@@ -22675,10 +22705,10 @@
     </row>
     <row r="92" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C92" s="5">
         <v>44631</v>
@@ -22698,10 +22728,10 @@
     </row>
     <row r="94" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="C94" s="5">
         <v>44631</v>
@@ -22717,10 +22747,10 @@
     </row>
     <row r="95" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="C95" s="5">
         <v>44631</v>
@@ -22736,10 +22766,10 @@
     </row>
     <row r="96" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="C96" s="5">
         <v>44631</v>
@@ -22755,10 +22785,10 @@
     </row>
     <row r="97" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="C97" s="5">
         <v>44631</v>
@@ -22778,10 +22808,10 @@
     </row>
     <row r="99" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="C99" s="5">
         <v>44631</v>
@@ -22797,10 +22827,10 @@
     </row>
     <row r="100" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="C100" s="5">
         <v>44631</v>
@@ -22816,10 +22846,10 @@
     </row>
     <row r="101" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="C101" s="5">
         <v>44631</v>
@@ -22835,10 +22865,10 @@
     </row>
     <row r="102" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="C102" s="5">
         <v>44631</v>
@@ -22858,10 +22888,10 @@
     </row>
     <row r="104" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C104" s="5">
         <v>44631</v>
@@ -22877,10 +22907,10 @@
     </row>
     <row r="105" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C105" s="5">
         <v>44641</v>
@@ -22896,10 +22926,10 @@
     </row>
     <row r="106" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C106" s="5">
         <v>44641</v>
@@ -22922,10 +22952,10 @@
     </row>
     <row r="108" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="B108" s="43" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="C108" s="5">
         <v>44797</v>
@@ -22941,10 +22971,10 @@
     </row>
     <row r="109" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="C109" s="5">
         <v>44797</v>
@@ -22960,10 +22990,10 @@
     </row>
     <row r="110" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="C110" s="5">
         <v>44797</v>
@@ -22979,10 +23009,10 @@
     </row>
     <row r="111" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="C111" s="5">
         <v>44797</v>
@@ -22998,10 +23028,10 @@
     </row>
     <row r="112" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="C112" s="5">
         <v>44839</v>
@@ -23017,10 +23047,10 @@
     </row>
     <row r="113" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="C113" s="5">
         <v>44797</v>
@@ -23043,10 +23073,10 @@
     </row>
     <row r="115" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="B115" s="43" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="C115" s="5">
         <v>44797</v>
@@ -23062,10 +23092,10 @@
     </row>
     <row r="116" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="C116" s="5">
         <v>44797</v>
@@ -23081,10 +23111,10 @@
     </row>
     <row r="117" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="B117" s="23" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="C117" s="5">
         <v>44839</v>
@@ -23100,10 +23130,10 @@
     </row>
     <row r="118" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="C118" s="5">
         <v>44797</v>
@@ -23119,10 +23149,10 @@
     </row>
     <row r="119" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="C119" s="5">
         <v>44797</v>
@@ -23138,10 +23168,10 @@
     </row>
     <row r="120" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="C120" s="5">
         <v>44797</v>
@@ -23157,10 +23187,10 @@
     </row>
     <row r="121" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="B121" s="23" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="C121" s="5">
         <v>44797</v>
@@ -23176,10 +23206,10 @@
     </row>
     <row r="122" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="B122" s="23" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="C122" s="5">
         <v>44797</v>
@@ -23195,10 +23225,10 @@
     </row>
     <row r="123" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="B123" s="23" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="C123" s="5">
         <v>44797</v>
@@ -23214,10 +23244,10 @@
     </row>
     <row r="124" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="C124" s="5">
         <v>44797</v>
@@ -23233,10 +23263,10 @@
     </row>
     <row r="125" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="C125" s="5">
         <v>44797</v>
@@ -23252,10 +23282,10 @@
     </row>
     <row r="126" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="B126" s="23" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="C126" s="5">
         <v>44797</v>
@@ -23271,10 +23301,10 @@
     </row>
     <row r="127" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="C127" s="5">
         <v>44797</v>
@@ -23290,10 +23320,10 @@
     </row>
     <row r="128" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="C128" s="5">
         <v>44797</v>
@@ -23316,7 +23346,7 @@
     </row>
     <row r="130" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
@@ -23336,10 +23366,10 @@
     </row>
     <row r="132" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C132" s="5">
         <v>44641</v>
@@ -23355,10 +23385,10 @@
     </row>
     <row r="133" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C133" s="5">
         <v>44641</v>
@@ -23374,10 +23404,10 @@
     </row>
     <row r="134" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C134" s="5">
         <v>44641</v>
@@ -23400,10 +23430,10 @@
     </row>
     <row r="136" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="C136" s="38">
         <v>44830</v>
@@ -23419,10 +23449,10 @@
     </row>
     <row r="137" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="C137" s="38">
         <v>44830</v>
@@ -23438,10 +23468,10 @@
     </row>
     <row r="138" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="C138" s="38">
         <v>44830</v>
@@ -23457,10 +23487,10 @@
     </row>
     <row r="139" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="C139" s="38">
         <v>44836</v>
@@ -23474,10 +23504,10 @@
     </row>
     <row r="140" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="C140" s="38">
         <v>44836</v>
@@ -23491,10 +23521,10 @@
     </row>
     <row r="141" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="C141" s="38">
         <v>44830</v>
@@ -23518,7 +23548,7 @@
       <c r="G144" s="12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -23528,8 +23558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0115C1-5CD4-44DA-9758-A28CABFA2F85}">
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
@@ -23594,16 +23624,16 @@
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="45" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C5" s="47">
         <v>44777</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="E5" s="47" t="s">
         <v>10</v>
@@ -23613,7 +23643,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="45" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="B6" s="24">
         <v>0.51</v>
@@ -23622,7 +23652,7 @@
         <v>44777</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="E6" s="47" t="s">
         <v>10</v>
@@ -23632,16 +23662,16 @@
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="45" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C7" s="47">
         <v>44777</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="E7" s="47" t="s">
         <v>10</v>
@@ -23651,7 +23681,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="45" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="B8" s="54">
         <v>0.51</v>
@@ -23660,7 +23690,7 @@
         <v>44777</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="E8" s="47" t="s">
         <v>10</v>
@@ -23690,10 +23720,10 @@
     </row>
     <row r="11" spans="1:7" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="45" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C11" s="47">
         <v>44839</v>
@@ -23707,7 +23737,7 @@
     </row>
     <row r="12" spans="1:7" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="45" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="B12" s="55">
         <v>0.1</v>
@@ -23724,10 +23754,10 @@
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="45" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="C13" s="47">
         <v>44839</v>
@@ -23763,10 +23793,10 @@
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="45" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C16" s="47">
         <v>44865</v>
@@ -23781,10 +23811,10 @@
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="45" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="C17" s="47">
         <v>44865</v>
@@ -23819,10 +23849,10 @@
     </row>
     <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="45" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="C20" s="47">
         <v>44879</v>
@@ -23858,10 +23888,10 @@
     </row>
     <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="45" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C23" s="47">
         <v>44901</v>
@@ -23877,7 +23907,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="45" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="B24" s="53">
         <v>0.1</v>
@@ -23916,10 +23946,10 @@
     </row>
     <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="45" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C27" s="47">
         <v>44904</v>
@@ -23935,7 +23965,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="45" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="B28" s="53">
         <v>0.1</v>
@@ -23972,10 +24002,10 @@
     </row>
     <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="45" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C31" s="47">
         <v>44943</v>
@@ -23989,10 +24019,10 @@
     </row>
     <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="45" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="C32" s="47">
         <v>44943</v>
@@ -24006,10 +24036,10 @@
     </row>
     <row r="33" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A33" s="45" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C33" s="5">
         <v>44943</v>
@@ -24023,10 +24053,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="45" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C34" s="5">
         <v>44943</v>
@@ -24040,10 +24070,10 @@
     </row>
     <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="45" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C35" s="5">
         <v>44943</v>
@@ -24066,7 +24096,7 @@
     </row>
     <row r="37" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -24077,10 +24107,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="45" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C38" s="5">
         <v>44946</v>
@@ -24094,7 +24124,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="45" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="B39" s="53">
         <v>0.95</v>
@@ -24120,7 +24150,7 @@
     </row>
     <row r="41" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -24131,10 +24161,10 @@
     </row>
     <row r="42" spans="1:7" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A42" s="45" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="B42" s="46" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="C42" s="47">
         <v>44964</v>
@@ -24146,7 +24176,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="45" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="B43" s="55">
         <v>0.1</v>
@@ -24163,7 +24193,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="45" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="B44" s="55">
         <v>0.3</v>
@@ -25048,7 +25078,7 @@
     </row>
     <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -25059,10 +25089,10 @@
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="45" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C4" s="57">
         <v>44911</v>
@@ -25072,18 +25102,18 @@
       </c>
       <c r="E4" s="46"/>
       <c r="F4" s="41" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="G4" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="45" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="C5" s="57">
         <v>44911</v>
@@ -25096,10 +25126,10 @@
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="45" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="C6" s="57">
         <v>44911</v>
@@ -25112,10 +25142,10 @@
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="45" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="C7" s="57">
         <v>44911</v>
@@ -25136,10 +25166,10 @@
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="45" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="C9" s="57">
         <v>44911</v>
@@ -25152,10 +25182,10 @@
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="45" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="C10" s="57">
         <v>44911</v>
@@ -25168,10 +25198,10 @@
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="45" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="C11" s="57">
         <v>44911</v>
@@ -25184,10 +25214,10 @@
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="45" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="C12" s="57">
         <v>44911</v>
@@ -25200,10 +25230,10 @@
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="45" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="C13" s="57">
         <v>44911</v>
@@ -25216,10 +25246,10 @@
     </row>
     <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="45" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C14" s="57">
         <v>44911</v>
@@ -25240,10 +25270,10 @@
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="45" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="C16" s="57">
         <v>44911</v>
@@ -25256,10 +25286,10 @@
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="45" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="C17" s="57">
         <v>44911</v>
@@ -25272,7 +25302,7 @@
     </row>
     <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="45" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="B19" s="46" t="s">
         <v>165</v>
@@ -25284,7 +25314,7 @@
     </row>
     <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="45" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="B20" s="46" t="s">
         <v>107</v>
@@ -25296,7 +25326,7 @@
     </row>
     <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="45" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="B21" s="46" t="s">
         <v>96</v>
@@ -25308,10 +25338,10 @@
     </row>
     <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="45" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -25320,7 +25350,7 @@
     </row>
     <row r="23" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="45" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="B23" s="46" t="s">
         <v>29</v>
@@ -25332,7 +25362,7 @@
     </row>
     <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="45" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="B24" s="46" t="s">
         <v>31</v>
@@ -25344,10 +25374,10 @@
     </row>
     <row r="25" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="45" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -25356,10 +25386,10 @@
     </row>
     <row r="26" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="45" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -25368,10 +25398,10 @@
     </row>
     <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="45" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -25380,10 +25410,10 @@
     </row>
     <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="45" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -25392,10 +25422,10 @@
     </row>
     <row r="29" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="45" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -25404,10 +25434,10 @@
     </row>
     <row r="30" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="45" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -25416,10 +25446,10 @@
     </row>
     <row r="31" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="45" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -25428,7 +25458,7 @@
     </row>
     <row r="32" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="45" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="B32" s="46" t="s">
         <v>490</v>
@@ -25440,10 +25470,10 @@
     </row>
     <row r="33" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="45" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -25452,7 +25482,7 @@
     </row>
     <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="45" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="B35" s="49">
         <v>1.3</v>
@@ -25464,7 +25494,7 @@
     </row>
     <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="45" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="B36" s="49">
         <v>1.5</v>
@@ -25476,7 +25506,7 @@
     </row>
     <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="45" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="B37" s="49" t="s">
         <v>457</v>
@@ -25492,10 +25522,10 @@
     </row>
     <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="45" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="B38" s="49" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="C38" s="57">
         <v>44911</v>
@@ -25516,10 +25546,10 @@
     </row>
     <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="45" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="B40" s="49" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="C40" s="57">
         <v>44911</v>
@@ -25532,7 +25562,7 @@
     </row>
     <row r="42" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -25543,10 +25573,10 @@
     </row>
     <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="45" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C43" s="57">
         <v>44911</v>
@@ -25556,18 +25586,18 @@
       </c>
       <c r="E43" s="45"/>
       <c r="F43" s="41" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="G43" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="45" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="C44" s="57">
         <v>44911</v>
@@ -25580,10 +25610,10 @@
     </row>
     <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="45" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="C45" s="57">
         <v>44911</v>
@@ -25604,10 +25634,10 @@
     </row>
     <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="45" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="B47" s="45" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="C47" s="57">
         <v>44911</v>
@@ -25620,10 +25650,10 @@
     </row>
     <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="45" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="B48" s="45" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C48" s="57">
         <v>44911</v>
@@ -25637,10 +25667,10 @@
     </row>
     <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="45" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="B49" s="45" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C49" s="57">
         <v>44911</v>
@@ -25654,10 +25684,10 @@
     </row>
     <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="45" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="B50" s="45" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C50" s="57">
         <v>44911</v>
@@ -25670,10 +25700,10 @@
     </row>
     <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="45" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="B51" s="45" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="C51" s="57">
         <v>44911</v>
@@ -25686,10 +25716,10 @@
     </row>
     <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="45" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="B52" s="45" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C52" s="57">
         <v>44911</v>
@@ -25710,10 +25740,10 @@
     </row>
     <row r="54" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="45" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="B54" s="46" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="C54" s="57">
         <v>44911</v>
@@ -25726,10 +25756,10 @@
     </row>
     <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="45" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C55" s="57">
         <v>44911</v>
@@ -25742,10 +25772,10 @@
     </row>
     <row r="56" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="45" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="B56" s="46" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="C56" s="57">
         <v>44911</v>
@@ -25758,10 +25788,10 @@
     </row>
     <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="45" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="B57" s="45" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C57" s="57">
         <v>44911</v>
@@ -25774,10 +25804,10 @@
     </row>
     <row r="58" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="45" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="B58" s="46" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="C58" s="57">
         <v>44911</v>
@@ -25790,10 +25820,10 @@
     </row>
     <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="45" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B59" s="45" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C59" s="57">
         <v>44911</v>
@@ -25814,10 +25844,10 @@
     </row>
     <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="45" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="B61" s="45" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="C61" s="57">
         <v>44911</v>
@@ -25830,10 +25860,10 @@
     </row>
     <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="45" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="B62" s="45" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C62" s="57">
         <v>44911</v>
@@ -25846,10 +25876,10 @@
     </row>
     <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="45" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="B63" s="45" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="C63" s="57">
         <v>44911</v>
@@ -25862,10 +25892,10 @@
     </row>
     <row r="64" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="45" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C64" s="57">
         <v>44911</v>
@@ -25878,10 +25908,10 @@
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="45" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="B65" s="45" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="C65" s="57">
         <v>44911</v>
@@ -25894,10 +25924,10 @@
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="45" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="B66" s="45" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C66" s="57">
         <v>44911</v>
@@ -25918,10 +25948,10 @@
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="45" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="B68" s="45" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="C68" s="57">
         <v>44911</v>
@@ -25934,10 +25964,10 @@
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="45" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C69" s="57">
         <v>44911</v>
@@ -25950,10 +25980,10 @@
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="45" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="C70" s="57">
         <v>44911</v>
@@ -25966,10 +25996,10 @@
     </row>
     <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="45" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C71" s="57">
         <v>44911</v>
@@ -25982,10 +26012,10 @@
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="45" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="B72" s="45" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="C72" s="57">
         <v>44911</v>
@@ -25998,10 +26028,10 @@
     </row>
     <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="45" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="B73" s="45" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C73" s="57">
         <v>44911</v>
@@ -26022,10 +26052,10 @@
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="45" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="B75" s="45" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="C75" s="57">
         <v>44911</v>
@@ -26038,10 +26068,10 @@
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="45" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="B76" s="45" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C76" s="57">
         <v>44911</v>
@@ -26054,10 +26084,10 @@
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="45" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="B77" s="45" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="C77" s="57">
         <v>44911</v>
@@ -26070,10 +26100,10 @@
     </row>
     <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="45" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="B78" s="45" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C78" s="57">
         <v>44911</v>
@@ -26086,10 +26116,10 @@
     </row>
     <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="45" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="B79" s="45" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="C79" s="57">
         <v>44911</v>
@@ -26102,10 +26132,10 @@
     </row>
     <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="45" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="B80" s="45" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C80" s="57">
         <v>44911</v>
@@ -26126,10 +26156,10 @@
     </row>
     <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="45" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="B82" s="45" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="C82" s="57">
         <v>44911</v>
@@ -26142,10 +26172,10 @@
     </row>
     <row r="83" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="45" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="B83" s="45" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C83" s="57">
         <v>44911</v>
@@ -26158,10 +26188,10 @@
     </row>
     <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="45" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="B84" s="45" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="C84" s="57">
         <v>44911</v>
@@ -26174,10 +26204,10 @@
     </row>
     <row r="85" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="45" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="B85" s="45" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C85" s="57">
         <v>44911</v>
@@ -26190,10 +26220,10 @@
     </row>
     <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="45" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="B86" s="45" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="C86" s="57">
         <v>44911</v>
@@ -26206,10 +26236,10 @@
     </row>
     <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="45" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="B87" s="45" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C87" s="57">
         <v>44911</v>
@@ -26230,10 +26260,10 @@
     </row>
     <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="45" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="B89" s="45" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="C89" s="57">
         <v>44911</v>
@@ -26246,10 +26276,10 @@
     </row>
     <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="45" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="B90" s="45" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C90" s="57">
         <v>44911</v>
@@ -26262,10 +26292,10 @@
     </row>
     <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="45" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="B91" s="45" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C91" s="57">
         <v>44911</v>
@@ -26278,10 +26308,10 @@
     </row>
     <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="45" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="B92" s="45" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C92" s="57">
         <v>44911</v>
@@ -26294,10 +26324,10 @@
     </row>
     <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="45" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="B93" s="45" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C93" s="57">
         <v>44911</v>
@@ -26310,10 +26340,10 @@
     </row>
     <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="45" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="B94" s="45" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C94" s="57">
         <v>44911</v>
@@ -26334,10 +26364,10 @@
     </row>
     <row r="96" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="45" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="B96" s="46" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="C96" s="57">
         <v>44911</v>
@@ -26350,10 +26380,10 @@
     </row>
     <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="45" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="B97" s="45" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C97" s="57">
         <v>44911</v>
@@ -26366,10 +26396,10 @@
     </row>
     <row r="98" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" s="45" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="B98" s="46" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="C98" s="57">
         <v>44911</v>
@@ -26382,10 +26412,10 @@
     </row>
     <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="45" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="B99" s="45" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C99" s="57">
         <v>44911</v>
@@ -26398,10 +26428,10 @@
     </row>
     <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="45" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="B100" s="45" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="C100" s="57">
         <v>44911</v>
@@ -26414,10 +26444,10 @@
     </row>
     <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="B101" s="45" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C101" s="57">
         <v>44911</v>
@@ -26438,10 +26468,10 @@
     </row>
     <row r="103" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="45" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="B103" s="45" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="C103" s="57">
         <v>44911</v>
@@ -26454,10 +26484,10 @@
     </row>
     <row r="104" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="45" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="B104" s="45" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C104" s="57">
         <v>44911</v>
@@ -26470,10 +26500,10 @@
     </row>
     <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="45" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="B105" s="45" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="C105" s="57">
         <v>44911</v>
@@ -26486,10 +26516,10 @@
     </row>
     <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="45" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="B106" s="45" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C106" s="57">
         <v>44911</v>
@@ -26502,10 +26532,10 @@
     </row>
     <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="45" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="B107" s="45" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="C107" s="57">
         <v>44911</v>
@@ -26518,10 +26548,10 @@
     </row>
     <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="45" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="B108" s="45" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C108" s="57">
         <v>44911</v>
@@ -26542,10 +26572,10 @@
     </row>
     <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="45" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="B110" s="45" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="C110" s="57">
         <v>44911</v>
@@ -26558,10 +26588,10 @@
     </row>
     <row r="111" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="45" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="B111" s="45" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C111" s="57">
         <v>44911</v>
@@ -26574,10 +26604,10 @@
     </row>
     <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="45" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="B112" s="45" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="C112" s="57">
         <v>44911</v>
@@ -26590,10 +26620,10 @@
     </row>
     <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="45" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="B113" s="45" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C113" s="57">
         <v>44911</v>
@@ -26606,10 +26636,10 @@
     </row>
     <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="45" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="B114" s="45" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="C114" s="57">
         <v>44911</v>
@@ -26622,10 +26652,10 @@
     </row>
     <row r="115" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="45" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="B115" s="45" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C115" s="57">
         <v>44911</v>
@@ -26646,10 +26676,10 @@
     </row>
     <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="45" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="B117" s="45" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="C117" s="57">
         <v>44911</v>
@@ -26662,10 +26692,10 @@
     </row>
     <row r="118" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="45" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="B118" s="45" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C118" s="57">
         <v>44911</v>
@@ -26678,10 +26708,10 @@
     </row>
     <row r="119" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="45" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="B119" s="45" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="C119" s="57">
         <v>44911</v>
@@ -26694,10 +26724,10 @@
     </row>
     <row r="120" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="45" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="B120" s="45" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C120" s="57">
         <v>44911</v>
@@ -26710,10 +26740,10 @@
     </row>
     <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="45" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="B121" s="45" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="C121" s="57">
         <v>44911</v>
@@ -26726,10 +26756,10 @@
     </row>
     <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="45" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="B122" s="45" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C122" s="57">
         <v>44911</v>
@@ -26750,10 +26780,10 @@
     </row>
     <row r="124" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="45" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="B124" s="45" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="C124" s="57">
         <v>44911</v>
@@ -26766,10 +26796,10 @@
     </row>
     <row r="125" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="45" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B125" s="45" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C125" s="57">
         <v>44911</v>
@@ -26782,10 +26812,10 @@
     </row>
     <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="45" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="B126" s="45" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="C126" s="57">
         <v>44911</v>
@@ -26798,10 +26828,10 @@
     </row>
     <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="45" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="B127" s="45" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C127" s="57">
         <v>44911</v>
@@ -26814,10 +26844,10 @@
     </row>
     <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="45" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="B128" s="45" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="C128" s="57">
         <v>44911</v>
@@ -26830,10 +26860,10 @@
     </row>
     <row r="129" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="45" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="B129" s="45" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C129" s="57">
         <v>44911</v>
@@ -26854,10 +26884,10 @@
     </row>
     <row r="131" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="45" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="B131" s="45" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="C131" s="45"/>
       <c r="D131" s="45"/>
@@ -26866,10 +26896,10 @@
     </row>
     <row r="132" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="45" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="B132" s="45" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="C132" s="45"/>
       <c r="D132" s="45"/>
@@ -26878,10 +26908,10 @@
     </row>
     <row r="133" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="45" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="B133" s="45" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="C133" s="45"/>
       <c r="D133" s="45"/>
@@ -26890,10 +26920,10 @@
     </row>
     <row r="134" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="45" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="B134" s="45" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="C134" s="45"/>
       <c r="D134" s="45"/>
@@ -26902,10 +26932,10 @@
     </row>
     <row r="135" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="45" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="B135" s="45" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="C135" s="45"/>
       <c r="D135" s="45"/>
@@ -26914,10 +26944,10 @@
     </row>
     <row r="136" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="45" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="B136" s="45" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="C136" s="45"/>
       <c r="D136" s="45"/>
@@ -26927,10 +26957,10 @@
     </row>
     <row r="137" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="45" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="B137" s="45" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="C137" s="45"/>
       <c r="D137" s="45"/>
@@ -26940,10 +26970,10 @@
     </row>
     <row r="138" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="45" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="B138" s="45" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="C138" s="45"/>
       <c r="D138" s="45"/>
@@ -26962,10 +26992,10 @@
     </row>
     <row r="140" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="45" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="B140" s="45" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="C140" s="57">
         <v>44911</v>
@@ -26978,15 +27008,15 @@
       </c>
       <c r="F140" s="45"/>
       <c r="G140" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="45" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="B141" s="45" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="C141" s="57">
         <v>44911</v>
@@ -27001,10 +27031,10 @@
     </row>
     <row r="142" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="45" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="B142" s="45" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="C142" s="57">
         <v>44911</v>
@@ -27019,10 +27049,10 @@
     </row>
     <row r="143" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="45" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="B143" s="45" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="C143" s="57">
         <v>44911</v>
@@ -27037,10 +27067,10 @@
     </row>
     <row r="144" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="45" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="B144" s="45" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="C144" s="57">
         <v>44911</v>
@@ -27055,10 +27085,10 @@
     </row>
     <row r="145" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="45" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="B145" s="45" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="C145" s="57">
         <v>44911</v>
@@ -27074,10 +27104,10 @@
     </row>
     <row r="146" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="45" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="B146" s="45" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="C146" s="57">
         <v>44911</v>
@@ -27093,10 +27123,10 @@
     </row>
     <row r="147" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="45" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="B147" s="45" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="C147" s="57">
         <v>44911</v>
@@ -27121,10 +27151,10 @@
     </row>
     <row r="149" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="45" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="B149" s="45" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="C149" s="45"/>
       <c r="D149" s="45"/>
@@ -27134,10 +27164,10 @@
     </row>
     <row r="150" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="45" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="B150" s="45" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="C150" s="57">
         <v>44911</v>
@@ -27148,7 +27178,7 @@
       <c r="E150" s="45"/>
       <c r="F150" s="45"/>
       <c r="G150" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -27162,32 +27192,32 @@
     </row>
     <row r="152" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="45" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="B152" s="49" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="C152" s="49"/>
       <c r="D152" s="49"/>
       <c r="E152" s="49"/>
       <c r="F152" s="49"/>
       <c r="G152" s="45" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="45" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="B153" s="49" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="C153" s="49"/>
       <c r="D153" s="49"/>
       <c r="E153" s="49"/>
       <c r="F153" s="49"/>
       <c r="G153" s="45" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -27197,15 +27227,15 @@
       <c r="D154" s="49"/>
       <c r="E154" s="49"/>
       <c r="F154" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="45" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="B155" s="49" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C155" s="57">
         <v>44959</v>
@@ -27217,7 +27247,7 @@
         <v>203</v>
       </c>
       <c r="F155" s="63" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -27231,7 +27261,7 @@
     </row>
     <row r="157" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A157" s="10" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
@@ -27242,10 +27272,10 @@
     </row>
     <row r="158" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="58" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="B158" s="45" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C158" s="57">
         <v>44911</v>
@@ -27255,18 +27285,18 @@
       </c>
       <c r="E158" s="45"/>
       <c r="F158" s="41" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="G158" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="58" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="B159" s="45" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="C159" s="57">
         <v>44911</v>
@@ -27279,10 +27309,10 @@
     </row>
     <row r="160" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="58" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="B160" s="45" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="C160" s="57">
         <v>44911</v>
@@ -27303,10 +27333,10 @@
     </row>
     <row r="162" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="58" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="B162" s="58" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C162" s="57">
         <v>44911</v>
@@ -27319,10 +27349,10 @@
     </row>
     <row r="163" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="58" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="B163" s="58" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C163" s="57">
         <v>44911</v>
@@ -27335,10 +27365,10 @@
     </row>
     <row r="164" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="58" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="B164" s="58" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C164" s="57">
         <v>44911</v>
@@ -27351,10 +27381,10 @@
     </row>
     <row r="165" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="58" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="B165" s="58" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C165" s="57">
         <v>44911</v>
@@ -27367,10 +27397,10 @@
     </row>
     <row r="166" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="58" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="B166" s="58" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C166" s="57">
         <v>44911</v>
@@ -27383,10 +27413,10 @@
     </row>
     <row r="167" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="58" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="B167" s="58" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C167" s="57">
         <v>44911</v>
@@ -27407,10 +27437,10 @@
     </row>
     <row r="169" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="58" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="B169" s="58" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="C169" s="57">
         <v>44911</v>
@@ -27423,10 +27453,10 @@
     </row>
     <row r="170" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="58" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="B170" s="58" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C170" s="57">
         <v>44911</v>
@@ -27439,10 +27469,10 @@
     </row>
     <row r="171" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="58" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="B171" s="58" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="C171" s="57">
         <v>44911</v>
@@ -27455,10 +27485,10 @@
     </row>
     <row r="172" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="58" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="B172" s="58" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C172" s="57">
         <v>44911</v>
@@ -27471,10 +27501,10 @@
     </row>
     <row r="173" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="58" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="B173" s="58" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="C173" s="57">
         <v>44911</v>
@@ -27487,10 +27517,10 @@
     </row>
     <row r="174" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="58" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="B174" s="58" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C174" s="57">
         <v>44911</v>
@@ -27511,10 +27541,10 @@
     </row>
     <row r="176" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="58" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="B176" s="58" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C176" s="57">
         <v>44911</v>
@@ -27527,10 +27557,10 @@
     </row>
     <row r="177" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="58" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="B177" s="58" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C177" s="57">
         <v>44911</v>
@@ -27543,10 +27573,10 @@
     </row>
     <row r="178" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="58" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="B178" s="58" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C178" s="57">
         <v>44911</v>
@@ -27559,10 +27589,10 @@
     </row>
     <row r="179" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="58" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="B179" s="58" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C179" s="57">
         <v>44911</v>
@@ -27575,10 +27605,10 @@
     </row>
     <row r="180" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="58" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="B180" s="58" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="C180" s="57">
         <v>44911</v>
@@ -27591,10 +27621,10 @@
     </row>
     <row r="181" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="58" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="B181" s="58" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C181" s="57">
         <v>44911</v>
@@ -27615,10 +27645,10 @@
     </row>
     <row r="183" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="58" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="B183" s="58" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="C183" s="57">
         <v>44911</v>
@@ -27631,10 +27661,10 @@
     </row>
     <row r="184" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="58" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="B184" s="58" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C184" s="57">
         <v>44911</v>
@@ -27647,10 +27677,10 @@
     </row>
     <row r="185" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="58" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="B185" s="58" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="C185" s="57">
         <v>44911</v>
@@ -27663,10 +27693,10 @@
     </row>
     <row r="186" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="58" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="B186" s="58" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C186" s="57">
         <v>44911</v>
@@ -27679,10 +27709,10 @@
     </row>
     <row r="187" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="58" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="B187" s="58" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="C187" s="57">
         <v>44911</v>
@@ -27695,10 +27725,10 @@
     </row>
     <row r="188" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="58" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="B188" s="58" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C188" s="57">
         <v>44911</v>
@@ -27719,10 +27749,10 @@
     </row>
     <row r="190" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="45" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="B190" s="45" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="C190" s="45"/>
       <c r="D190" s="45"/>
@@ -27731,10 +27761,10 @@
     </row>
     <row r="191" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="45" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="B191" s="45" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="C191" s="45"/>
       <c r="D191" s="45"/>
@@ -27743,10 +27773,10 @@
     </row>
     <row r="192" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="45" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="B192" s="45" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="C192" s="45"/>
       <c r="D192" s="45"/>
@@ -27755,10 +27785,10 @@
     </row>
     <row r="193" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="45" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="B193" s="45" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="C193" s="45"/>
       <c r="D193" s="45"/>
@@ -27767,10 +27797,10 @@
     </row>
     <row r="194" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="45" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="B194" s="45" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="C194" s="45"/>
       <c r="D194" s="45"/>
@@ -27779,10 +27809,10 @@
     </row>
     <row r="195" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="45" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="B195" s="45" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="C195" s="45"/>
       <c r="D195" s="45"/>
@@ -27791,10 +27821,10 @@
     </row>
     <row r="196" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="45" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="B196" s="45" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="C196" s="45"/>
       <c r="D196" s="45"/>
@@ -27811,10 +27841,10 @@
     </row>
     <row r="198" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="45" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="B198" s="45" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="C198" s="45"/>
       <c r="D198" s="45"/>
@@ -27823,10 +27853,10 @@
     </row>
     <row r="199" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="58" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="B199" s="45" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="C199" s="57">
         <v>44911</v>
@@ -27837,7 +27867,7 @@
       <c r="E199" s="45"/>
       <c r="F199" s="45"/>
       <c r="G199" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -27850,17 +27880,17 @@
     </row>
     <row r="201" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="45" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="B201" s="49" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="C201" s="49"/>
       <c r="D201" s="49"/>
       <c r="E201" s="49"/>
       <c r="F201" s="49"/>
       <c r="G201" s="45" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -27872,10 +27902,10 @@
     </row>
     <row r="203" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="45" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="B203" s="49" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C203" s="57">
         <v>44959</v>
@@ -27887,12 +27917,12 @@
         <v>203</v>
       </c>
       <c r="F203" s="63" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A205" s="10" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="B205" s="10"/>
       <c r="C205" s="10"/>
@@ -27903,10 +27933,10 @@
     </row>
     <row r="206" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" s="58" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="B206" s="58" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C206" s="57">
         <v>44911</v>
@@ -27916,18 +27946,18 @@
       </c>
       <c r="E206" s="58"/>
       <c r="F206" s="41" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="G206" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" s="58" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="B207" s="58" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="C207" s="57">
         <v>44911</v>
@@ -27940,10 +27970,10 @@
     </row>
     <row r="208" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" s="58" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="B208" s="45" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="C208" s="57">
         <v>44911</v>
@@ -27964,10 +27994,10 @@
     </row>
     <row r="210" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" s="58" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="B210" s="58" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="C210" s="57">
         <v>44911</v>
@@ -27980,10 +28010,10 @@
     </row>
     <row r="211" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="58" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="B211" s="58" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C211" s="57">
         <v>44911</v>
@@ -27996,10 +28026,10 @@
     </row>
     <row r="212" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" s="58" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="B212" s="58" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="C212" s="57">
         <v>44911</v>
@@ -28012,10 +28042,10 @@
     </row>
     <row r="213" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" s="58" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="B213" s="58" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C213" s="57">
         <v>44911</v>
@@ -28028,10 +28058,10 @@
     </row>
     <row r="214" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" s="58" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="B214" s="58" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="C214" s="57">
         <v>44911</v>
@@ -28044,10 +28074,10 @@
     </row>
     <row r="215" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" s="58" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="B215" s="58" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C215" s="57">
         <v>44911</v>
@@ -28068,10 +28098,10 @@
     </row>
     <row r="217" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" s="58" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="B217" s="58" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C217" s="57">
         <v>44911</v>
@@ -28084,10 +28114,10 @@
     </row>
     <row r="218" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A218" s="58" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="B218" s="58" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C218" s="57">
         <v>44911</v>
@@ -28100,10 +28130,10 @@
     </row>
     <row r="219" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A219" s="58" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="B219" s="58" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C219" s="57">
         <v>44911</v>
@@ -28116,10 +28146,10 @@
     </row>
     <row r="220" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A220" s="58" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="B220" s="58" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C220" s="57">
         <v>44911</v>
@@ -28132,10 +28162,10 @@
     </row>
     <row r="221" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" s="58" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="B221" s="58" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="C221" s="57">
         <v>44911</v>
@@ -28148,10 +28178,10 @@
     </row>
     <row r="222" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" s="58" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="B222" s="58" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C222" s="57">
         <v>44911</v>
@@ -28172,10 +28202,10 @@
     </row>
     <row r="224" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" s="58" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="B224" s="58" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="C224" s="57">
         <v>44911</v>
@@ -28188,10 +28218,10 @@
     </row>
     <row r="225" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A225" s="58" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="B225" s="58" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C225" s="57">
         <v>44911</v>
@@ -28204,10 +28234,10 @@
     </row>
     <row r="226" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A226" s="58" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="B226" s="58" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="C226" s="57">
         <v>44911</v>
@@ -28220,10 +28250,10 @@
     </row>
     <row r="227" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" s="58" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="B227" s="58" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C227" s="57">
         <v>44911</v>
@@ -28236,10 +28266,10 @@
     </row>
     <row r="228" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A228" s="58" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="B228" s="58" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="C228" s="57">
         <v>44911</v>
@@ -28252,10 +28282,10 @@
     </row>
     <row r="229" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" s="58" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="B229" s="58" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C229" s="57">
         <v>44911</v>
@@ -28276,10 +28306,10 @@
     </row>
     <row r="231" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" s="58" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="B231" s="58" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C231" s="57">
         <v>44911</v>
@@ -28292,10 +28322,10 @@
     </row>
     <row r="232" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A232" s="58" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="B232" s="58" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C232" s="57">
         <v>44911</v>
@@ -28308,10 +28338,10 @@
     </row>
     <row r="233" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" s="58" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="B233" s="58" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C233" s="57">
         <v>44911</v>
@@ -28324,10 +28354,10 @@
     </row>
     <row r="234" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" s="58" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="B234" s="58" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C234" s="57">
         <v>44911</v>
@@ -28340,10 +28370,10 @@
     </row>
     <row r="235" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A235" s="58" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="B235" s="58" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="C235" s="57">
         <v>44911</v>
@@ -28356,10 +28386,10 @@
     </row>
     <row r="236" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A236" s="58" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="B236" s="58" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C236" s="57">
         <v>44911</v>
@@ -28380,10 +28410,10 @@
     </row>
     <row r="238" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" s="58" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="B238" s="58" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="C238" s="57">
         <v>44911</v>
@@ -28396,10 +28426,10 @@
     </row>
     <row r="239" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" s="58" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="B239" s="58" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C239" s="57">
         <v>44911</v>
@@ -28412,10 +28442,10 @@
     </row>
     <row r="240" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" s="58" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="B240" s="58" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="C240" s="57">
         <v>44911</v>
@@ -28428,10 +28458,10 @@
     </row>
     <row r="241" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A241" s="58" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="B241" s="58" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C241" s="57">
         <v>44911</v>
@@ -28444,10 +28474,10 @@
     </row>
     <row r="242" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A242" s="58" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="B242" s="58" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="C242" s="57">
         <v>44911</v>
@@ -28460,10 +28490,10 @@
     </row>
     <row r="243" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A243" s="58" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="B243" s="58" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C243" s="57">
         <v>44911</v>
@@ -28484,10 +28514,10 @@
     </row>
     <row r="245" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A245" s="58" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="B245" s="58" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C245" s="57">
         <v>44911</v>
@@ -28500,10 +28530,10 @@
     </row>
     <row r="246" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A246" s="58" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="B246" s="58" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C246" s="57">
         <v>44911</v>
@@ -28516,10 +28546,10 @@
     </row>
     <row r="247" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A247" s="58" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="B247" s="58" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C247" s="57">
         <v>44911</v>
@@ -28532,10 +28562,10 @@
     </row>
     <row r="248" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" s="58" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="B248" s="58" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C248" s="57">
         <v>44911</v>
@@ -28548,10 +28578,10 @@
     </row>
     <row r="249" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A249" s="58" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="B249" s="58" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C249" s="57">
         <v>44911</v>
@@ -28564,10 +28594,10 @@
     </row>
     <row r="250" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A250" s="58" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="B250" s="58" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C250" s="57">
         <v>44911</v>
@@ -28588,10 +28618,10 @@
     </row>
     <row r="252" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A252" s="58" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="B252" s="58" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="C252" s="57">
         <v>44911</v>
@@ -28604,10 +28634,10 @@
     </row>
     <row r="253" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A253" s="58" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="B253" s="58" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C253" s="57">
         <v>44911</v>
@@ -28620,10 +28650,10 @@
     </row>
     <row r="254" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" s="58" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="B254" s="58" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="C254" s="57">
         <v>44911</v>
@@ -28636,10 +28666,10 @@
     </row>
     <row r="255" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A255" s="58" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="B255" s="58" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C255" s="57">
         <v>44911</v>
@@ -28652,10 +28682,10 @@
     </row>
     <row r="256" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A256" s="58" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="B256" s="58" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="C256" s="57">
         <v>44911</v>
@@ -28668,10 +28698,10 @@
     </row>
     <row r="257" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A257" s="58" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="B257" s="58" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C257" s="57">
         <v>44911</v>
@@ -28692,10 +28722,10 @@
     </row>
     <row r="259" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A259" s="58" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="B259" s="58" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C259" s="57">
         <v>44911</v>
@@ -28708,10 +28738,10 @@
     </row>
     <row r="260" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A260" s="58" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="B260" s="58" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C260" s="57">
         <v>44911</v>
@@ -28724,10 +28754,10 @@
     </row>
     <row r="261" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A261" s="58" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="B261" s="58" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C261" s="57">
         <v>44911</v>
@@ -28740,10 +28770,10 @@
     </row>
     <row r="262" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A262" s="58" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="B262" s="58" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C262" s="57">
         <v>44911</v>
@@ -28756,10 +28786,10 @@
     </row>
     <row r="263" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A263" s="58" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="B263" s="58" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="C263" s="57">
         <v>44911</v>
@@ -28772,10 +28802,10 @@
     </row>
     <row r="264" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A264" s="58" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="B264" s="58" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C264" s="57">
         <v>44911</v>
@@ -28796,10 +28826,10 @@
     </row>
     <row r="266" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="45" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="B266" s="45" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="C266" s="45"/>
       <c r="D266" s="45"/>
@@ -28808,10 +28838,10 @@
     </row>
     <row r="267" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="45" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="B267" s="45" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="C267" s="45"/>
       <c r="D267" s="45"/>
@@ -28820,10 +28850,10 @@
     </row>
     <row r="268" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="45" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="B268" s="45" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="C268" s="45"/>
       <c r="D268" s="45"/>
@@ -28832,10 +28862,10 @@
     </row>
     <row r="269" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="45" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="B269" s="45" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="C269" s="45"/>
       <c r="D269" s="45"/>
@@ -28852,10 +28882,10 @@
     </row>
     <row r="271" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="45" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="B271" s="45" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="C271" s="45"/>
       <c r="D271" s="45"/>
@@ -28864,10 +28894,10 @@
     </row>
     <row r="272" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A272" s="58" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="B272" s="45" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="C272" s="57">
         <v>44911</v>
@@ -28878,7 +28908,7 @@
       <c r="E272" s="45"/>
       <c r="F272" s="45"/>
       <c r="G272" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -28891,32 +28921,32 @@
     </row>
     <row r="274" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="45" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="B274" s="49" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="C274" s="49"/>
       <c r="D274" s="49"/>
       <c r="E274" s="49"/>
       <c r="F274" s="49"/>
       <c r="G274" s="45" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="45" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="B275" s="49" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="C275" s="49"/>
       <c r="D275" s="49"/>
       <c r="E275" s="49"/>
       <c r="F275" s="49"/>
       <c r="G275" s="45" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -28929,10 +28959,10 @@
     </row>
     <row r="277" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="45" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="B277" s="45" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="C277" s="45"/>
       <c r="D277" s="45"/>
@@ -28950,10 +28980,10 @@
     </row>
     <row r="279" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A279" s="45" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="B279" s="45" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="C279" s="57">
         <v>44963</v>
@@ -28969,10 +28999,10 @@
     </row>
     <row r="280" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A280" s="45" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="B280" s="45" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="C280" s="57">
         <v>44963</v>
@@ -28997,10 +29027,10 @@
     </row>
     <row r="282" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A282" s="45" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="B282" s="49" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C282" s="57">
         <v>44959</v>
@@ -29012,13 +29042,13 @@
         <v>203</v>
       </c>
       <c r="F282" s="61" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="G282" s="62"/>
     </row>
     <row r="284" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A284" s="10" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="B284" s="10"/>
       <c r="C284" s="10"/>
@@ -29029,10 +29059,10 @@
     </row>
     <row r="285" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A285" s="58" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="B285" s="45" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="C285" s="57">
         <v>44911</v>
@@ -29042,18 +29072,18 @@
       </c>
       <c r="E285" s="45"/>
       <c r="F285" s="41" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="G285" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A286" s="58" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="B286" s="45" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="C286" s="57">
         <v>44911</v>
@@ -29074,10 +29104,10 @@
     </row>
     <row r="288" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A288" s="58" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="B288" s="58" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C288" s="57">
         <v>44911</v>
@@ -29090,10 +29120,10 @@
     </row>
     <row r="289" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A289" s="58" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
       <c r="B289" s="58" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C289" s="57">
         <v>44911</v>
@@ -29106,10 +29136,10 @@
     </row>
     <row r="290" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A290" s="58" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="B290" s="58" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C290" s="57">
         <v>44911</v>
@@ -29122,10 +29152,10 @@
     </row>
     <row r="291" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A291" s="58" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="B291" s="58" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C291" s="57">
         <v>44911</v>
@@ -29146,10 +29176,10 @@
     </row>
     <row r="293" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A293" s="58" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="B293" s="58" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="C293" s="57">
         <v>44911</v>
@@ -29162,10 +29192,10 @@
     </row>
     <row r="294" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A294" s="58" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="B294" s="58" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C294" s="57">
         <v>44911</v>
@@ -29178,10 +29208,10 @@
     </row>
     <row r="295" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A295" s="58" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="B295" s="58" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="C295" s="57">
         <v>44911</v>
@@ -29194,10 +29224,10 @@
     </row>
     <row r="296" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A296" s="58" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="B296" s="58" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C296" s="57">
         <v>44911</v>
@@ -29218,10 +29248,10 @@
     </row>
     <row r="298" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A298" s="58" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="B298" s="58" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C298" s="57">
         <v>44911</v>
@@ -29234,10 +29264,10 @@
     </row>
     <row r="299" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A299" s="58" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="B299" s="58" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C299" s="57">
         <v>44911</v>
@@ -29250,10 +29280,10 @@
     </row>
     <row r="300" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A300" s="58" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="B300" s="58" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="C300" s="57">
         <v>44911</v>
@@ -29266,10 +29296,10 @@
     </row>
     <row r="301" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A301" s="58" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="B301" s="58" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C301" s="57">
         <v>44911</v>
@@ -29290,10 +29320,10 @@
     </row>
     <row r="303" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A303" s="58" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="B303" s="58" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="C303" s="57">
         <v>44911</v>
@@ -29306,10 +29336,10 @@
     </row>
     <row r="304" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A304" s="58" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="B304" s="58" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C304" s="57">
         <v>44911</v>
@@ -29322,10 +29352,10 @@
     </row>
     <row r="305" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A305" s="58" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="B305" s="58" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="C305" s="57">
         <v>44911</v>
@@ -29338,10 +29368,10 @@
     </row>
     <row r="306" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A306" s="58" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="B306" s="58" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C306" s="57">
         <v>44911</v>
@@ -29362,10 +29392,10 @@
     </row>
     <row r="308" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="45" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="B308" s="45" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="C308" s="45"/>
       <c r="D308" s="45"/>
@@ -29374,10 +29404,10 @@
     </row>
     <row r="309" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="45" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="B309" s="45" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="C309" s="45"/>
       <c r="D309" s="45"/>
@@ -29386,10 +29416,10 @@
     </row>
     <row r="310" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="45" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="B310" s="45" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="C310" s="45"/>
       <c r="D310" s="45"/>
@@ -29398,10 +29428,10 @@
     </row>
     <row r="311" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="45" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="B311" s="45" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="C311" s="45"/>
       <c r="D311" s="45"/>
@@ -29410,10 +29440,10 @@
     </row>
     <row r="312" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="45" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="B312" s="45" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="C312" s="45"/>
       <c r="D312" s="45"/>
@@ -29430,10 +29460,10 @@
     </row>
     <row r="314" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="45" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="B314" s="45" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="C314" s="45"/>
       <c r="D314" s="45"/>
@@ -29442,10 +29472,10 @@
     </row>
     <row r="315" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A315" s="58" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="B315" s="58" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="C315" s="57">
         <v>44911</v>
@@ -29456,15 +29486,15 @@
       <c r="E315" s="58"/>
       <c r="F315" s="58"/>
       <c r="G315" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A317" s="45" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="B317" s="49" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C317" s="57">
         <v>44959</v>
@@ -29476,7 +29506,7 @@
         <v>203</v>
       </c>
       <c r="F317" s="63" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
     </row>
   </sheetData>
@@ -29732,15 +29762,15 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{905EC822-C85D-4815-A526-0083FD207757}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="52308ad5-aa2d-4701-bd11-5edd481a7970"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="8ee4a0ce-e9c8-448f-95e8-0be97c8ae141"/>
+    <ds:schemaRef ds:uri="52308ad5-aa2d-4701-bd11-5edd481a7970"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/spec-tokens.xlsx
+++ b/spec-tokens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garthdb/Spectrum/spectrum-tokens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5570A42F-EE46-8246-8370-617943A6A247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5414DAE0-A5BF-C442-84F1-92C63F843161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8020" yWindow="500" windowWidth="39100" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6140,16 +6140,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -6411,38 +6404,41 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6454,155 +6450,149 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="16" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -10470,7 +10460,7 @@
       <c r="I185" s="45"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F159" r:id="rId1" xr:uid="{E0B74BCF-941C-4091-92A3-D60AD28A5E37}"/>
   </hyperlinks>
@@ -10484,7 +10474,7 @@
   <dimension ref="A1:I373"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A333" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B357" sqref="B357"/>
     </sheetView>
   </sheetViews>
@@ -13832,7 +13822,7 @@
       <c r="A203" s="45" t="s">
         <v>419</v>
       </c>
-      <c r="B203" s="67" t="s">
+      <c r="B203" s="46" t="s">
         <v>420</v>
       </c>
       <c r="C203" s="47">
@@ -16483,7 +16473,7 @@
       <c r="A357" s="45" t="s">
         <v>600</v>
       </c>
-      <c r="B357" s="68" t="s">
+      <c r="B357" s="67" t="s">
         <v>1699</v>
       </c>
       <c r="C357" s="47">
@@ -19811,7 +19801,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -23548,7 +23538,7 @@
       <c r="G144" s="12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -29527,15 +29517,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="8ee4a0ce-e9c8-448f-95e8-0be97c8ae141">
@@ -29554,7 +29535,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A61085A9324F1740B616687CB3FC2029" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ce3756ada184f704d0854d959931df14">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52308ad5-aa2d-4701-bd11-5edd481a7970" xmlns:ns3="8ee4a0ce-e9c8-448f-95e8-0be97c8ae141" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95e8aa03c1379342797f89a929b281f5" ns2:_="" ns3:_="">
     <xsd:import namespace="52308ad5-aa2d-4701-bd11-5edd481a7970"/>
@@ -29751,32 +29732,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3764340F-59F8-4D85-9AA3-1B570AA4ED86}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{905EC822-C85D-4815-A526-0083FD207757}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8ee4a0ce-e9c8-448f-95e8-0be97c8ae141"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="52308ad5-aa2d-4701-bd11-5edd481a7970"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{905EC822-C85D-4815-A526-0083FD207757}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8ee4a0ce-e9c8-448f-95e8-0be97c8ae141"/>
-    <ds:schemaRef ds:uri="52308ad5-aa2d-4701-bd11-5edd481a7970"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64F03121-E4E0-4263-9030-E026269D024A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29793,4 +29775,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3764340F-59F8-4D85-9AA3-1B570AA4ED86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>